--- a/validate/check_Nicole.xlsx
+++ b/validate/check_Nicole.xlsx
@@ -1,936 +1,1087 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{61D850E7-BC52-4A87-84E7-6BCAE0A609ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CF9C55-C59B-4746-ABF9-DEE28AD459C8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="30120" yWindow="225" windowWidth="11880" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0.7" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="0.8" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0.7" sheetId="1" r:id="rId1"/>
+    <sheet name="0.8" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18627250/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18430662/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32688103/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32059657/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29483607/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33138840/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29909052/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28258945/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28199760/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30623425/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29191938/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/20581018/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/9364983/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25675149/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24696759/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18999118/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33718130/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34299970/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30109892/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33063019/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26342395/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/20630252/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25879872/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27514749/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26158061/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22736476/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/9935064/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31760458/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33962850/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27371608/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26176062/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23494188/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/17950099/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/16373766/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27005752/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/15648595/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26961089/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/21341890/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32038225/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29052793/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24227361/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25444458/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22586183/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31658065/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32449110/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26562602/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31100830/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32525101/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27497141/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23721347/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33245493/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26843394/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30985353/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34836546/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29108306/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22135381/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29369004/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22534733/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30113490/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32365192/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25700803/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22143195/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25634089/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34716280/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31006913/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30318399/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27188476/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/21247444/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33809057/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25104857/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28888846/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31949480/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/12860646/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24611004/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/19664100/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34246328/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28110990/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29663280/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34592936/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34371466/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26692201/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22885285/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31985750/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28831282/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23230101/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25972003/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25623715/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26575855/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30102783/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28018939/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32669841/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32851450/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31820666/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33604275/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30261989/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/16103283/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34069985/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26298035/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23912448/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22165978/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/15908026/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34677301/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31147234/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18508122/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34367249/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27716370/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29452177/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26337931/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27814746/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28640288/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/21338427/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28025654/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31412800/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32380249/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34355070/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33935447/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28407652/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/1661018/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27487404/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18362428/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/20603484/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24024031/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29054840/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/9136132/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31508366/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31800168/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32500192/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32695772/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26303974/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23845184/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26862547/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/14665876/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/19378390/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31515409/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32810233/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32061870/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/21470992/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23565268/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31652290/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27903005/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18649340/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26048734/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34130804/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28771435/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31241531/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/21726203/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22866824/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29167969/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23602730/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34345361/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31775095/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30888935/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/20101779/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34656880/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/17307670/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/7497751/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27215135/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30998728/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27478012/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23238818/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25035207/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29983541/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33484208/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/19660612/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34209526/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29740523/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26686716/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32583277/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29359406/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31286693/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33758503/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30498378/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22808263/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30092408/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33601303/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30299227/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27778429/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26638056/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33547137/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34880262/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/16195639/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25986138/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34438098/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29713048/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33215211/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26482887/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24674762/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23111977/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32861718/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25246744/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/17392556/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32799832/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34111763/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25305499/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24951017/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31929966/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31843207/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34263357/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25959234/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29457381/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/19997107/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31520364/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31758824/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30777202/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29803385/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32596378/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32999898/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27982759/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31985600/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34092856/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22578190/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28711541/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34544391/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28413214/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27057887/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23082465/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26798214/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/17075658/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31111575/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29367093/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33031936/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28882974/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31755952/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33052172/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28027937/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29997013/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30623485/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29344402/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24717965/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29160096/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30222594/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29847493/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28442839/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29684057/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30055838/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24097008/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22148520/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34499757/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31320896/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34332148/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24376436/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31254658/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34444425/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18420818/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32772255/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30399157/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23425692/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33388480/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/22992612/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27931942/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23769494/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/29397670/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28551764/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31719913/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23666424/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25075964/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/10704546/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28229271/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24100025/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/9580079/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27915126/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33325418/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33767373/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25515676/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/20136960/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/26684777/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31005516/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33227799/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33413082/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24798667/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24388453/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/20118735/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30098778/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18669543/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33414168/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32712258/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23919771/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27137648/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31304363/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32582490/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/27126428/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34356985/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30348048/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/33948485/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/28961382/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/25253263/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/24814895/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/3643621/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30622661/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30828420/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/30800199/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32743796/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18431770/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/19063642/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/34891400/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/23263603/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/10214840/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/31159814/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/32246796/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="351">
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18627250/</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18430662/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32688103/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32059657/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29483607/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33138840/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29909052/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28258945/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28199760/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30623425/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29191938/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20581018/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/9364983/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25675149/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24696759/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18999118/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33718130/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34299970/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30109892/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33063019/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26342395/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20630252/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25879872/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27514749/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26158061/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22736476/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/9935064/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31760458/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33962850/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27371608/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26176062/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23494188/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17950099/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16373766/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27005752/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15648595/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26961089/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21341890/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32038225/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29052793/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24227361/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25444458/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22586183/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31658065/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32449110/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26562602/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31100830/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32525101/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27497141/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23721347/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33245493/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26843394/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30985353/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34836546/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29108306/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22135381/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29369004/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22534733/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30113490/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32365192/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25700803/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22143195/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25634089/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34716280/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31006913/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30318399/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27188476/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21247444/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33809057/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25104857/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28888846/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31949480/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12860646/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24611004/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19664100/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34246328/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28110990/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29663280/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34592936/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34371466/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26692201/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22885285/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31985750/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28831282/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23230101/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25972003/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25623715/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26575855/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30102783/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28018939/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32669841/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32851450/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31820666/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33604275/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30261989/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16103283/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34069985/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26298035/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23912448/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22165978/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15908026/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34677301/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31147234/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18508122/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34367249/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27716370/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29452177/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26337931/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27814746/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28640288/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21338427/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28025654/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31412800/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32380249/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34355070/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33935447/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28407652/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/1661018/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27487404/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18362428/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20603484/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24024031/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29054840/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/9136132/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31508366/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31800168/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32500192/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32695772/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26303974/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23845184/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26862547/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/14665876/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19378390/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31515409/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32810233/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32061870/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21470992/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23565268/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31652290/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27903005/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18649340/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26048734/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34130804/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28771435/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31241531/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21726203/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22866824/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29167969/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23602730/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34345361/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31775095/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30888935/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20101779/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34656880/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17307670/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/7497751/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27215135/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30998728/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27478012/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23238818/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25035207/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29983541/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33484208/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19660612/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34209526/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29740523/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26686716/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32583277/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29359406/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31286693/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33758503/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30498378/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22808263/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30092408/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33601303/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30299227/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27778429/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26638056/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33547137/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34880262/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16195639/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25986138/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34438098/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29713048/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33215211/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26482887/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24674762/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23111977/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32861718/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25246744/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17392556/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32799832/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34111763/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25305499/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24951017/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31929966/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31843207/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34263357/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25959234/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29457381/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19997107/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31520364/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31758824/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30777202/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29803385/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32596378/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32999898/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27982759/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31985600/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34092856/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22578190/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28711541/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34544391/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28413214/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27057887/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23082465/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26798214/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17075658/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31111575/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29367093/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33031936/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28882974/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31755952/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33052172/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28027937/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29997013/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30623485/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29344402/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24717965/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29160096/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30222594/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29847493/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28442839/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29684057/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30055838/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24097008/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22148520/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34499757/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31320896/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34332148/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24376436/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31254658/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34444425/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18420818/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32772255/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30399157/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23425692/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33388480/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22992612/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27931942/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23769494/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29397670/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28551764/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31719913/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23666424/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25075964/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/10704546/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28229271/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24100025/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/9580079/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27915126/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33325418/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33767373/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25515676/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20136960/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26684777/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31005516/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33227799/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33413082/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24798667/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24388453/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20118735/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30098778/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18669543/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33414168/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32712258/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23919771/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27137648/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31304363/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32582490/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27126428/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34356985/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30348048/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33948485/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28961382/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25253263/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24814895/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/3643621/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30622661/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30828420/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30800199/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32743796/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18431770/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19063642/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34891400/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23263603/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/10214840/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31159814/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32246796/</t>
+  </si>
+  <si>
+    <t>1 appears in upper interval</t>
+  </si>
+  <si>
+    <t>1 refers to Model 1</t>
+  </si>
+  <si>
+    <t>1 refers to plot coordinates</t>
+  </si>
+  <si>
+    <t>refers to net AUC - pharma study</t>
+  </si>
+  <si>
+    <t>refers to 1 year follow up</t>
+  </si>
+  <si>
+    <t>refers to strategy 1</t>
+  </si>
+  <si>
+    <t>refers to (Cluster 1)</t>
+  </si>
+  <si>
+    <t>100% refers to sensitivity; uses respectively sentence structure</t>
+  </si>
+  <si>
+    <t>lots of calibration stats mixed in with AUC; 1 AUC of 0.999</t>
+  </si>
+  <si>
+    <t>area under response curve (AUC)</t>
+  </si>
+  <si>
+    <t>seems to be picking up odds ratios</t>
+  </si>
+  <si>
+    <t>refers to threshold value for dichotomising outcome</t>
+  </si>
+  <si>
+    <t>refers to sensitivity and specificity calculated from the AUC</t>
+  </si>
+  <si>
+    <t>Appears to be pharma study with chemical reaction notation</t>
+  </si>
+  <si>
+    <t>reason for 1 unclear</t>
+  </si>
+  <si>
+    <t>refers to calibration slope</t>
+  </si>
+  <si>
+    <t>refers to an ROC slope of 1?!</t>
+  </si>
+  <si>
+    <t>an AUC of 1.000!</t>
+  </si>
+  <si>
+    <t>mentions ROC of 1 and area under accumulation curve</t>
+  </si>
+  <si>
+    <t>refers to cuf off value to dichotomise outcome</t>
+  </si>
+  <si>
+    <t>reason for 1 unclear; likely variable name</t>
+  </si>
+  <si>
+    <t>refers to ROC being close to 1</t>
+  </si>
+  <si>
+    <t>refers to coding of cases as 1</t>
+  </si>
+  <si>
+    <t>refers to precision and recall values</t>
+  </si>
+  <si>
+    <t>appears to refer to OR</t>
+  </si>
+  <si>
+    <t>refers to method 1</t>
+  </si>
+  <si>
+    <t>refers to maximum possible value of AUC</t>
+  </si>
+  <si>
+    <t>So many AUCs…great work finding the 0.7!</t>
+  </si>
+  <si>
+    <t>refers to transformed partial area under the curve?</t>
+  </si>
+  <si>
+    <t>implies mean value but poorly worded</t>
+  </si>
+  <si>
+    <t>refers to balanced classification rate (BCR)</t>
+  </si>
+  <si>
+    <t>refers to AUCS no more than 0.7 and less useful</t>
+  </si>
+  <si>
+    <t>refers to AUCs above and below 0.7</t>
+  </si>
+  <si>
+    <t>marked as true but abstract only states models reached an AUC of 0.7 or higher</t>
+  </si>
+  <si>
+    <t>Marked as true but 0.7 appears at lower end of AUC range across different cohorts. States mean AUC as 0.87 across all cohorts</t>
+  </si>
+  <si>
+    <t>Cited as lower end of AUC range across different analyses</t>
+  </si>
+  <si>
+    <t>refers to accuracies and AUCs above and below 80%</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>refers to prediction rates between 0.8 and 0.9; auc range is 0.71 to 1</t>
+  </si>
+  <si>
+    <t>poorly worded but marked as true</t>
+  </si>
+  <si>
+    <t>appears to be a pharma study</t>
+  </si>
+  <si>
+    <t>refers to the AUC for a model published by other researchers</t>
+  </si>
+  <si>
+    <t>uses +/- notation for describing uncertainty in AUC values</t>
+  </si>
+  <si>
+    <t>poorly worded but marked as true (multiple respectivelys in the same sentence)</t>
+  </si>
+  <si>
+    <t>not mention of 0.8 in the abstract</t>
+  </si>
+  <si>
+    <t>refers to AUC values being above 0.8</t>
+  </si>
+  <si>
+    <t>refers to an AUC value for a model published by other authors</t>
+  </si>
+  <si>
+    <t>0.8 appears in lower and upper intevals - so many AUCs!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -966,40 +1117,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C101"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="link"/>
-    <tableColumn id="2" name="correct"/>
-    <tableColumn id="3" name="comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="link"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C101"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="link"/>
-    <tableColumn id="2" name="correct"/>
-    <tableColumn id="3" name="comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="link"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C101"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="link"/>
-    <tableColumn id="2" name="correct"/>
-    <tableColumn id="3" name="comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="link"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1283,19 +1443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="12.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,929 +1468,1091 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14"/>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15"/>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
       <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38"/>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42"/>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44"/>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45"/>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46"/>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
       <c r="C46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47"/>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48"/>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51"/>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52"/>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53"/>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57"/>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58"/>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61"/>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63"/>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64"/>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66"/>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67"/>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68"/>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B69"/>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70"/>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
       <c r="C71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B72"/>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73"/>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
       <c r="C73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77"/>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="B78"/>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79"/>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
       <c r="C79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80"/>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
       <c r="C80" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81"/>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B82"/>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
       <c r="C83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
       <c r="C84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
       <c r="C86" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
       <c r="C87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
       <c r="C89" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="B91"/>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
       <c r="C91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B92"/>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="B93"/>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B94"/>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
       <c r="C94" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="B95"/>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="B96"/>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
       <c r="C96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="B97"/>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
       <c r="C98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>50</v>
       </c>
-      <c r="B99"/>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
       <c r="C99" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
-      <c r="B100"/>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
       <c r="C100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
-      <c r="B101"/>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
       <c r="C101" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="12.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2239,929 +2563,1131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>340</v>
+      </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>117</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>119</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>121</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>122</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>123</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>124</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>125</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>126</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>129</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>130</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>131</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>132</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>133</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>134</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>135</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>138</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38"/>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>140</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>141</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>142</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>143</v>
       </c>
-      <c r="B42"/>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>144</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>145</v>
       </c>
-      <c r="B44"/>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
-      <c r="B45"/>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
-      <c r="B46"/>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>148</v>
       </c>
-      <c r="B47"/>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>149</v>
       </c>
-      <c r="B48"/>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>150</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>151</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
-      <c r="B51"/>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>153</v>
       </c>
-      <c r="B52"/>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>154</v>
       </c>
-      <c r="B53"/>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>156</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
       <c r="C55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>157</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
-      <c r="B57"/>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>159</v>
       </c>
-      <c r="B58"/>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
       <c r="C58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>160</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>161</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>162</v>
       </c>
-      <c r="B61"/>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>163</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>164</v>
       </c>
-      <c r="B63"/>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
-      <c r="B64"/>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>166</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>167</v>
       </c>
-      <c r="B66"/>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>168</v>
       </c>
-      <c r="B67"/>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>169</v>
       </c>
-      <c r="B68"/>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>170</v>
       </c>
-      <c r="B69"/>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>171</v>
       </c>
-      <c r="B70"/>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>172</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>173</v>
       </c>
-      <c r="B72"/>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>174</v>
       </c>
-      <c r="B73"/>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>175</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>176</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
       <c r="C75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>177</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
-      <c r="B77"/>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
       <c r="C77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>179</v>
       </c>
-      <c r="B78"/>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
-      <c r="B79"/>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
       <c r="C79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
-      <c r="B80"/>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
       <c r="C80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>182</v>
       </c>
-      <c r="B81"/>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>183</v>
       </c>
-      <c r="B82"/>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
       <c r="C83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>185</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
       <c r="C84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>187</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
       <c r="C86" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
       <c r="C87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>189</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
       <c r="C89" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>191</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>192</v>
       </c>
-      <c r="B91"/>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
       <c r="C91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>193</v>
       </c>
-      <c r="B92"/>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>194</v>
       </c>
-      <c r="B93"/>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>195</v>
       </c>
-      <c r="B94"/>
+      <c r="B94" t="b">
+        <v>0</v>
+      </c>
       <c r="C94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
-      <c r="B95"/>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>197</v>
       </c>
-      <c r="B96"/>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
       <c r="C96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>198</v>
       </c>
-      <c r="B97"/>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>199</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
       <c r="C98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>200</v>
       </c>
-      <c r="B99"/>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
       <c r="C99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100"/>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
       <c r="C100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101"/>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
       <c r="C101" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="12.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3172,911 +3698,1111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>205</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>206</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>207</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>210</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>213</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>217</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>218</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>219</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>220</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
       <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>221</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>222</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
       <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>223</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>224</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>225</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>226</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>227</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
       <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>229</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>230</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>231</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
       <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>232</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
       <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>233</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
       <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>234</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>235</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>236</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>237</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>238</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>239</v>
       </c>
-      <c r="B38"/>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
       <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>240</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
       <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>241</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>242</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>243</v>
       </c>
-      <c r="B42"/>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>244</v>
       </c>
-      <c r="B43"/>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>245</v>
       </c>
-      <c r="B44"/>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>246</v>
       </c>
-      <c r="B45"/>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
       <c r="C45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>247</v>
       </c>
-      <c r="B46"/>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
       <c r="C46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>248</v>
       </c>
-      <c r="B47"/>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>249</v>
       </c>
-      <c r="B48"/>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
       <c r="C48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>250</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>251</v>
       </c>
-      <c r="B50"/>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
       <c r="C50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>252</v>
       </c>
-      <c r="B51"/>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>253</v>
       </c>
-      <c r="B52"/>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>254</v>
       </c>
-      <c r="B53"/>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
       <c r="C53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>255</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>256</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>257</v>
       </c>
-      <c r="B56"/>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
       <c r="C56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>258</v>
       </c>
-      <c r="B57"/>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
       <c r="C57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>259</v>
       </c>
-      <c r="B58"/>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>260</v>
       </c>
-      <c r="B59"/>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>261</v>
       </c>
-      <c r="B60"/>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
       <c r="C60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61"/>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>263</v>
       </c>
-      <c r="B62"/>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
       <c r="C62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>264</v>
       </c>
-      <c r="B63"/>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
       <c r="C63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>265</v>
       </c>
-      <c r="B64"/>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
       <c r="C64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>266</v>
       </c>
-      <c r="B65"/>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>267</v>
       </c>
-      <c r="B66"/>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>268</v>
       </c>
-      <c r="B67"/>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>269</v>
       </c>
-      <c r="B68"/>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
       <c r="C68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>270</v>
       </c>
-      <c r="B69"/>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>271</v>
       </c>
-      <c r="B70"/>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>272</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
       <c r="C71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>273</v>
       </c>
-      <c r="B72"/>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>274</v>
       </c>
-      <c r="B73"/>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>275</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>276</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>277</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>278</v>
       </c>
-      <c r="B77"/>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>279</v>
       </c>
-      <c r="B78"/>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>280</v>
       </c>
-      <c r="B79"/>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
       <c r="C79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>281</v>
       </c>
-      <c r="B80"/>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
       <c r="C80" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>282</v>
       </c>
-      <c r="B81"/>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>283</v>
       </c>
-      <c r="B82"/>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
       <c r="C82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>284</v>
       </c>
-      <c r="B83"/>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
       <c r="C83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>285</v>
       </c>
-      <c r="B84"/>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
       <c r="C84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>286</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>287</v>
       </c>
-      <c r="B86"/>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
       <c r="C86" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>288</v>
       </c>
-      <c r="B87"/>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
       <c r="C87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>289</v>
       </c>
-      <c r="B88"/>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>290</v>
       </c>
-      <c r="B89"/>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
       <c r="C89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>291</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
       <c r="C90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>292</v>
       </c>
-      <c r="B91"/>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
       <c r="C91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>293</v>
       </c>
-      <c r="B92"/>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
       <c r="C92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>294</v>
       </c>
-      <c r="B93"/>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>295</v>
       </c>
-      <c r="B94"/>
+      <c r="B94" t="b">
+        <v>0</v>
+      </c>
       <c r="C94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>296</v>
       </c>
-      <c r="B95"/>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
       <c r="C95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>297</v>
       </c>
-      <c r="B96"/>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
       <c r="C96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>298</v>
       </c>
-      <c r="B97"/>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>299</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
       <c r="C98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>300</v>
       </c>
-      <c r="B99"/>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
       <c r="C99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>301</v>
       </c>
-      <c r="B100"/>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
       <c r="C100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>302</v>
       </c>
-      <c r="B101"/>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
       <c r="C101" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/validate/check_Nicole.xlsx
+++ b/validate/check_Nicole.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Research\Projects\ihbi\aushsi\aushsi_barnetta\meta.research\text.mining\AUC\validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="8_{61D850E7-BC52-4A87-84E7-6BCAE0A609ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CF9C55-C59B-4746-ABF9-DEE28AD459C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8972485-D5F8-496E-B114-8100BA1684D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="225" windowWidth="11880" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.7" sheetId="1" r:id="rId1"/>
-    <sheet name="0.8" sheetId="2" r:id="rId2"/>
-    <sheet name="1" sheetId="3" r:id="rId3"/>
+    <sheet name="0.57" sheetId="8" r:id="rId2"/>
+    <sheet name="0.8" sheetId="2" r:id="rId3"/>
+    <sheet name="0.81" sheetId="4" r:id="rId4"/>
+    <sheet name="1" sheetId="3" r:id="rId5"/>
+    <sheet name="0.58" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="857">
   <si>
     <t>link</t>
   </si>
@@ -1044,9 +1047,6 @@
     <t>refers to accuracies and AUCs above and below 80%</t>
   </si>
   <si>
-    <t>CHECK</t>
-  </si>
-  <si>
     <t>refers to prediction rates between 0.8 and 0.9; auc range is 0.71 to 1</t>
   </si>
   <si>
@@ -1074,17 +1074,1594 @@
     <t>refers to an AUC value for a model published by other authors</t>
   </si>
   <si>
-    <t>0.8 appears in lower and upper intevals - so many AUCs!</t>
+    <t>Wrong statistic</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23518864/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34262523/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29356346/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29761877/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19322904/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25176131/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27519287/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26683515/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33733206/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28328813/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31605412/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34788635/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2307170/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30371283/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31169726/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33427908/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23260095/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26000597/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34086721/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11481263/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34144309/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25955822/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31711729/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24241909/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23835879/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28506039/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34055932/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25495282/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32051745/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33743483/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26060063/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32430185/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30683839/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29023219/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24593733/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12511763/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32327943/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34132473/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30304731/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33544167/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33067403/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34891712/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25634719/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27148878/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30225540/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34313468/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22661450/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27471404/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28292321/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28868408/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34524234/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30335184/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25564007/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34722755/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11248624/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29698784/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32097569/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24815876/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26546997/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31301251/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22732597/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29527504/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28797349/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32238885/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29994306/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28391426/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20206172/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33337678/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34548280/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32781116/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34013053/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23073293/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34453574/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28344449/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32614505/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33923925/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31661190/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21852906/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32842058/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25082550/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28895474/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33348225/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24838941/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26589761/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26342047/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28068363/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16003052/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32626747/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34559819/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34162234/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34002868/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15717187/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25629578/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29533721/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32654521/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21197361/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32917366/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34021028/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33451628/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31511022/</t>
+  </si>
+  <si>
+    <t>median AUC value quoted in place of mean</t>
+  </si>
+  <si>
+    <t>text from methods The AUC and correlation coefficient greater than 0.70 were considered as acceptable responsiveness.</t>
+  </si>
+  <si>
+    <t>AUC was 0.64 based on cutoff value of 0.81</t>
+  </si>
+  <si>
+    <t>refers to cutoff value of 0.81</t>
+  </si>
+  <si>
+    <t>pharma study; effect size of 0.81</t>
+  </si>
+  <si>
+    <t>mentioned in range, implies CI</t>
+  </si>
+  <si>
+    <t>mentioned as part of mean AUC range for different models</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30041764/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27179904/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33572924/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20033597/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25191764/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27524809/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29390273/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26158050/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34857774/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21413596/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21680907/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33168045/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15629380/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30981846/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18451345/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32231750/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24616064/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29934208/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30915928/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24965188/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27372208/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32459108/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21074193/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20691304/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18677519/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20877164/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20961457/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33984349/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31620091/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29253501/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31623652/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20716351/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29528448/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21517669/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25904188/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34076933/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30094168/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33023921/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33307457/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18292478/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26689104/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22761950/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33080485/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34875054/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12107682/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21511223/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34495438/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21232699/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12739717/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24990406/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34583751/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19633880/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25257958/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25710772/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22892922/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23643910/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34246278/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26224504/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26346934/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31088588/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24817140/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30900423/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28401198/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34612051/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33859971/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33609649/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32667760/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29363773/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24322751/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32987048/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33471808/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20809905/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31633308/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34131263/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29866342/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25822978/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28795613/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29419671/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30369429/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30775826/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29936061/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31060397/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27772738/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24637340/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24055180/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31132179/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15741286/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31759363/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/26803743/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23701538/</t>
+  </si>
+  <si>
+    <t>framed as inferior model</t>
+  </si>
+  <si>
+    <t>refers to models offering no predictive value</t>
+  </si>
+  <si>
+    <t>framed as negative study</t>
+  </si>
+  <si>
+    <t>comparator model</t>
+  </si>
+  <si>
+    <t>discriminated poorly</t>
+  </si>
+  <si>
+    <t>refers to clinical score. AUC improves after adding a new biomaker</t>
+  </si>
+  <si>
+    <t>low accuracy</t>
+  </si>
+  <si>
+    <t>upper value in AUC range - lower value was 0.33</t>
+  </si>
+  <si>
+    <t>framed as inferior model (added new biomarker to framingham)</t>
+  </si>
+  <si>
+    <t>framed as inferior model; comparing different biomarkers</t>
+  </si>
+  <si>
+    <t>framed as inferior model (added new biomarker to a clinical score)</t>
+  </si>
+  <si>
+    <t>written as -0.57; assuming typo</t>
+  </si>
+  <si>
+    <t>In Methods: The AUC can be interpreted as the likelihood that a model correctly classified an observation and thus, a priori, an AUC of 0.7 was chosen as threshold for a clinically meaningful model.</t>
+  </si>
+  <si>
+    <t>framed as inferior model; compared different frailty indices</t>
+  </si>
+  <si>
+    <t>0.8 appears in lower and upper intervals - so many AUCs!</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29195110/</t>
+  </si>
+  <si>
+    <t>Results are presented as means ± SD. All reported probability values were 2-sided, and a probability value of &lt;0.05 was considered statistically significant. Categorical variables were compared by means of the Chi-square test. Continuous variables were compared by ANOVA. In study 1, univariate linear regression analyses were performed to assess the relationship among variables. Multivariate regression analysis was performed to identify independent variables associated with brachial artery diameter and FMD among risk factors. The ROC curve analyses were carried out to assess the sensitivity and specificity of baseline brachial artery diameter, FMD, Framingham risk score, combination of Framingham risk score and baseline brachial artery diameter, and combination of Framingham risk score and FMD to diagnose patients without cardiovascular risk factors or patients with CVD. An area under the curve (AUC) value of 0.5 indicates that a test is not better than chance alone with respect to diagnostic accuracy. Diagnostic accuracy according to an AUC value is generally judged as follows: 0.50–0.70 = low, 0.70–0.90 = medium, and 0.90–1.00 = high. AUC values were calculated and the values were compared among these parameters. In study 2, ROC curve analyses were carried out to assess the sensitivity and specificity of baseline brachial artery diameter and FMD for predicting first major cardiovascular events. The differences in AUC between baseline brachial artery diameter and FMD were compared using the method of Delong et al. [23] The data were processed using JMP version 11 (SAS Institute, Cary, NC).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34013062/</t>
+  </si>
+  <si>
+    <t>Sample size calculation was determined from the trial of Chung et al.16 with a power of 0.9 and an alpha significance level of 0.05 (two-sided) to predict the performance of serum Cys level with 90-day mortality. The number of patients should total at least 65 patients. Baseline clinical and biochemical data were compared using independent t test or Mann–Whitney U-test, and Fisher's exact test for categorical variables, while continuous variables were compared using repeated anova test and chi-square test with appropriate degrees of freedom. Continuous variables were presented as mean + SD for normal distribution data, median with interquartile range (IQR) for non-normal distribution, while categorical variables were presented as percentage and frequency over the total available. Patient survival was calculated using the Kaplan–Meier method and differences between subgroups were compared using the log-rank test. Multiple Cox proportional hazards regression was used to estimate the coefficient of Cys for the MELD-Cystatin model. Receiver operating characteristic (ROC) analyses were applied to summarize discrimination with the area-under-the-curve (AUC) statistic and 95% confidence interval (CI). Significance was established at a P value of &lt;0.05. The analyses were performed using IBM SPSS Statistics for Windows, Version 22.0 (IBM Corp., Armonk, NY, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32472438/</t>
+  </si>
+  <si>
+    <t>The distribution of quantitative data is presented by mean ± standard deviation (SD) or median (interquartile range, IQR). Comparisons of baseline and follow-up measurements were performed by t tests for paired samples. The distribution of ordinal variables was compared between cohorts using the Mann-Whitney U test. Quantitative data is presented by absolute and relative frequencies. Intermethod agreement was calculated by means of Cohen’s Kappa. Changes of regional wall motion and of measurements of LGE between baseline and follow-up were tested by the Wilcoxon signed rank test, due to deviations from the normal distribution. The diagnostic ability of PET and MR was assessed through receiver operating curve (ROC) analysis for clustered data to account for the assessment of multiple segments per patient [17]. PET and MR measurements served as predictor variables in a binary logistic regression model to compute a prognostic score through the linear predictor of the model (linear predictor = − 1.3487–0.6150 × [18F]FDG + 0.5909 × LGE). Hybrid imaging was compared with PET or MR results alone by use of this score. All statistical hypothesis testing has been performed on exploratory two-sided 5% significance levels. R 3.6.1 (The R Foundation for Statistical Computing, Vienna, Austria) has been used for computations.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21146692/</t>
+  </si>
+  <si>
+    <t>All analyses were conducted using Statistical Analysis Systems, version 8.2 (SAS Institute, Cary, North Carolina). For the development of this risk score, we considered the following variables at baseline: age (45 to &lt;50 [reference], 50 to &lt;55, 55 to &lt;60, 60 to 64 years), gender (male, female [reference]), race (black, white [reference]), body mass index (&lt;20, 20 to &lt;25 [reference], 25 to &lt;30, ≥30 kg/m2), height (&lt;164 [reference], 164 to &lt;173, ≥173 cm), waist circumference (&lt;88/&lt;102 [reference], ≥88/102 cm in men/women), sports score (&lt;2.0, 2.0 to &lt;3.0, 3.0 to &lt;4.0, ≥4.0 [reference]), smoking status (current, former, never [reference]), drinking status (current, former, never [reference]), systolic blood pressure (&lt;100, 100 to &lt;120 [reference], 120 to &lt;140, 140 to &lt;160, ≥160 mm Hg), diastolic blood pressure (&lt;70, 70 to &lt;80 [reference], 80 to &lt;90, 90 to &lt;100, ≥100 mm Hg), hypertension medication use (no [reference], yes), total cholesterol (&lt;200 [reference], 200 to &lt;240, ≥240 mg/dl), low-density lipoprotein cholesterol (&lt;100 [reference], 100 to &lt;130, 130 to &lt;160, 160 to &lt;190, ≥190 mg/dl), high-density lipoprotein cholesterol (&lt;40, 40 to &lt;60, ≥60 mg/dl [reference]), triglycerides (&lt;150 [reference], 150 to &lt;200, ≥200 mg/dl), cholesterol medication use (no [reference], yes), precordial murmur (no [reference], yes), heart rate (&lt;60, 60 to &lt;90 [reference], ≥90 beats/min (beats/min]), PR interval (&lt;160 [reference], 160 to &lt;200, ≥200 ms), LVH on ECG (no [reference], yes), LAE on ECG (no [reference], yes), diabetes (no [reference], yes), CHD (no [reference], yes), and heart failure (no [reference], yes). Continuous variables were categorized according to clinical criteria or the distribution of the variable in the ARIC study. Of the 15,792 ARIC participants, we excluded those who were not of black or white race (n = 48), blacks from Minneapolis and Washington County (n = 55), those with prevalent AF (n = 37) or missing AF status (n = 244) at baseline, those with unreadable ECGs (n = 85), and those with missing values for any variable in our final risk score (n = 777). Person-years of follow-up were computed from the baseline examination until a first AF diagnosis, death, lost to follow-up, or a follow-up of 10 years, whichever came first. Univariate associations of AF with potential risk factors were run first using Cox proportional hazards models. Significant (p &lt;0.10) risk factors from the univariate models were then pooled into a single multivariate Cox model, and a backward stepwise elimination was used to identify significant (p &lt;0.10) predictors in our multivariate model. All possible interactions of risk factors with age and race were then tested. Interaction tests between risk factors identified in our multivariate model and log of follow-up time confirmed the proportional hazards assumption was met. Once the final Cox model was determined, we followed the method used by the Framingham Heart Study15 to calculate points associated with each level of our risk factors and to determine the 10-year probability of developing AF by point total. We calculated a score for all participants in our data set by calculating a point total using the risk score. The discrimination of both the Cox regression model and the actual point-based risk score was estimated using the area under the receiver operating characteristics curve (AUC).16 The calibration, a measure of the goodness of model fit, was assessed by comparing the observed and predicted number of AF events in deciles of predicted risk, as calculated by the Grønnesby-Borgan chi-square statistic.17 We also calculated a point-based score for participants using the Framingham Heart Study's AF,2 CHD,18 and hard CHD19 risk scores, as well as ARIC's CHD risk score,20, 21 to estimate how well these risk scores predicted AF compared to our newly developed AF risk score. Finally, 1,000 bootstrap samples were generated, sampling subjects with replacement, to compare our Cox regression model to the point-based score and to conduct an internal validation of our risk score. Bootstrapping methods provide more stable estimates with a lower bias compared to other methods of internal validation.22 However, because we used the same cohort to generate the 1,000 bootstrap samples for validation of our risk score that we had used to develop the risk score, we adjusted our AUC obtained from the internal validation for optimism.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25981740/</t>
+  </si>
+  <si>
+    <t>We calculated receiver operating characteristic (ROC) curves and Youden indexes (YIs) to test the effectiveness of the risk factor age in predicting submassive PE (compared to low-risk PE), cardiac injury (elevated cTnI &gt; 0.1 ng/ml), RVD and elevated sPAP (&gt; 30 mm Hg) in normotensive PE patients. The YI is frequently used with a ROC curve to measure the effectiveness of a marker and enables the selection of an optimal cut-off value for the marker (Fluss et al., 2005, Perkins and Schisterman, 2006). In our study, the calculated YI cut-off value for age was used to predict submassive PE, cardiac injury (elevated cTnI &gt; 0.1 ng/ml), RVD and elevated sPAP (&gt; 30 mm Hg) in normotensive PE patients. The Wilcoxon–Mann–Whitney test was used to test the deviation of the ROC curve from the angle bisector. Moreover, sensitivity, specificity, negative and positive predictive values and risk value for a wrong classification were calculated. We compared the PE patients older than 76 years to those aged 76 years or younger using the Wilcoxon–Mann–Whitney U-test. The cut-off age value of 76 years was chosen because this age is the computed optimal cut-off value to differentiate between low-risk and submassive PE. Multi-variate logistic regression models were computed to investigate the associations of age &gt; 76.5 years and submassive PE, age &gt; 81.5 years and cardiac injury (elevated cTnI &gt; 0.1 ng/ml), age &gt; 66.5 years and RVD as well as age &gt; 66.5 years and elevated sPAP (&gt; 30 mm Hg), respectively adjusted for gender. In addition, we computed multi-variate logistic regression models for the association of tachycardia with the parameters submassive PE stadium, cardiac injury (elevated cTnI &gt; 0.1 ng/ml), RVD and elevated sPAP (&gt; 30 mm Hg) respectively adjusted for gender in PE patients &gt; 65 years old. The commercial software BIAS® (version 10.04) was used for data processing and statistical computing. P values of &lt; 0.05 were considered to be statistically significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33632303/</t>
+  </si>
+  <si>
+    <t>Standard Cox Proportional Hazard Regression models are limited in accounting for large numbers of predictors or correlated data. Thus, we used GLMnet penalized regression, a mix between Ridge and Lasso regression in an elastic-net framework [23] which tests all CpG sites simultaneously. This approach has shown to be successful for high-dimensional methylation data [24] as well as genome-wide association studies of SNPs [25, 26]. The elastic-net penalty is controlled by the α parameter, where the default would be α = 1 (Lasso regression) and Ridge regression would be α = 0. Importantly, the Lasso penalty tends to select only one variable among the set of correlated variables, whereas the Ridge penalty offers more flexibility and could introduce more than one predictor from a correlated set in the models. We selected α = 0.05 based on the performance of the model after trying different values on the range between 0 and 1. This level of α, which is close to Ridge regression, has been a popular choice and has shown to work well for methylation data. The regularization path is computed for the selected penalty at a set of values as specified by the regularization parameter λ, which was selected using 10-folds cross-validation in our study. This model is thus also useful for avoiding genomic inflation, which is a concern in all Epigenome-Wide and Genome-Wide Association Studies. DNA methylation proportions at a given CpG (beta values) were used as predictors with age as time scale and individual entry times (age at baseline) treated as staggered entries for lymphatic–hematopoietic, solid and overall cancers. Models were adjusted for biologically relevant variables (sex, smoking status (never, former, current), BMI, blood cell counts (CD8T, CD4T, NK cells, monocytes and B cells), study region (Arizona, Oklahoma, North Dakota and South Dakota) and five genetic PCs [27]. Predictive ability was evaluated using Harrell’s concordance or C index. For replication, we ran elastic-net in the SHS restricting the CpGs to those present in 450 K (as no data from the EPIC array were available in the FHS) and we fitted an elastic-net model in the FHS population introducing the CpGs that the model selected in the SHS. Since statistical inference based on the coefficients from the elastic-net model is unreliable given the shrinkage of the coefficients, we ran Cox proportional hazards models comparing the 90th versus the 10th percentile of DNA methylation with the CpGs selected by the elastic-net in order to report hazard ratios (HRs). For comparison with approaches commonly used in the literature, we ran Cox proportional hazard models comparing the 90th versus the 10th percentile of DNA methylation epigenome-wide (i.e. including all CpG sites) for lymphatic–hematopoietic, solid and all cancers.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30531423/</t>
+  </si>
+  <si>
+    <t>A power analysis estimated the minimum sample size needed to observe a significant difference between patients who hit or missed a mechanical alignment force target. The analysis used a clinically important difference in the Oxford Knee Score of 5 points, a SD of 7 points, α = 0.05, and a power = 0.80 [23]. Sixty-four patients achieve this degree of power, which indicates the selection of the 68 patients provided adequate power.Continuous variables were reported as mean ± SDs and categorical variables were reported as a number or a percentage of patients. Patients were grouped according to whether they hit or missed the mechanical alignment force targets of Gustke et al. [7, 8], Jacobs et al. [16], Meere et al. [20], and Meneghini et al. [21]. A Wilcoxon rank-sum test determined whether the Oxford Knee Score and WOMAC score were different between groups 6 months postoperatively. To identify a kinematic alignment force target, a logistic regression with a binary outcome computed the area under the curve (AUC) of the receiver operating characteristic to determine whether the difference in tibial compartment force (that is, medial minus the lateral) at full extension and 10°, 30°, 45°, 60°, 75°, and 90° of flexion predicted either a better (≥ 34) or worse (≤ 33) 6-month Oxford Knee Score. The binary outcome was derived by combining the excellent (&gt; 41) with the good (41 to 34) and the fair (33 to 27) with the poor (&lt; 27) Kalairajah classifications [18]. The value of this binary outcome is that a person with a 6-month Oxford score of &gt; 41 or a 41 to 34 score has a 0.45% and a 0.73% risk of revision within 2 years, which are significantly less than the 1.43% risk and 5.67% risk with a score of 33 to 27 and &lt; 27, respectively, according to the New Zealand arthroplasty registry [39]. Based on a rough classifying system, AUC can be interpreted as follows: 90 to 100 = excellent; 80 to 90 = good; 70 to 80 = fair; 60 to 70 = poor; and 50 to 60 = fail [34]. The computations were performed with statistical software (JMP Pro, 13.0; SAS Institute Inc, Cary, NC, USA). Significance was set at p &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32509917/</t>
+  </si>
+  <si>
+    <t>AUC mentioned in abstract but not methods section</t>
+  </si>
+  <si>
+    <t>The Statistical package for social sciences (SPSS) version 22 (IBM Corp., New York; formerly SPSS Inc., Chicago, Illinois) was used for data analysis. A Bland–Altman analysis was conducted to test the limits of agreement between the MD measured from the left and right breasts and between the mammographic views. A linear regression analysis was conducted to assess bias in MD measures between the right and left breasts and mammographic views. Kappa analysis was used to investigate the level of agreement between MD assessment of Quantra™ and the RANZCR synoptic scale. Both simple kappa (K) and weighted kappa (Kw) were calculated to account for the possibility of chance agreement (simple kappa) and the degree of disagreement between Quantra™ and the RANZCR synoptic scale (weighted kappa). Inter-reader agreement between radiologists in phase 2 was calculated by comparing the ratings of the radiologists in pairs. The receiver operating characteristics analysis was done to assess the performance of Quantra™ in reproducing the RANZCR synoptic scale on four-category and two-category scales. This study has been approved by the University of Sydney institutional review board (IRB: 2014/481).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31718588/</t>
+  </si>
+  <si>
+    <t>We used the NCI CRC Risk-Assessment Tool’s publicly available SAS code to compute individuals’ expected absolute CRC risk at 5, 10, and 20 years (https://dceg.cancer.gov/tools/risk-assessment/ccratsasmacro). We first tabulated the prevalence of variables by risk factor parameters defined by the NCI tool. For each NCI tool time point, we then compared the distribution of risk scores between participants with and without current AN on baseline colonoscopy. Risk scores followed a non-normal distribution and we therefore used the Wilcoxon rank-sum test to test the null hypothesis of no difference in median risk scores among advanced neoplasia cases and non-cases at 5, 10 and 20 years (Fig. 2). We evaluated the model’s goodness of fit using the area under the receiver-operating characteristics curve (AUC) as derived from a logistic regression model for 5-, 10- and 20-year cut-offs. We used SAS software for analyses ((version 9.4) SAS Institute Inc., Cary, NC). All analyses were pre-specified and p-values are two-sided.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32151404/</t>
+  </si>
+  <si>
+    <t>Multiple imputations were performed for missing data, which were assumed to be missing not-at-random [22]. The number of imputations was determined based on the proportion of missing data, as previously described. In this case, M = 20 imputations were performed [23], [24], [25]. Patient characteristics were summarized using appropriate descriptive statistics. Differences between hospital survivors and those who died in-hospital were analyzed using the Chi-Squared test for nonparametric comparison of proportions and the Kruskal–Wallis Test for nonparametric comparison of medians. The PRESTO model was applied based on its previous derivation and validation [16], and its coefficients were calibrated using multivariable logistic regression analysis for the outcome of in-hospital death. The six variables in PRESTO include age, hypotension, pulse, oxygen saturation, neurological status classified using the Alert Verbal Painful Unresponsive (AVPU) system, and the need for invasive airway intervention [16]. Calibration was tested using the Hosmer–Lemeshow method, which measures goodness-of-fit, and tests the null hypothesis by assessing differences between observed and predicted outcomes within multiple subsets of the sample. The test yields a chi-squared value and associated p-value, which, if elevated, suggest no difference between observed and expected outcomes, thus indicating good model calibration [26]. Overfitting of the calibrated model was evaluated using bootstrap bias-correction as described and published by Harrell [27], [28]. Calibration error was summarized as mean absolute calibration error. The discrimination of PRESTO was then compared to the Revised Trauma Score (RTS) and the Kampala Trauma Score (KTS), which were chosen as comparators in this study for two reasons. Firstly, these are two commonly used and well-described injury severity scores that can be computed using data variables available within our registry. Secondly, both have been shown to perform well in low-resource settings by virtue of their simplicity and user-friendliness [21], [29], [30]. In fact, the KTS was designed specifically to address the limitations of LMIC environments and is reported to have validity in children as well as adult patients [21]. Receiver-operating characteristic (ROC) curves were constructed for each model and then each area-under-curve (AUC) was compared using Delong's test with 2000 bootstrapping iterations [31]. Ninety-five percent confidence intervals (95% CI) were reported. We examined differences in the AUC for the full cohort and those under 5 years old. This cutoff was chosen a priori based on the KTS cutoff values in the age variable. Statistical significance was set at p &lt; 0.05. Given the high proportion of missing data, a sensitivity analysis was performed using only complete cases to ensure that the multiple imputation procedure had not significantly altered the statistical inferences [32] All statistical analyses were performed using R version 3.4.3 [33] (Auckland, New Zealand).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31724965/</t>
+  </si>
+  <si>
+    <t>The baseline characteristics of patients included in this study were presented as number with percentage or median value with interquartile range [IQR]. First, the log relative hazard of 90-day mortality according to peri-operative lactate levels were presented as restricted cubic spline (RCS). We performed univariable and multivariable Cox regression analyses to determine the association among pre-operative lactate, peak level of lactate on POD 0 to 3, and Δ lactate level with 90-day mortality. Considering that the pattern of RCSs were almost linear (Supplementary Fig. S1, https://links.lww.com/EJA/A227 of Log odds of 90-day mortality according to peri-operative lactate), the three main independent variables of pre-operative lactate; peak level of lactate on POD 0 to 3; and Δ lactate level were included in the Cox regression model as continuous variables. For this Cox proportional hazard model, all covariates of criterion of P less than 0.2 in the univariable model were included for multivariable adjustments. The two multivariable models were fitted to avoid multicollinearity between main independent variables. Pre-operative lactate and peak level of lactate on POD 0 to 3 were included in model 1, and Δ lactate level was included in model 2. The log minus log plot function was used to confirm whether each model satisfied the central assumption of the Cox proportional hazard models. The results of the Cox proportional hazard models were presented as hazard ratios with 95% confidence interval (CI). It was confirmed that there was no multicollinearity in all multivariable models of the entire cohort with a variance inflation factor less than 2.0. In addition, we performed two subgroup analyses. First, considering that peri-operative lactate level is closely associated with prognosis in cardiac surgery cohorts,24–27 we performed subgroup analysis in a cardiac surgery cohort. Second, considering that positive fluid balance during the peri-operative period might cause haemodilution of laboratory values such as serum lactate levels,28 we performed subgroup analysis according to the cumulative fluid balance status (&lt;0, 0 to 5 and &gt;5%) during and up to 24 h after surgery. Receiver operating characteristics (ROC) analysis was performed to estimate the area under the curve (AUC) with 95% CI of peri-operative lactate level for 90-day mortality. The Delong test was used to compare the AUC of three main independent variables in peri-operative lactate levels (pre-operative lactate, peak level of lactate on POD 0 to 3, and Δ lactate level) in the entire cohort and cardiac surgery cohort, respectively.29 For all analyses, IBM SPSS version 24.0 (IBM Corp., Armonk, New York, USA) and R version 3.6.0 (R Foundation for Statistical Computing, Vienna, Austria) were used, and a P less than 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15477374/</t>
+  </si>
+  <si>
+    <t>Statistical comparisons between groups were made with Student's t tests. P &lt; .05 was considered statistically significant. To quantify the relative strength of each variable and to determine which diagnostic parameter was most affected by cigarette smoking, we calculated the receiver operating characteristic (ROC) curve areas for each variable with smoking as the outcome. Diagnostic variables more affected by smoking would thus display an area under the curve (AUC) closer to 1.0. In addition, we have used the most significant variates from the Wald test of the beta weights to build a model for the prediction of smoking.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33130284/</t>
+  </si>
+  <si>
+    <t>AUC mentioned in abstract but not methods section. 0.58 result not mentioned in the results section</t>
+  </si>
+  <si>
+    <t>The data were analyzed using R 3.2.3.15 For univariate association between interval scale data and dichotomous outcome (GOSE), Mann-Whitney U test and univariate binary logistic regression were used. For categorical data, χ2 test and univariate binary logistic regression were used. For the a priori specified predictors, multiple logistic regression was conducted using fixed coefficients of IMPACT and CRASH models. The new models were compared with the original models using χ2 test. Predictions from the models with the added parameters and the original IMPACT and CRASH models were depicted as receiver operating characteristic curves for prediction of respective outcomes.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31340938/</t>
+  </si>
+  <si>
+    <t>A cutoff to discriminate nodal-negativity was set to correspond to maximized negative predictive value (NPV). This level of cutoff was intended to identify individuals with a very low probability of axillary disease where surgical axillary staging by SLNB would not be supported by the models. True positive (TP), true negative (TN), false positive (FP), and false negative (FN) results were assessed. The false negative rate (FNR) was calculated as the number of false negative cases divided by the number of all cases with axillary nodal metastasis (FNR = FN/FN+TP). This portrays the paucity of the models in predicting nodal spread as a ratio relative to all pathology-verified axillary nodal disease burden. Possible SLNB reduction rate = (TN+FN)/(TN+FN+TP+FP) was assessed at a cut-off equivalent maximized NPV and at alternative cut-offs corresponding to the maximum FNRs of 5% and 10% reflecting accepted FNR of the SLNB procedure. Survival curves were estimated by the Kaplan–Meier method and compared using the log-rank test. OS was the endpoint for survival analyses. HRs were estimated by univariable or multivariable Cox regression. SPSS Statistics for Windows version 24 (IBM Corp.) was used for descriptive statistics with Pearson χ2 test. Machine learning and survival analyses were performed in R (39) using the Caret package and the coxph R function. The developing of the predictive models and the reporting of the findings were in accordance with an EQUATOR Guideline for reporting machine learning predictive models (40) and STARD 2015 checklist (41).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34292211/</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using SPSS 22.0, with the values shown as mean±SD. We performed descriptive analysis, univariate analysis, and correlation analysis for any 2 groups using the Student t test, the Mann-Whitney U test, and Pearson Correlation Analysis test, respectively. We conducted analysis of variance or the Kruskal-Wallis test among the groups. P&lt;0.05 was considered statistically significant. The diagnostic value of routine coagulation indicators for strangulated intestinal obstruction was determined using receiver operating characteristic curve (ROC) analysis.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25814491/</t>
+  </si>
+  <si>
+    <t>Paper on a new ROC metric called ROC-r</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20110568/</t>
+  </si>
+  <si>
+    <t>Logistic regression adjusted for sex and age was applied to examine the effect of each variant on overweight and obesity. Gene-gene interaction analyses were performed using logistic regression comparing one model including only the main effect from each variant with an alternative model including an interaction parameter besides the main effect. Each SNP was included as a covariate coded as number of risk-alleles and the pairwise interaction as the product of the pairs of SNPs, i.e., multiplicative interaction. The risk-alleles were defined as alleles associated with increased risk of overweight/obesity or BMI in previous studies (4,,,,,,,,–13). The effect of extreme risk-profiles was evaluated using Fisher exact test, which assumes an equal effect of all variants. Discriminatory value between normal weight, overweight, and obese individuals for the 20 variants and conventional nongenetic risk factors separately and in combination was estimated using receiver operating characteristic (ROC) curves. The models were trained on 1,000 bootstrap samples, with replacement, to cross-validate the results. A ROC curve of disease status assessment was generated using the out-of-bag samples by taking the mean of all bootstrap models in each 1-specificity point. This enabled us to correct for the overfitting made by the apparent (or optimal) ROC curve estimated in the entire dataset. ROC curve performance was compared using the integrated discriminative improvement (IDI) score, which will differ from zero if one ROC curve performs better. An asymptotic test was used to test for significance as described earlier (20). The ROC curves were also evaluated using area under the curve (AUC) and Brier score. AUC will be one if the test is perfect, and should be &gt;0.80 to be of clinical value. The Brier score will be zero if the test is perfect and will be 0.25 if the assigned probability for an event (here normal weight or overweight/obese) based on the parameters in the model is set to 50% (i.e., the test is useless), which corresponds to an AUC of 0.5. The explained variance was estimated using the generalized R2 (21). All analyses were performed using RGui version 2.8.0 (http://www.r-project.org).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24019881/</t>
+  </si>
+  <si>
+    <t>The output generated by Vina for each peptide was processed and the binding conformation having the lowest binding affinity (i.e the top ranked Vina docking score) was selected for further investigation. To evaluate the ability of Vina to discriminate between binding peptides and adjacent non-binding peptides extracted from the same protein sequence, we measure the TPR and FPR. First, we normalise the Vina docking scores for each peptide so they fall between 0 and 1:
+where  is the absolute value of the minimum Vina binding score (i.e. ) and  is zero. We measure the sensitivity or true positive rate (TPR) and specificity or false positive rate (FPR) as we increase the discrimination threshold from 0 to 1. We plot the TPR against the FPR as Receiver Operating Characteristic (ROC) curves, which are calculated as follows. R [52] was used to plot the curves, and calculate the AUC. The AUC is a number between 0 and 1 inclusive, where 0.5 indicates a random model and 1 is perfect, which is equivalent to the probability that a randomly chosen positive instance will rank higher than a randomly chosen negative instance [53].</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31260850/</t>
+  </si>
+  <si>
+    <t>Variables were compared between patients who developed DCI and those who did not develop DCI using Student's t test for continuous normally distributed variables and the Mann–Whitney U test for continuous non-normally distributed variables. Dichotomous and categorical variables were compared using Fisher's exact test. In our dataset, 18% of the cases had 1 or more missing variables, with a maximum of 9% missing per variable. Missing values were imputed with multiple imputation using additive regression, bootstrapping, and predictive mean matching.18 To average the uncertainty of the imputed values, we created 20 completed datasets with imputed values. The collected variables age, sex, history of hypertension, history of diabetes, history of cardiovascular disease, WFNS grade, TBV, aneurysm location, aneurysm size, and treatment modality were considered potential predictors of DCI. The WFNS scale was dichotomized into good grade (WFNS I–III) and poor grade (WFNS IV–V). To check whether the continuous variables had a linear association with DCI, the variables were divided into deciles. In each decile of the continuous variable, the proportion of patients with DCI was assessed. If a nonlinear relationship was suspected, polynomial terms of the continuous predictor were added to the model. All variables were included in a logistic regression model. Variables with limited predictive value were stepwise backward removed from the model using the Akaike information criterion. The elimination of variables was stopped when the lowest possible Akaike information criterion was reached. This process was repeated 100 times using bootstrap resampling. A bootstrap sample consists of a randomly drawn sample of subjects from the original dataset, which is the same size as the original dataset. The bootstrapped backward selection process was repeated in each of the 20 imputed datasets. Variables that remained in the model after the backward selection procedure in more than 50% of the bootstrap samples were included in the final model.
+Model performance was evaluated by assessing the explained variance, discriminative power, and agreement between observed outcomes and predictions. The explained variance in outcome was evaluated with the R2 statistic, discriminative power was assessed with the c-statistic, and the agreement between observed outcomes and predictions was assessed with a LOWESS smoothed calibration plot. Model performance was internally validated by calculating the optimism-corrected R2, c-statistic, and calibration curve using bootstrap resampling. The model was trained in each bootstrap sample and tested in the original data. The R2, c-statistic, and model calibration were evaluated both in each bootstrap sample and in the original dataset. This process was repeated 500 times. The optimism was assessed by calculating the difference in performance of the model in the bootstrap samples and the original data. Optimism-corrected performance measures were calculated by subtracting the optimism from the performance of the original model in the original data.19 The entire bootstrap resampling process was repeated in each of the imputed datasets, and the optimism-corrected performance measures were averaged.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31605841/</t>
+  </si>
+  <si>
+    <t>The D-dimer levels captured for ≤16 days were included in the present analysis. For continuous and discrete variables, the mean ± standard deviation and percentages were calculated, respectively. Continuous and discrete variables were analyzed using the t test and χ2 test, respectively. Values of P &lt; 0.05 were considered statistically significant. Two-by-two tables with diagnostic test analysis were performed to determine the sensitivity, specificity, positive predictive values (PPVs), and negative predictive values (NPVs). The receiver operating characteristic (ROC) curves were generated for D-dimer values predictive of DVT. Both the overall D-dimer values and the values on specific days were evaluated for the prediction of DVT. A univariate logistic regression predictive of VTE was performed, and variables with P &lt; 0.1 were entered into a multivariable logistic model. A decision-tree analysis, which included variables from the multivariable logistic model, was performed using the χ2 automatic interaction detector method with P &lt; 0.05 for splitting nodes. Statistics were analyzed using SPSS version 22.0 (IBM Corp, Armonk, New York, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29720220/</t>
+  </si>
+  <si>
+    <t>Age and breast measures (mammographic density and mammographic texture scores) were determined for the first available unprocessed digital mammography examination of each woman. In addition, the number of digital screening rounds and follow-up years were determined. We described our study population by the median and interquartile range (IQR) for each of these characteristics and tested whether these characteristics were significantly different in breast cancer and non-breast cancer cases. We used the two-sample t test for normally distributed measures and the Mann-Whitney U test for non-normally distributed measures. Breast density measures were transformed using the natural logarithm (ln) to obtain normal distributions and Pearson correlation coefficients were determined to test correlation between breast measures and between age and breast measures. Associations of continuous measures (per standard deviation (SD) increase, using normally distributed measures) and quartiles of density and texture scores with breast cancer risk were determined using Cox proportional hazards analyses. We calculated hazard ratios (HR) and their 95% confidence intervals (95% CI). Age was used as the underlying time scale. The entry time was defined as subject’s age at the time of the first available digital mammogram. Exit time was defined as one of the following options: (1) age at breast cancer diagnosis (event), (2) age at death (censoring), or (3) age at 2 years after the last digital mammogram performed before 1 January 2012 (censoring). The age used as the exit time was determined by the option that occurred first. We aimed to determine whether the previously described texture score is associated with breast cancer risk and has additional value, next to volumetric mammographic density measures, in distinguishing future breast cancer cases from non-breast cancer cases. To study this, we constructed several models. First, three Cox proportional hazard models were developed with dense volume, percentage dense volume, or texture as the determinant (model 1, 2 and 3, respectively). With these models we could determine the ability of a density or texture measure alone to separate breast cancer from non-breast cancer cases. Thereafter, we constructed two additional Cox proportional hazard models. The first contained both dense volume and texture determinants (model 1a). The other model contained both percentage dense volume and texture determinants (model 2a). To determine the ability of the models to discriminate between breast cancer cases and non-cases, concordance indices (c-indices) were obtained for all models. The c-index can be seen as the fraction of “case - non-case” pairs for which the model correctly identified the breast cancer case. Across 2000 bootstrap samples, c-indices of models containing only a breast density measure (model 1 or 2) were compared to models containing both density measures and texture scores (model 1a or 2a) to test whether differences in c-indices were statistically significant. As the density and texture scores were expected to be strongly correlated, we prevented multicollinearity from occurring in models 1a and 2a by including the residuals of the texture scores regressed on breast density instead of the texture score itself. This “residual method” is often used in the field of nutritional epidemiology [28]. Residuals were obtained by using linear regression analysis. There was no correlation between the residuals and breast density. Additionally, two extra Cox proportional hazard models were constructed in which the residuals of breast density (dense volume for model 3a and percentage dense volume for model 3b) regressed on texture were combined with the texture score. Using these models, we could determine whether breast density measures added some distinctive power to the texture score alone.The proportional hazards assumption was evaluated by Schoenfeld residual plots and log minus log plots, and the assumption was not violated. To examine the presence of a linear trend in HRs over the quartiles of breast measures, quartiles were added to the models as continuous variables.Finally, in a secondary analysis we also separately determined the associations between breast measures (dense volume, percentage dense volume, and texture) and breast cancer for screen-detected and interval breast cancers. Statistical analyses were performed using SPSS version 22 and R version 3.2.0.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34745218/</t>
+  </si>
+  <si>
+    <t>No mention of AUC in methods section</t>
+  </si>
+  <si>
+    <t>As a preliminary step, a genome-wide association (GWA) analysis was performed with the R package SAIGE (Zhou et al., 2018) to test individual variants for their association with Parkinson’s disease. The PRS was constructed by using PLINK (Purcell et al., 2007) following the guidelines provided by Choi et al. (Choi et al., 2020) and the accompanying tutorial (https://choishingwan.github.io/PRS-Tutorial/plink/). The clumping cut-off of r2 was 0.1. For all subjects in the training, validation and test sets, seven distinct risk scores were calculated, corresponding to seven potential p-value thresholds (0.001, 0.05, 0.1, 0.2, 0.4, 0.5). The seven risk scores for the subjects in the training set were then used to train seven separate logistic regression classifiers (one for each p-value threshold) using the glm function in R (www.R-project.org). These classifiers were evaluated relative to the validation data set, leading to the selection of the classifier based on the PRS calculated using the p-value threshold of 0.05. The predictions of this final classifier were then evaluated relative to the test set. The deep learning prediction model was built using a Diet Network according to the procedure described by Romero et al. (Romero et al., 2016) The model is composed of three networks: one basic and two auxiliary networks. After a basic discriminative network with optional reconstruction path, follows a network that predicts the input fat layer parameters, and finally, a network that predicts the reconstruction fat layer parameters. The official code can be found here: https://github.com/adri-romsor/DietNetworks. The interaction-based feature selection approach that we adopt organizes data mined from journal articles, pathway libraries, protein co-expression libraries, and drug candidate libraries (e.g., dbSNP, ClinVar, OMIM, Reactome, STRING database) into a hierarchical knowledge graph, which generates disease-specific hypotheses based on interactions of genetic variants (Figure 1). Each interaction’s predictive power is determined using the training data set and the glm function in R (www.R-project.org). If an interaction predicts disease status well, the graph is incentivized to ‘fine-tune’ the hypothesis by comparing a set of very similar hypotheses. If a hypothesis has little or no predictive power, the graph is not incentivized to explore it or similar hypotheses further and will instead propose hypotheses containing different variants. (Klinger et al., 2021). This learning process is driven by gradient descent, meaning that it converges when the average performance of the new multi-variant hypothesis does not increase. After convergence, the selected features are used to build prediction models with standard machine learning algorithms, such as LASSO regression (Friedman et al., 2010). LASSO (least absolute shrinkage and selection operator) regression models were computed by using the glmnet package (https://glmnet.stanford.edu/index.html) for R (www.R-project.org) and its function cv.glmnet with five-fold cross-validation in order to avoid overfitting. (Friedman et al., 2010).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34661814/</t>
+  </si>
+  <si>
+    <t>Receiver operating curves are a means of evaluating the ability of a continuous marker to correctly distinguish between two possible outcomes. The ROC balances sensitivity and specificity to determine the point on the continuous variable at which cases and non-cases are most cleanly separated. In the present context, the ROC provides a tool to identify the cut point at which birthweight percentiles (or in the companion analysis, gestational age at delivery) most successfully identifies at-risk infants. The ROC quantifies the strength of the discriminating ability as an “area under the curve” (AUC). An AUC of 100% represents perfect discrimination, while 50% represents zero discrimination—equivalent to a coin toss. Within those boundaries, AUCs of 90% or more are considered “excellent,” 80–89% are “good,” 70–79% “fair,” 60–69% “poor,” and 50–59% extremely poor [7]. The Youden Index is the specific cut-point that maximizes the proportion of true positives and true negatives (the sum of sensitivity and specificity). For birthweight-percentile analysis, births within each completed week of gestation were divided into 26 percentile categories of birthweights, defined as the 0.5th, 1st, 2.5th, 5th, 10th, 15th, 20th…80th. 85th, 90th, 95th, 97.5th, 99th, and 99.5th percentiles. For ROC analysis of gestational age, we used completed weeks of gestation. ROC analysis was conducted using the logistic procedure in SAS 9.4 (SAS Institute, Cary NC). AUCs were estimated with 95% Wald confidence intervals.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21855831/</t>
+  </si>
+  <si>
+    <t>Continuous variables are presented as the mean ± SD or SEM and categorical variables as percentages. Comparisons between patients with and without paravalvular AR after TAVI were performed using unpaired Student's t tests (for continuous variables) and the chi-square or Fisher exact test (for categorical variables). To relate the locations of AVC with the sites of paravalvular AR after TAVI using TEE, the locations of AVC with their respective sites of paravalvular AR were matched. Receiver operating characteristic curves were subsequently generated to evaluate the predictive value of the AVC volume in determining paravalvular AR at a specific site. All statistical analyses were performed with the Statistical Package for Social Sciences, version 16.0 (SPSS, Chicago, Illinois). A p value &lt;0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29117464/</t>
+  </si>
+  <si>
+    <t>Continuous data were expressed as median and extremes, and frequencies as numbers and percentages. Comparisons between samples were assessed using non-parametric tests (Kruskal–Wallis test for continuous variables and Fisher's test for categorical variables). For diagnostic accuracy, areas under the curve (AUC) were determined using ROC analysis and presented with 95% confidence intervals. AUCs between 0.50 and 0.70 were considered to show low diagnostic accuracy, AUCs between 0.70 and 0.90 indicated moderate accuracy, and AUCs between 0.90 and 1.00 indicated high accuracy (Swets, 1988). The cut-off for optimal sensitivity and specificity was determined using ROC curves. Statistical tests were performed using XLStat-Life software (Addinsoft, Paris, France). p values lower than .05 were considered significant.</t>
+  </si>
+  <si>
+    <t>Spearman's correlation coefficient (corr) was calculated to examine the reproducibility of the biomarkers in 20 blinded duplicate samples. Descriptive statistics were used to summarize patient and biomarker characteristics, as well as all clinical risk factors for PCa.AUC was calculated as the Wilcoxon statistic, and tests of differences among AUCs were performed via the nonparametric U-statistic method with or without Bonferroni correction for multiple comparisons.6 For those markers whose average values were higher in cancer cases, sensitivity was calculated as the proportion of cancer cases with a biomarker value equal to or greater than the cut point, and specificity as the proportion of controls with a biomarker value less than the cut point. For those markers whose average values were lower in cancer cases, ie under-expressed in PCa, sensitivity was calculated as the proportion of cancer cases with a biomarker value equal to or less than the cut point and specificity as the proportion of controls with a biomarker value greater than the cut point. Fisher exact 95% CIs for sensitivity and specificity were calculated, and sensitivities and specificities were compared across different markers using McNemar's test with or without Bonferroni correction.Backward selected multiple logistic regression was used to identify risk factors that significantly contributed to predicting PCa while controlling for all other markers and standard PCa risk factors. Spearman's correlation coefficients were calculated among the PSA isoforms for cases and controls separately, and successively used to remove isoforms highly correlated with each other to reduce multicollinearity in the model building process. The Kruskal-Wallis rank test or Mann-Whitney U test was used to examine the relationship between new biomarkers and Gleason score when appropriate. In addition, secondary analyses were performed for all cases and controls with PSA in the subrange of 2 to 10 ng/ml. All statistical tests were performed at the significance level of 0.05 (2-sided) and all statistical analyses were conducted using SAS® (version 9.2).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25279001/</t>
+  </si>
+  <si>
+    <t>value referenced is not an AUC</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33914335/</t>
+  </si>
+  <si>
+    <t>The data was analysed using STATISTICA 13.1 software. 2 × 2 table was used to calculate point true positive (STV &lt; 3, Apgar score &lt; 8), false positive (STV &lt; 3, Apgar score ≥ 8), false negative (STV ≥ 3, Apgar score &lt; 8), and true negative (STV ≥ 3, Apgar score ≥ 8) values [4]. The normality was tested using Shapiro-Wilk test. Due to not fulfilled parametric test perquisites, relationships between qualitative and quantitative variables were assessed with Chi-squared test and Mann-Whitney U test, respectively. A value of p &lt; 0.05 was considered statistically significant. ROC curve which illustrates the diagnostic ability of STV to assess its clinical usefulness was utilised. Area under curve (AUC) wascalculated for the study groups for Apgar score in 1st and 5th minutes [5]. The study was approved by the Bioethics Committee of the Jagiellonian University.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31499013/</t>
+  </si>
+  <si>
+    <t>Data were analyzed using Prism GraphPad 6.0 (San Diego, CA) and JASP 0.9.2 (Amsterdam, Netherlands). Values are means and standard error of the mean, or medians and interquartile range as appropriate using the Kolmogorov–Smirnov test for normal distribution. Statistical differences of results before and after induction treatment were calculated using the paired Student’s t-test. Receiver operating characteristics (ROCs) were used to analyze the likelihood ratio, sensitivity and specificity for FC and CRP. Optimal cutoffs for FC and CRP were determined from the combined maximum sensitivity and specificity for each parameter employing Youden’s index. Kaplan–Meier analysis was used to create survival curves for defined ’incidents’. The log-rank test was used for evaluation of statistical differences between survival curves. For evaluation of the biomarkers FC and CRP in combination a logistic regression was used. p &lt; .05 was considered a statistically significant difference. A post hoc power analysis at the α = 0.05 level showed 83.1% for FC and 82.8% for CRP.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21951630/</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using SPSS 17.0 for Windows (SPSS, Inc., Chicago, IL, USA). Patient characteristics and outcome measures were stratified according to score tertiles among all patients with a calculated CSS. Continuous variables are presented as mean ± 1 standard deviation (SD) or median values (25th to 75th percentile) as appropriate; categorical variables are displayed as counts and/or percentages. Comparisons were performed with one-way analysis of variance (ANOVA) for continuous variables following a normal distribution and with the χ2 test for categorical variables. The normality assumption was evaluated by the Kolmogorov–Smirnov test. Spearman's rank correlation coefficient was used to measure the strength of the association of SYNTAX score with CSS. Cumulative event rates through all 5-years of follow-up were estimated by means of the Kaplan–Meier method. Testing for trends in event rates across score tertiles was done with the Cochran–Armitage test in SAS software (SAS, version 9.2, Cary, NC, USA). All-cause mortality, MACE, cardiac death, TLR, MI, and definite stent thrombosis rates were compared across SYNTAX score and CSS tertiles according to the Cox proportional-hazards model; the assumption of proportional hazards was verified by visual inspection of the log-minus-log curves. Independent predictors of 5-year MACE, all-cause mortality, and cardiac death were sought among variables significant beyond the level of P= 0.10 in univariable analysis. Potential predictors were checked for collinearity before entering a multivariable backward stepwise model; variables with a variance inflation factor &gt;2.5 were disqualified. Crude and adjusted hazard ratios and corresponding 95% confidence intervals are reported for qualifying variables. SYNTAX score, CSS, and multivariable models were also evaluated in terms of calibration and discrimination for 5-year MACE, cardiac, and all-cause mortality. Calibration was evaluated with the Hosmer–Lemeshow (H–L) goodness-of-fit test, wherein a lower χ2 statistic and a higher corresponding P-value implied a better match between the estimated probabilities and the actual events. Discrimination was explored with the areas under the receiver-operating characteristics (ROC) curves; an area of 1.0 would indicate perfect discrimination, whereas an area of 0.5 indicates the total absence of discriminatory power. Areas-under-the-curves (AUCs) for SYNTAX score, CSS, and multivariable models were compared with the DeLong method23 using MedCalc for Windows, version 11.6.0.0 (MedCalc Software, Mariakerke, Belgium). Finally, in order to formally assess, whether CSS improved the risk stratification over the SYNTAX score, a net reclassification improvement (NRI) analysis was performed.24 To complete our analysis, a stratified comparison of clinical outcomes between SES and PES was also performed across SYNTAX score and CSS tertiles using Cox regression analysis. To determine whether there was an interaction between treatment arm and scores' tertiles, likelihood ratio tests were used. All statistical tests were two-sided and a P-value &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22183807/</t>
+  </si>
+  <si>
+    <t>The unit of study was the patient. If a patient underwent 2 interventions during the recruitment period or study, we selected the first intervention performed. We used means and SDs, frequencies, and percentages to describe the samples. Sociodemographic and clinical data, as well as WOMAC domains at baseline, were compared between the cohorts using chi-square or Fisher's exact tests for categorical variables and the t-test or Wilcoxon's nonparametric test when necessary. In a similar way, differences in sociodemographic, clinical, and WOMAC scores at baseline between responders (patients with WOMAC scores at followup) and nonresponders were assessed.
+Baseline WOMAC pain and functional limitation scores were categorized into tertiles. Means and SDs were calculated for the preintervention and postintervention WOMAC pain and functional limitation scores, as well as the mean change (difference between preintervention and postintervention domains) in the WOMAC domains, according to patient satisfaction status. For the purpose of this analysis, of the 4 patient satisfaction status categories, the 2 worst levels “not at all satisfied” and “not satisfied” were merged into 1 level called “not satisfied,” leaving 3 satisfaction categories overall.
+Analysis of variance was used to assess the relationship of the preintervention and postintervention WOMAC scores and the mean change in WOMAC domains with the satisfaction status in the derivation cohort. Scheffe's post hoc test was performed to evaluate differences among the different satisfaction levels. These analyses were performed for cohort 1 and by tertiles. The Kruskal-Wallis nonparametric test was used to assess the relationship of the mean change in WOMAC domains with the transitional question in the derivation cohort stratified by the estimated tertiles.We computed the PASS value to identify the postintervention WOMAC pain and functional limitation scores beyond which patients considered themselves well. Patient satisfaction state after THR was chosen as the anchoring variable. For the purpose of this analysis the 4 satisfaction response categories were recategorized into 2 categories: being satisfied (totally satisfied and slightly satisfied) or not satisfied. An empirical cumulative probability curve was constructed as a function of the postintervention WOMAC pain and functional limitation scores for patients in the satisfactory group. PASS was targeted as the 75th percentile of the obtained curve. We developed logistic regression models to determine the optimal cut points for the postintervention scores of the ROC curves. Patient satisfaction was selected as the outcome variable and the postintervention WOMAC pain and functional limitation domains were selected as independent variables. The upper-left point of the ROC curve was chosen as the optimal value. The area under the curve (AUC) for the obtained value with the 95% confidence intervals (95% CIs) was assessed. AUCs for both samples were compared (16). PASS values and optimal cut points were estimated for the stratified sample by the tertiles of the baseline preintervention WOMAC pain (≤45, 45–60, &gt;60) and functional limitation (≤57.3, 57.4–73.4, &gt;73.4) scores. We compared the PASS values of both WOMAC domains obtained in the 2 cohorts in the following way: we divided each studied sample into 2 groups, according to whether scores of WOMAC domains were lower than or equal to the estimated PASS values. To this end, the chi-square test has been used. This was done for the entire sample and stratified by their corresponding baseline tertiles. The mean change score for patients whose response to the transitional question was “somewhat better” was used to estimate the MCID for WOMAC pain and functional limitation scores in the derivation cohort (17). The transitional question was not included in the mailings to the validation cohort; therefore, it was not possible to estimate the MCID in this group. We established 3 types of responders to THR: those whose scores were lower than or equal to the computed PASS estimate thresholds in each of the WOMAC domains assessed, those whose scores were lower than or equal to the optimal cut points obtained by the ROC curves (18), and those who surpassed the mean change value of the improvement in each scale defined by those patients who answered feeling “a little better” 6 months after THR (10). Agreement among responders was assessed by means of the kappa coefficient and 95% CIs in both the derivation and validation cohorts, and stratified by the baseline tertiles of scores in each scale. A kappa coefficient &gt;0.70 was considered as good reproducibility (19). Statistical analyses were performed using SAS for Windows statistical software, version 9.2 (SAS Institute). Figures were developed with R release 2.11 statistical software.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30019304/</t>
+  </si>
+  <si>
+    <t>Statistical analyses were performed using the Mann–Whitney U or Chi square tests. Hazard ratios (HRs) with 95% confidence intervals were used, and OS curves were plotted using the Kaplan–Meier method. Differences were compared using the log-rank test. Multivariate analysis was performed using the Cox proportional hazards model. Prognostic variables were introduced in the model when univariate analysis revealed a significance level of p &lt; 0.05. All p values &lt; 0.05 were considered to be statistically significant. To evaluate the discriminatory ability of the SII, NLR, PLR, CAR, neutrophil, lymphocyte, platelet, CRP, and albumin levels, ROC curves were generated and the area under the ROC curves (AUROCs) were measured and compared. All analyses were performed using JMP 12.0 (SAS Institute Inc., Cary, NC, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30992463/</t>
+  </si>
+  <si>
+    <t>Multivariable logistic regression was used to estimate the relationship (odds ratio, OR) between multiple predictors and prevalent TB in the SA training dataset. Model selection was done using backward elimination based on the Akaike information criterion (AIC). The results of the final model were converted into a scoring system by dividing the coefficients by the smallest coefficient value in the results of final regression model19. The discrimination of the scoring system was showed in Receiver Operating Characteristic (ROC) curves. The area under the ROC curve (AUC) was calculated to compare the prediction performance of the newly developed model against prolonged cough or any TB symptom.In addition to AUC, cost-effectiveness analyses were conducted to compare systematic screening algorithms that applied the different initial screening methods, namely the scoring system, prolonged cough, and any TB symptom, in the validation datasets. The algorithms represent possible systematic screening strategies in the community in the context of the healthcare systems in SA and Zambia (Appendix Fig. 2). For each algorithm the expected yield of TB cases and associated costs were calculated in the two validation datasets. The cost items included the costing from the confirmatory tests. The staff time and the patient costs were not included in this study because they might vary in different settings. (Appendix Table 1). The incremental cost-effectiveness ratio (ICER) and the average cost-effectiveness ratio (ACER) was calculated for each algorithm using different initial screening methods. All analyses were done under 1000 bootstrapped samples. Lastly, the median value of each screening algorithm from bootstrapping results was applied to several hypothetical populations with different TB prevalences to calculate the number of TB cases detected and associated costs at different cutoff values of the scoring system.In the main analysis, BMI was not included as a potential predictor due to the high proportion of missing values (66%) in the SA dataset. Cumulating evidence suggests that BMI is strongly associated with the risk of TB17. Therefore, a sensitivity analysis was conducted using multiple imputation to account for missing BMI values. The missing values were imputed for ten times in the training dataset and two testing datasets were performed independently. Rubin’s rule was adopted to pool the results of regression models and the model performances20. The final prediction model in the sensitivity analysis included the predictors which were selected in more than half of the ten imputed training datasets21. The pooled sensitivities and specificities of the prediction models were applied to the cost-effectiveness analysis to estimate the benefit and cost in the two validation datasets.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28008340/</t>
+  </si>
+  <si>
+    <t>Using SPSS software version 22, (Cary, NC), we analyzed the data of the 88 LT patients. Continuous variables were presented as mean ± SD; categorical variables were presented as number (%). The sensitivity, specificity, PPV and NPV in HRS diagnosis were calculated. A receiver operating characteristic (ROC) curve was constructed to assess the diagnostic accuracy of FeNa &lt; 1% in diagnosing HRS.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32205617/</t>
+  </si>
+  <si>
+    <t>Data were described as median and interquartile range or mean and sd. Qualitative values were compared using chi-square test. Quantitative variables were compared using the Student t test or the nonparametric Wilcoxon test or Mann-Whitney U test. Correlation tests were performed by using the Spearman correlation coefficient. Receiver operating characteristic (ROC) curves were plotted to evaluate diagnostic performance of RI, [TIMP-2] × [IGFBP7], fractional excretion of sodium (FeNa), and sCr to diagnose a persistent AKI. Area under the curves (AUCs) values were compared using the DeLong’s nonparametric approach (25). Optimal cutoff was defined using Youden’s J statistic (26).Based on previous study (18), the sample size was calculated as follow. Assuming a RI of 0.69 in patients with transient AKI and a sd of 0.08, using a two-sided test with an α-risk (type I error) of 5% and a statistical power of 80%, we needed 42 patients per group to detect a 15% absolute difference in RI between patients with transient AKI and those with persistent AKI. Taking into account a rate of failure to obtain RI of 10% and a rate of failure to measure urinary biomarker of 10%, we would be needed 100 patients.We performed logistic regression to identify variables significantly associated with persistent AKI. Given the number of events (50 patients with persistent AKI), we selected five variables according to their clinical relevance and statistical significance in univariate analysis (27). Selected variables were “Vasoactive drugs,” “Renal resistive index,” “SOFA,” “Diagnosis,” and “Lactate.” Then, a conditional stepwise regression was used to select the most informative variables. A p value of less than 0.05 was considered statistically significant. Statistical analysis was performed using R Software Version 3.3.1 (R Foundation for Statistical Computing, Vienna, Austria).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31165593/</t>
+  </si>
+  <si>
+    <t>0.58 is a chi squared statistic, comparing AUCs</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32063248/</t>
+  </si>
+  <si>
+    <t>Cases and controls were compared over the full range of SÉANCE variables. Data were analyzed using a least absolute shrinkage and selection operator (LASSO) penalized generalized linear mixed model that controlled for varying numbers of psychotherapy sessions. LASSO is a machine-learning algorithm that reduces prediction errors frequently associated with stepwise selection (Tibshirani, Reference Tibshirani1996). LASSO sets the sum of the absolute values of the regression coefficients to be less than a fixed value, such that less important feature coefficients are reduced to zero and excluded from the model. Bayesian information criterion (BIC; Schwarz, Reference Schwarz1978) was utilized to select the tuning parameter. Each sub-cohort was randomly divided into training (2/3 of sample) and testing (1/3 of sample) sets. LASSO was implemented on the training set to select features, which were in turn utilized in the testing set to estimate prediction scores. Area under the curve (AUC) and confidence interval (95%) statistics were calculated to determine models' predictive accuracy using the c-statistic. Analysis was completed using Python and R's glmnet package (Friedman, Hastie, &amp; Tibshirani, Reference Friedman, Hastie and Tibshirani2010).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32845835/</t>
+  </si>
+  <si>
+    <t>No mention of AUC or relevant text in statistical methods section</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24768478/</t>
+  </si>
+  <si>
+    <t>Logistic regression models were used with the absence or presence of NSLN metastasis as a binary response variable. Univariate models were constructed for each of the plausible predictors. The presence of a nonlinear relationship was considered for the continuous variables tumor size and age using restricted cubic splines. A bivariate model for “size of SLN metastasis” (macro vs micro) and “intraoperative pathological evaluation” (positive vs negative) was considered given the presumed association between these two predictors. A test was considered statistically significant if the p-value was less than 0.05. All variables that were statistically significant in univariate analysis were used to create a multivariate model for prediction of NSLN involvement. For this analysis we included only the complete cases, excluding 19 patients. Complete data of 451 patients (96% of the patient sample) were used for creation of the predictive model. For internal validation of the model, the quality of the prediction was assessed by a bootstrap-corrected area under the ROC curve (AUC). The bootstrap method corrects for overoptimism resulting from the fact that the performance of the model (AUC) was measured from the same data set as used for building the model. For the external validation the ROC curve was constructed and the AUC was estimated, together with its 95% confidence interval, as an indication of the predictive value of the UHL prediction model for nodal metastasis. All analyses have been performed using SAS software, version 9.2 of the SAS System for Windows.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12153880/</t>
+  </si>
+  <si>
+    <t>Estimated  blood  loss  percentagewas calculated based upon the subject’s height, sex,and weight according to the American Associationof  Blood  Banks  method.6Pre-  and  post-donationmeans for supine HR, SBP, DBP, and SI, and for thepostural   changes   in   these   measurements   (DHR,DSBP,DDBP,DSI),  were  compared  using  a  paired-sample, two-tailed t-test. For the purposes of deter-mining the test characteristics of hemodynamic pa-rameters, each of the subjects was considered to bea ‘‘true negative’’ prior to phlebotomy and to be a‘‘true positive’’ following phlebotomy. Sensitivitiesand  specificities  were  calculated  at  predeterminedthresholds   with   95%   confidence   intervals.   ROCcurves  were  generated,  treating  pre-  and  post-do-nation populations as independent. Statistical anal-ysis  was  performed  using  SAS  6.12  (SAS  InstituteInc.,  Cary,  NC)  and  STATA  7.0(Stata  Corporation,College Station, TX) software. Areas under the ROCcurves   were   compared   using   a   nonparametricmethod for correlated test result data.7In post-hocanalysis,  derived  hemodynamic  variables,  includ-ing cardiac index [CI = HR3SI], shock index [SK= HR/SBP], mean arterial pressure [MAP = DBP11/3 (SBP2DBP)], and systemic vascular resistanceindex [SVRI = (MAP380)/(HR3SI)], were com-pared in a similar fashion</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29673945/</t>
+  </si>
+  <si>
+    <t>Continuous normally distributed variables are expressed as the mean ± SD and continuous nonnormally distributed variables are presented as the median and IQR. Categorical variables are expressed as the frequency or percent. Normality was assessed by the Shapiro-Wilk test. Grouped differences in initial stone size in the training and test groups were tested with the Kruskal-Wallis test.After dimension reduction and feature selection the remaining 3-D TA features and 3 additional features, including BMI, initial stone size and SSD, were tested in various combinations. To do this we used 5 commonly applied machine learning algorithms to classify SWL success, including a J48 decision tree, k-nearest neighbor, an artificial neural network with back propagation (multilayer perceptron), random forest and sequential minimal optimization. To account for overfitting the data set was randomly split in the recommended ratio of 2/3 for model derivation and 1/3 for validation. Machine learning based predictions of SWL success on the validation cohort were evaluated by calculating sensitivity, specificity and the AUC from ROCs.Multivariate analysis with a stepwise forward approach was performed for all selected nonTA and TA features by binary logistic regression on the entire data set. The resulting OR, 95% CI and corresponding parametric Wald test p value were noted.Differences in the mentioned test characteristics were tested by the paired t-test with the Bonferroni correction for multiple comparisons. Differences in the mean number of shock waves and attenuation between the 2 groups were tested by the Mann-Whitney U test. Statistical analyses were done with IBM® SPSS® 23.0 with 2-tailed p &lt;0.05 considered statistically significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34373475/</t>
+  </si>
+  <si>
+    <t>All statistical analyses were performed using STATA 16 (College Station, Texas). A p value of &lt; 0.05 was considered statistically significant. Baseline characteristics between cohort subjects who developed early RVF and those who did not develop early RVF were compared with normally distributed continuous variables were compared with t-tests and Wilcoxon rank sum tests for non-normally distributed continuous variables. Categorical variables were compared with Pearson chi-squared tests or Fishers exact test, where appropriate. In order to determine the relationship between baseline co-variates and follow up pulmonary capillary wedge pressure, multivariable linear regression analyses were performed. In order to assess EUROMACS model discrimination, a receiver operator curve was generated with EUROMACS score as the predictor and post LVAD RVF as the outcome. This was repeated using the RVF definition of RVAD or prolonged inotropes use only. The EUROMACS score was also assessed as a predictor of RVF using logistic regression. In order to determine the relationship between other pre-operative variables and RVF, logistic regression was performed. The relationship between RVF (or RVAD use alone) and subsequent LVAD mortality was assessed with cox regression.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28199038/</t>
+  </si>
+  <si>
+    <t>Data are presented as mean and standard deviation (±sd) or median and interquartile range [IQR] depending on distribution. All the endpoints were pre-specified before analysis and a P-value of &lt; 0.05 was considered significant. The women with Type 1 and Type 2 diabetes were combined as a single group with ‘pre-existing diabetes’ for analysis to provide an adequate sample size. Women who delivered with duration of labour &lt; 8 h were included in the analysis with calculations based upon the time glucose levels were in each range as percentage of the total time glucose levels were recorded. Odds ratios and Wald 95% confidence intervals (95% CI) are presented together with chi-square significance tests. Logistic regression models were used to assess the predictive ability of all the BGL measures. Goodness-of-fit for the models was assessed using the Hosmer–Lemeshow test and model discrimination was assessed using area under the receiver operating characteristic (ROC) curve. Optimal cut-off points were also presented for all measures, where the value is chosen to minimize the Euclidean distance to the perfect predictor (sensitivity of one and false positive rate of zero). Statistical analyses were programmed using SAS v. 9.4 (SAS Institute, Cary, NC, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27738011/</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed with R 3.2.2 open-source software using the glmnet package (version 2.0–2) and the rms package (version 4.4–0), available from the Comprehensive R Archive Network (http://www.r-project.org). Because textural feature values may be subject to interobserver variability in the delineation of the tumor, the original delineations were uniformly eroded by ball-shaped structuring elements with radii of 1 and 2 voxels. For each delineation, textural features were extracted and the stability of each feature was evaluated with the intraclass correlation. Only stable features (intraclass correlation &gt; 0.7) were considered for further analysis. Predictors were then selected by a univariable logistic model with a response variable labeling complete (Mandard TRG 1) and incomplete response (Mandard TRG 2–5). All potential predictors that met the Akaike information criterion (AIC) were considered significant. To discourage overfitting, the AIC is based on rewarding goodness of fit and penalizing the complexity of the model. The AIC requires χ2 &gt; 2⋅df—that is, when considering a predictor with one degree of freedom df, this implies an α = P(χ2 ≥ 2) = 0.157 (25). Significant predictors were used to construct 6 multivariable logistic regression models for comparison with current most accurate prediction model with SUVmax as predictor variable (model 1). These models were constructed by introducing clinical parameters (model 2); clinical parameters and geometry features (model 3); clinical parameters, geometry features, and PET textural features (model 4); clinical parameters, geometry features, and CT textural features (model 5); and clinical parameters, geometry features, and PET/CT textural features (model 6) to a least absolute shrinkage and selection operator, a technique for L1-norm regularization. By increasing the shrinkage parameter λ, the regularization shrinks the estimated coefficients and excludes variables when they become zero. The λ-value that minimized the 10-fold cross-validated mean squared error was repeatedly determined with 100 repetitions. The optimal λ-value was robustly determined by averaging over these obtained λ-values. The selected variables were fitted to the data with a logistic regression. The model’s calibration was evaluated using visual inspection of calibration plots and the Hosmer–Lemeshow test. The model’s performance was quantified in terms of discrimination with the AUC and the discrimination slope. The goodness of fit was evaluated with the −2 loglikelihood and the Nagelkerke R2. The model was internally validated by a bootstrap approach with 2,000 repetitions. Bootstrapping allowed for obtaining the optimism-corrected measures for model performance and for shrinkage of the estimated regression coefficients using the optimism-corrected slope.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28544337/</t>
+  </si>
+  <si>
+    <t>0.58 refers to cut off value</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34388727/</t>
+  </si>
+  <si>
+    <t>Analysis was carried out using SPSS version 25.0 (IBM Corp.), with statistical significance set at p &lt; 0.05. Subgroup analysis was performed using treatment subgroups that received clip placement or endovascular therapy. Univariable comparisons between patients with and without major complication were performed using the chi-square and Fisher exact tests for categorical variables and the independent-samples t-test for continuous variables. Because all patients had independent functional status, this component of mFI-5 was deemed less relevant for patients with unruptured intracranial aneurysm (4 is the maximum possible score on mFI-5). Because patient age is an important predictor of outcomes after both endovascular therapy and clip placement for unruptured aneurysm,18,20–23 mFI-5 was supplemented with patient age to create age-supplemented mFI-5 (AmFI-5), a combined index of age and frailty meant to optimize prediction of postprocedural complications in this patient population. Utilizing the Youden index,24,25 we identified an optimal cutoff age of 50 years or older as most predictive of major complications in both cohorts. Table 1 describes the components of mFI-5 and AmFI-5. Receiver operating curve analysis with area under the curve (AUC) was used to determine the predictive accuracies of both indices and ASA for major complications. DeLong’s test was used to check for significant differences in AUC due to the inclusion of age (mFI-5 vs AmFI-5) and to compare the predictive accuracies of the frailty indices with that of ASA.26 Optimal relative fit of the mFI-5, AmFI-5, and ASA models was additionally assessed using Akaike information criterion (AIC), which indicates better fit and decreased complexity with lower values.27 Calibration was assessed using the Hosmer-Lemeshow test. Multivariable logistic regression that incorporated variables with p &lt; 0.2 on univariable analysis was used to evaluate the frailty indices as potential independent predictors of outcome. Associations of scores on these indices with any complication (major or minor) and with length of stay were secondarily evaluated. Validation of the frailty indices was performed with the American College of Surgeons National Surgical Quality Improvement Program (NSQIP) data set (2006–2017). The algorithm published by Dasenbrock et al. was utilized to identify the population of patients with unruptured aneurysm who underwent elective clip placement.21 Associations between frailty indices and development of serious adverse postoperative events, as defined with previously published NSQIP criteria,28 were evaluated and compared with the predictive accuracy of ASA, which is systematically used in NSQIP-based studies.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24658092/</t>
+  </si>
+  <si>
+    <t>Owing to skewed distribution of some variables, results are presented as median and interquartile range (IQR) if not indicated otherwise. Differences in clinical data between groups were assessed using the Mann-Whitney U rank sum test. Agreement between raters for the identification of FLAIR-hyperintensities was analyzed using free-marginal kappa [10], [11]. Kappa values were evaluated as suggested by Landis and Koch [12]. ROI-analysis was performed on patient level and separately for the two centres. We used mean ROI-values per patient and per rater for positive ROIs and negative ROIs separately: a) If all raters had some ROIs of a patient classified as having a positive FLAIR status, we used only the mean of the positive values and classified the patient as having a positive flair status. b) If not all raters found positive ROIs for a patient, but all raters had ROIs classified as negative, we used only the mean of the negative ROI-values and classified the patient as negative. * c) Only for some patients one of the raters classified all ROIs in another category as the other raters. For them we used the classification of the two corresponding raters and set the ROI value for the rater not corresponding to missing. In the next step, the ability of a relative DWI-intensity threshold to predict the presence of corresponding FLAIR-hyperintensities was analyzed using an unadjusted receiver operating characteristics (ROC) curve analysis. The area under the curve (AUC) and the 95% confidence limits for the raters are reported. To get the optimal threshold, the Youden Index was used ( [13]. Sensitivity, specificity, and predictive values for the optimal thresholds are also reported. To adjust for possible confounders, a multiple logistic regression model with the dependent variable “FLAIR-status” and independent variables “lesion volume”, “sex”, “thrombolysis” and “NIHSS” was used as a basic model (m0). In the additional model 1 (m1), “age” was added. Finally, different models were compared with regard to their ability to discriminate individuals in their FLAIR-status: i) In model 2 (m2), we added “time-from-stroke-onset” to the m1 model. ii) In model 3 (m3), we added the ROI-intensity for each rater separately to the m1 model. Paired sample statistical techniques were used for the comparison of two models. The method exploits the mathematical equivalence of the AUC to the Mann-Whitney U-statistic [14]. The ROC curves were calculated using SPSS Statistics 21, Release Version 21.0.0.0 (SPSS, Inc., 2012, Chicago, IL, www.spss.com). The comparisons of ROC curves and the linear mixed models were done using SAS software, Version 9.3 of the SAS System for Windows. (2010 SAS Institute Inc., Cary, NC, USA). For analyzing the association between DWI-rSI and time-from-stroke-onset we calculated the mean DWI intensity over all ROIs and raters for every patient and used unadjusted and adjusted correlation analysis (Spearman's rank correlation) and a multiple linear regression analysis adjusted for “age”, “lesion volume” and “thrombolysis”. We calculated multiple linear regressions with (log-transformed) “mean DWI-value” as dependent variable and “age”, “thrombolysis” and (log-transformed) “lesion volume” as independent variables. Mean DWI intensities and lesion volume values were log-transformed to overcome the skewness in the distribution of the values. We analyzed the adjusted association between mean DWI-rSI and time-from-stroke-onset by analyzing the association of the residuals from the regression analysis with time-from-stroke-onset. Above steps were performed equally for ADC-maps.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33880334/</t>
+  </si>
+  <si>
+    <t>We used percentage for categorical variables and mean ± standard deviation (SD) for continuous variables. To compare categorical variables, we used a chi-square (χ2) test. For comparing continuous variables, we used the t-test or Wilcoxon rank sum test for continuous variables. Multivariate stepwise logistic regression was used to investigate the factors associated with ABE and establish the clinical prediction model. Area under the curve (AUC) from the C-statistic was used to evaluate the predictive ability. A C-statistic of 1.0 indicated a perfect prediction, whereas a C-statistic of 0.5 indicated that the prediction did not differ from a random prediction. Calibration was assessed using Hosmer-Lemeshow (HL) goodness-of-fit χ2 test. The analysis was performed using the statistical software SPSS 23.0 (IBM Corp., Armonk, NY, USA) and STATA15 (StataCorp LLC. College Station, TX, USA). Finally, the decision curve analysis (DCA) was conducted to evaluate the model using R 3.6.1 software (https://www.R-project.org/).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29251715/</t>
+  </si>
+  <si>
+    <t>Because this is a pilot study estimating sample size, and power analysis was not performed. The trauma service admits over 1,200 patients each year. Statistical analysis of the data was performed by test characteristics as well as receiver operator characteristics (ROC) curves and areas under the curve. Youden indices were calculated for both RASI and SI. Calibration was performed through goodness of fit testing using the χ2 method. Student's t test was used for comparison of the SI and RASI as we used average values of each for the group. Serum lactate was used as the gold standard to determine the presence of hypoperfusion (normal is &lt;2 mmol/L). The clinical significance of serum lactate was determined by mortality difference between patients with a serum lactate greater than 2.5 mmol/L as several studies have demonstrated that mortality is increased in patients who have a lactate greater than this.8,9 Demographic data were compared using Student's t test when applicable. Continuous variables were reported as means with 95% CI or median with interquartile range, and categorical variables were reported as frequencies and proportions. A two-sided p value less than 0.05 and 95% confidence intervals are reported. All analyses were performed using XLStat (Addinsoft, New York, NY).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12921935/</t>
+  </si>
+  <si>
+    <t>t-Tests, Mann-Whitney tests, and chi-square tests were performed to assess significant differences (P&lt;.05) between eligible respondents who were visited at home (n = 439) and eligible respondents who were not visited at home (n = 85), between participants with (n = 175) and without (n = 264) postural sway measurements, and between participants with (n = 399) and without (n = 40) pedometer measurements. Similar analyses were performed to assess differences in characteristics between respondents who reported no, one, or at least two falls during the 1-year follow-up. We examined the pattern of association between the continuous fall risk factors and recurrent falling in order to determine whether there was a threshold value or whether the variable should be treated continuously. The observed relationship between the fall risk factors and recurrent falling was non-linear. Therefore, all continuous variables were dichotomized (yes/no). The cut-off point for depression (CES-D⩾16) was chosen at a pre-established point [41]. For the other continuous variables, the risk gradients across deciles and quartiles were examined and the most optimal cut-off point was chosen, i.e. the quartile or decile that showed the strongest association with recurrent falls [44]. Because muscle strength is generally higher in men than in women, sex-specific cut-off points were taken. Receiver-Operator Characteristic (ROC) curves were constructed, to compare the predictive quality of the easily measurable (i.e., tandem stand, handgrip strength) and more sophisticated (i.e., postural sway, leg extension strength) measurements of balance and muscle strength. It was tested whether the area under the curve (AUC) of mediolateral sway and tandem stand, and of leg extension strength and handgrip strength were significantly different (P&lt;.05). The comparisons were made for those respondents who were assessed both on postural sway and tandem stand (n = 161), or both on leg extension and handgrip strength (n = 419). The sensitivity was defined as the percentage of recurrent fallers who were correctly identified. Specificity was defined as the percentage of nonrecurrent fallers that were correctly identified. To investigate the independent associations between the modifiable fall risk factors and recurrent falling, we performed analyses in four stages. First, it was tested whether there was significant effect modification (P&lt;.10). Second, univariate logistic regression was carried out. Third, multiple logistic regression was performed with adjustment for age and sex. The relationship between muscle strength and recurrent falling was also adjusted for body weight and body height [45], [46]. Fourth, additional adjustment was performed for those confounders that changed the beta at least 10% [44].</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32058555/</t>
+  </si>
+  <si>
+    <t>All nodules detected during screening were analyzed using data from the LDCT image in which they were first seen. For participant-related characteristics, we used the Mann-Whitney U test for differences in continuous data and the χ2 test or Fisher exact test for categorical data, as appropriate. For differences in nodule-specific characteristics, we used mixed-effects logistic regression with participant as the random effect.22 We applied 8 models from 6 published studies to our data to calculate the probability of nodule malignancy (eTable 2 in the Supplement): 4 PanCan models (PanCan-1b15: parsimonious model including spiculation; PanCan-2b15: full model including spiculation; PanCan-MD16: PanCan-2b with the mean of the largest and perpendicular diameters as nodule size; and PanCan-VOL16: PanCan-2b with nodule volume as nodule size), the recently developed UKLS model17; and the models developed in VA clincs,12 the Mayo Clinic,11 and PKUPH clinics.13 We explored associations of radiologic parameters and participant-related characteristics with risk of nodule malignancy by fitting multivariable logistic regression models via generalized estimating equations using prevalence and incidence screening rounds combined and accounting for the correlation structure of multiple pulmonary nodules per individual on the LUSI data. Model selection was based on the quasi–Akaike Information Criterion23 (eAppendix in the Supplement). For each selected model, the ability to discriminate nodules by malignancy status was evaluated through cluster-adjusted receiver operating characteristic curves and the corresponding area underneath the curve (AUC).24 Given the correlation structure of nodules within participants, sensitivity, specificity, and positive and negative predictive values were estimated using generalized estimating equations.25-27 For comparison, we also estimated the discrimination capacity of models fitted on LUSI databased on a larger set of variables using cluster bootstrapping (B = 1000).24 Model calibration was assessed by examining observed vs predicted nodule malignancy rates by category of nodule size (&lt;5 mm, 5 to &lt;8 mm, 8 to 10 mm, or &gt;10 mm; as used in the LUSI CT evaluation algorithm) as well as by deciles of predicted risk. The Hosmer-Lemeshow goodness of fit test28 was used to examine the fit between predicted and observed malignancy probabilities across deciles of predicted risk, and Brier scores (BS) and Spiegelhalter z test were used to assess the overall deviance of risk predictions estimated by models vs observed rates.29 Hosmer-Lemeshow goodness of fit and χ2 for independence P values were 1-sided, and all other P values were 2-sided. Statistical significance was set at .05. All analyses were performed using R statistical software for version 3.5.1 (R Project for Statistical Computing), with packages gee, Hmisc, lme4, MuMIn, rms, pROC, and ROCR, as well as the clusteredROC function. Data analysis was performed from February 1, 2019 to December 5, 2019.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23411591/</t>
+  </si>
+  <si>
+    <t>brief communication, not research article. Found relevant methods text</t>
+  </si>
+  <si>
+    <t>The primary endpoint was OS, defined as the time from initiation of chemotherapy until death or date of last follow-up. Predictors of OS were considered based on the literature (13–20). Univariate and multivariable analyses used the proportional hazards model for predicting OS; proportional hazards assumption was verified using test for weighted residuals (21). The final model was chosen based on univariate and multivariable P values (statistically significant if ≤.05). All statistical tests were two-sided. The model was internally validated, and its accuracy was assessed using Harrell’s concordance probability, c-index (22). Bootstrap samples (N = 1000) were used to estimate overfitting. The U statistic was used to test whether the predictions of the four-variable model in all possible pairs were more concordant with actual observations than the MSKCC risk-score model in the same pairs. Statistical analyses were performed using R (23) and its Design and Hmisc libraries (24).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33545993/</t>
+  </si>
+  <si>
+    <t>The data are expressed as mean value and standard deviation, for continuous data, and frequency and percentage for categorical data. For comparisons between the groups, we used Student t test and ANOVA for continuous data and Chi-squared and Fisher exact tests for categorical data. Using the Cox regression model, considering death as a competing risk, the predictive value of the CHADS2, CHA2DS2-VASc, ATRIA, and Essen stroke risk scores to the vascular outcome was investigated. Performance for the predictability for vascular outcomes was presented as overall C-index with 95% confidence interval and time-dependent C-index for each scoring system. A separate data management committee managed all data, and an external team performed statistical analyses. All statistical analyses were performed using SAS 9.4 (SAS Institute, NC) and STATA 13 (StataCorp, TX).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/19343323/</t>
+  </si>
+  <si>
+    <t>The Mann–Whitney U test was used for the numerical data; for sTREM-1 concentrations, we used Student's t test to compare logarithmic means. The Pearson χ2 test was used for categorical data. The analyses were corrected, by clustered logistic regression, for the influence of multiple BALs performed in the same patient. To evaluate the diagnostic value of the sTREM-1 assay, we produced a receiver-operating characteristic (ROC) curve and measured the area under the curve. Statistical significance was defined as a P value of &lt;0.05 in all cases. Analysis was performed with SPSS ver. 14.0 for Windows (SPSS, Chicago, IL).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18319073/</t>
+  </si>
+  <si>
+    <t>methods paper for designing a test based on a ROC curve</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22365423/</t>
+  </si>
+  <si>
+    <t>Continuous variables are described as mean ± SD or median (interquartile range [IQR]). Categorical variables are described by frequencies and percentages. Continuous parametric variables were compared using unpaired and paired Student t test as appropriate. Continuous nonparametric variables were compared using the Mann-Whitney U test. Categorical variables were compared using Fisher exact test. Intraclass correlation coefficient was defined as the ratio of between-subject variance to the total. One-way analysis of variance was used to compare the difference in means from 3 groups of PAR grade. Area under the receiver-operating characteristic curves were performed to test discriminatory power of clinical characteristics, MDCT, and TEE measures for prediction of moderate or severe PAR. Analyses were performed using SAS (version 9.1.3, SAS Institute, Cary, North Carolina).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31745744/</t>
+  </si>
+  <si>
+    <t>Continuous variables are presented as mean ± SD or median with interquartile range as appropriate. Categorical variables are presented as numbers and percentage. Normal distribution was checked using QQ-plots and the Shapiro–Wilk test. The diagnostic accuracies of QFR and FFR are presented with sensitivity, specificity, negative predictive value, and positive predictive value, and were compared using McNemar’s test and generalized score statistics. Comparison between the area under receiver operating curve (AUC) of QFR and FFR was made using the DeLong method. Optimal cutoff values were found using Youden’s method.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30539068/</t>
+  </si>
+  <si>
+    <t>Continuous and categorical data were reported as means and standard deviations (SDs). The data were assessed by the Mann-Whitney U test for continuous variables and the chi-squared test or Fisher’s exact test for categorical variables between two independent groups. To identify the NBI/BLI- and C-indices indicating the highest diagnostic performance for GC, we performed a receiver operating characteristic (ROC) curve analysis. The area under the ROC curve (AUC) was calculated, and the point with the largest AUC was defined as the point that had the greatest association with GC. Optimal cutoff points were determined on the basis of the maximum values of the Youden index, calculated as [sensitivity + specificity − 1], and the minimum values of the square root of [(1 − sensitivity)2 + (1 − specificity)2], which indicates the minimum distance from the upper left corner to the point on the ROC curve [24]. In the current study, we used the ROC curve analysis to evaluate the efficiency of the differential diagnosis between GC and BDLs by NBI/BLI- and C-indices in the H. pylori-infected and -eradicated cases. We used SPSS ver. 22.0 software (IBM Corp., Armonk, NY, United States) or GraphPad Prism5 (GraphPad Software, La Jolla, CA, United States) for all analyses. Two-tailed P values less than 0.05 were considered to be statistically significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32049268/</t>
+  </si>
+  <si>
+    <t>no mention of AUC or ROC in methods section</t>
+  </si>
+  <si>
+    <t>Associations between PMS and DLPFC-HC functional connectivity were assessed using a linear regression in SPM, version 12, using PMS as covariate of interest and age and sex as covariates of noninterest. Statistical significance was set at P &lt; .05. The PMS and DLPFC-HC connectivity associations in the imaging space were corrected using a familywise small-volume correction in the hippocampus (eFigures 1 and 2 in the Supplement) based on the automated anatomical labeling template. Associations between PMS and the schizophrenia PRS, as well as the association of the PMS by PRS interaction with DLPFC-HC connectivity, were tested using a multiple linear regression that accounted for the effects of sex, age, and (for PRS-associated analyses) 10 genetic principal components. For details and analysis of potential confounding, see the eMethods in the Supplement.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28994653/</t>
+  </si>
+  <si>
+    <t>The study cohort included 946 consecutive patients who underwent TAVI between January 2013 and December 2015 at our centre. Data from our institutional database for these patients were used to calculate procedural risk scores, including EuroSCORE I (ES I)5, EuroSCORE II (ES II)6, Society of Thoracic Surgeons Predicted Risk of Operative Mortality (STS-PROM)7, German Aortic Valve Score (German AV Score)8, and the newly developed STS/ACC TAVR score (Table 1)4 . In-hospital and 30-day mortality was available for all patients. Each of the five procedural scores was fitted as a continuous linear variable into a logistic regression model estimating 30-day mortality. The analysis was repeated by modelling each score using restricted cubic splines with three knots9,10. The C-statistic, Somer’s D, Brier score, and likelihood ratio (LR) test p-values were estimated for each of the ten 30-day models to describe the model discrimination and calibration. Receiver operating characteristic (ROC) curves were generated for each score, and differences between the scores’ C-statistics and 95% confidence intervals were calculated, with p-values being adjusted for the multiple testing false discovery rate. To assess calibration visually, plots of observed versus predicted mortality were generated for each model, with HosmerLemeshow goodness-of-fit p-values estimated for all models. The STS/ACC in-hospital mortality score was additionally analysed for in-hospital mortality. All analyses were conducted using SAS Version 9.3 (SAS Institute Inc., Cary, NC, USA). The study was approved by the Institutional Review Board at our centre.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34741749/</t>
+  </si>
+  <si>
+    <t>Differences between groups were analyzed using either a t-test or Chi-square test, as appropriate. P &lt; 0.05 was considered statistically significant. Statistically significant variables in univariate analysis were used in the multivariate logistic regression analysis. All models were established using R software. ROC analysis was used to calculate the AUC of all models to assess their predictive power. The ROC curves and estimated values of sensitivity, specificity, and accuracy of all the models were compared using the McNemar test. Interclass correlation coefficients (ICC) were calculated for inter-observer and intra-observer agreement: ICC &lt; 0.40, poor agreement; 0.41–0.60, moderate; 0.61–0.80, substantial; and &gt; 0.80, excellent. All statistical analyses were performed using R software (version 3.5.0, RStudio, Boston, USA) and IBM SPSS Statistics (Version 23.0, IBM, Armonk, NY, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24722973/</t>
+  </si>
+  <si>
+    <t>Patient characteristics are presented as percentages and mean ± SD. χ 2 Tests were used to compare categorical variables between the two groups, and the Student t test or the nonparametric Kruskal-Wallis test, where appropriate, were used to compare continuous variables. A Cox model was used to identify independent characteristics associated with the occurrence of an event during follow-up. Potential confounding factors were entered into the model for adjustment. The results are expressed as hazard ratios and 95% CIs. We calculated the Harrell C statistic with 95% CIs as a measure of the risk prediction abilities of SAMe-TT 2 R 2 for the various end points. C statistics measure how well the risk prediction scheme identifies patients who will have a future event. For estimating C statistics, we analyzed SAMe-TT 2 R 2 scores as risk scores (0-9) and as risk groups (low, intermediate, high). We constructed survival curves based on Kaplan-Meier estimates of the probability of remaining free of events with a score of 0 and 1 for the two risk stratification schemes. P &lt; .05 was considered statistically significant. We used SAS version 9.1 (SAS Institute Inc), StatView version 5.0 (SAS Institute Inc), and MedCalc version 9.3 (MedCalc Software) statistical software for the analyses.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32839087/</t>
+  </si>
+  <si>
+    <t>All data were analyzed using Stata version 13 (Texas, US). Continuous variables were inspected for range and distribution. The diagnostic accuracy of the BQ, ESS, and SBQ, for identifying the presence of OSA, was assessed using the receiver operating characteristic (ROC) curve where the scores for the BQ, SBQ, and ESS were entered as continuous. We further calculated sensitivity and specificity for each of the three instruments. We repeated this for the BQ and SBQ paired with the ESS (score of ≥10) to assess if this improved the sensitivity and/or specificity for detecting OSA. We also obtained the positive and negative predictive values for each of the five variations (i. BQ, ii. SBQ, iii. ESS, iv. BQ with the ESS, and v. SBQ with the ESS). Finally, the empirical cut point estimation command (cutpt) was used to determine the optimal cut point for neck circumference and each of the three screening instruments. The Liu method was applied, which maximizes sensitivity and specificity [15].</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/10945904/</t>
+  </si>
+  <si>
+    <t>For NNBD, LMD, and QUANTICYT, receiver operatingcharacteristic (ROC) curves were made43in which sensitiv-ity and specificity were plotted for two thresholds: interme-diate  risk/low  grade  and  high  risk/high  grade.  First,  ROCcurves  were  made,  with  positive  cystoscopy  as  gold  stan-dard. A positive cystoscopy is defined as the presence of amacroscopically visible lesion and/or suspicion of the pres-ence  of  carcinoma  in  situ  (criteria  described  before),  atcystoscopy. Second, the ROC curves were made with tumorrecurrence  as  gold  standard.  The  areas  under  the  curve(AUC) were calculated for the ROC curves. The maximalAUC value is one.The Statistical Package for Social Sciences (SPSS) com-puter software was used for data documentation and anal-ysis. Recurrence-free intervals were evaluated with Kaplan-Meier  curves  and  log-rank  tests.  For  analysis  of  nominal data in tables, the chi-square test was used. Significance ofa test was assumed whenPwas less than 0.05</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22324917/</t>
+  </si>
+  <si>
+    <t>Discrepancies in CRL and estimated fetal weight were calculated as a percentage of the larger twin measurement,16 whereas NT discrepancy was calculated as a percentage of the smaller NT. These calculations were made on the biologically plausible assumption that the larger CRL, larger fetal weight and smaller NT would presumably be closer to normal. Patient characteristics, ultrasound biometry and pregnancy outcomes were compared among TTTS, sFGR and control groups. Normality of distribution of the data was examined using the Kolmogorov–Smirnoff test. Inter-group comparison was made using Kruskal–Wallis test. Mann–Whitney U test was used to compare continuous data not normally distributed and chi-square test was used to compare categorical data. All P-values reported are two tailed and a level of 0.05 was taken as statistically significant. Receiver operating characteristic (ROC) curves were used to evaluate the possible role of inter-twin discrepancies as a marker by comparing TTTS and sFGR with the control group. Analysis was performed using spss version 16.0 (SPSS Inc., Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33779804/</t>
+  </si>
+  <si>
+    <t>Categorical variables were expressed as frequencies. Continuous variables were expressed as mean ± standard deviation (SD) or median [inter-quartile range]. Non-parametric tests were used to assess differences in total scores between subgroups. The variables considered were basic characteristics of fathers (age, ethnicity, level of education) and breastfeeding experience (maternal parity and previous feeding experiences at discharge). The total score was obtained by adding up the points assigned to each item in the questionnaire (min 12, max 60 points): a higher score was considered as indicative of greater knowledge and positive attitude toward breastfeeding. Univariate binary logistic regression analysis was used to verify if the total score was a predictor of exclusive breastfeeding at discharge. Likewise, univariate analysis was used for variables reported in the literature to be predictive of exclusive breastfeeding [24, 25]. Variables found to be significant at univariate analysis were entered into a multivariable logistic regression model to adjust for possible confounders. ROC analysis (Fig. 1) was then performed, and a Youden’s total score cut-off value was determined to define the total score’s performance in predicting exclusive breastfeeding at discharge. Statistical analyses were performed using SPSS version 25 Statistic Software Package (SPSS Inc., Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11982662/</t>
+  </si>
+  <si>
+    <t>Our analyses were guided in part by principles for the reporting medical tests.36 First, we used descriptive statistics to describe the 311 patients in the analytic sample. Next, we compared the 311 patients in our analytic sample to the 58 patients who were not in our analytic sample because their serum albumin levels were not obtained. We used chi-square tests for categorical variables and analysis of variance for continuous variables. Next, we compared the distribution of clinical ratings in patients with different albumin concentrations, using chi-square tests modified for trend. We divided albumin concentrations into four categories (&gt;4.0, 3.5–3.9, 3.0–3.4, and &lt;2.9 g/dL). Next, we examined the ability of serum albumin levels to identify patients classified as malnourished by clinical examination. For these analyses, we viewed albumin as a diagnostic test for clinical malnutrition. We examined two diagnostic standards: (1) severe malnutrition on the SGA and (2) moderate or severe malnutrition on the SGA. We also examined different definitions of a “positive” albumin test: &lt;4.0, &lt;3.8, &lt;3.5, &lt;3.2, and &lt;3.0 g/dL. We calculated the sensitivity, specificity, positive predictive value, negative predictive value, and likelihood ratio of each of these cutpoints. Sensitivity is the probability that patients who are malnourished will score below the albumin cutoff. Specificity is the probability that patients who are not malnourished will score at or above the albumin cutoff. As the cutoff is lowered, one would generally expect specificity to improve at the expense of worsening sensitivity. Positive predictive value represents the probability that patients scoring below the albumin cutoff are malnourished. Negative predictive value is the probability that patients who score at or above the albumin cutoff are not malnourished. Positive and negative predictive values depend on the prevalence of malnutrition in our sample. Likelihood ratios can be used to modify the pretest probability (as determined by the prevalence of clinical malnutrition in the population being assessed) that a patient will be found to malnourished on clinical examination. A test with a likelihood ratio of 1.0 is considered useless, whereas the most useful tests have either very low or very high likelihood ratios. Finally, we constructed receiver operating characteristic (ROC) curves to examine the concordance between albumin levels and clinical assessments. ROC curves describe the tradeoff between increasing the rate of true positive results (sensitivity) and increasing the rate of false positive results. The area under the ROC curve (sometimes called the c-statistic) represents the probability that a patient found to be malnourished on clinical examination would have a lower albumin level than a patient found to be well nourished. An ROC area of 0.5 would suggest albumin levels are no better than chance at discriminating between well nourished and malnourished patients, whereas a ROC area of 1.0 would suggest albumin levels were perfectly discriminating. We used SAS, version 6.12 (SAS, Inc., Cary, NC) for all analyses.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33413139/</t>
+  </si>
+  <si>
+    <t>We reported categorical variables as frequency (percentage) and continuous variables as mean (SD) or median (interquartile range) as appropriate. We compared patient characteristic variables using Chi square, t-test, or Mann-Whitney U test as appropriate. The predictive performance of SIRS, qSOFA, NEWS, and REMS for primary and second outcomes was assessed. Discrimination was assessed by area under the curve of the receiver operator characteristics curves (AUROC). We estimated the 95% confidence interval (CI) of the AUROCs and made comparisons between EWSs using a bootstrapped method at 10000 replications. We evaluated calibration with calibration plots and the Hosmer-Lemeshow test, using a smoothed nonparametric method to fit the calibration curves [21, 22]. Overall model performance was tested by scaled Brier score and Nagelkerke’s R squared. A complementary analysis of EWSs was performed incorporating information an ED physician may have at assessment including age, gender, and Charlson Comorbidity Index. Baseline mortality risk models were fitted for each outcome with age as a restricted cubic spline [21]. The additional predictive contribution of each EWS to the baseline risk model was assessed by likelihood ratio test. Comparisons between baseline risk model plus an EWS versus baseline risk model plus a different EWS were assessed by bootstrap test with 10,000 replications. Integrated discrimination improvement assessed whether a baseline plus EWS model had better discrimination than the baseline model alone by difference in discrimination slopes between the models [23]. Good discrimination and calibration may not reflect the clinical usefulness of an EWS because they assign equal weight to sensitivity, specificity, and prediction errors. ED physicians making decisions in clinical practice usually assign different weights to these based on the patient’s characteristics and available resources. To reflect this, we calculated net benefit (NB) at each threshold probability from decision curve analysis [24]. For a patient with suspected sepsis, the ED physician weights the harm/cost of overtreatment against the benefit of treatment (the harm/cost-to-benefit ratio). If the physician thinks that the harm/cost-to-benefit ratio is 1:9, this represents a threshold probability of 10%, and the number of patient that the physician is willing to treat (NWT) to prevent the mortality outcome is 10. We present a threshold probability range from 1 to 20% (NWT from 100 to 5, respectively), which is a plausible range over which a physician would use an EWS for a patient with suspected sepsis. A higher NB is desirable at any threshold probability and should be higher than ‘treat all’ or ‘treat none’ strategies to have clinical utility. Clinical usefulness at cutoff values was also assessed by sensitivity, specificity, positive likelihood ratio (LR+), negative likelihood ration (LR-), negative predictive value (NPV) and positive predictive value (PPV). These were calculated for SIRS and qSOFA at the recommended cutoffs from previous literature [10, 25]. For NEWS and REMS, we reported the accuracy at the optimal cut-point according to optimal Youden index. Pre-specified subgroup analyses were performed by age ≥ 70 years and age &lt; 70 years as well as by no comorbidities and at least one comorbidity. Comorbidities included chronic neurologic disease, acute stroke, chronic respiratory disease, chronic liver disease, neoplasia, chronic renal disease, diabetes mellitus, chronic heart failure, and immunocompromised status. All statistical analyses were performed using R software version 3.6.1 (R Foundation for Statistical Computing, Vienna, Austria) with the rms, Hmisc, foreign, pROC, sciplot, and dca packages except for sensitivity and specificity, LR+, LR-, NPV and PPV, which were calculated using MedCalc for Windows version 19 (MedCalc statistical software, Mariakerke, Belgium).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11593220/</t>
+  </si>
+  <si>
+    <t>The comparison of scintigraphic and ECG data between studies 1 and 2 was performed by Student t test for paired data. The comparison between patients with and without thrombolysis in the acute phase was performed by Student t test for unpaired data; the comparison of TIMI grade was performed by the Mann-Whitney rank sum test. Differences in QRS score between patients with and without thrombolytic therapy in the acute phase and changes over time within each group, as well as any interaction (different trends between groups), were assessed with a 2-way analysis of variance for repeated measures. Differences in rates of occurrence of categoric variables were compared by the χ2 test with Yates correction. Linear regression analysis was used to assess correlations between QRS score and scintigraphic variables. Receiver operating characteristic (ROC) curves for the prediction of improved LV perfusion defect extent and LV EF were generated with the use of changes in individual QRS score from study 1 to study 2; the area under the curve was obtained according to the method of Hanley and McNeil.11 All data are reported as mean ± SD; a P value &lt; .05 was considered significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32493943/</t>
+  </si>
+  <si>
+    <t>ROC curves were used to graphically represent the relationship between sensitivity and specificity for the comparison of nrTMS and DCS language mapping data with respect to language error categories and language-positive or language-negative CPS regions (Fig. 5). Graphs were generated using the R package pROC59, which is included in the statistical software R version 3.5.2 (URL: https://www.r-project.org/). AUC values were used to compare TMS performance to DCS data using the method described by DeLong et al.60, and the 95% confidence intervals (CI) were computed with bootstrap resampling.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25411590/</t>
+  </si>
+  <si>
+    <t>First, we calculated basic population demographics using descriptive statistics. We then constructed receiver operating characteristic (ROC) curves to evaluate the accuracy of the IVC/Ao ratio, collapsibility index of the IVC, and physician gestalt compared to our criterion standard. We also calculated the sensitivity, specificity, likelihood ratio positive (LR+), and likelihood ratio negative (LR−) for both ultrasound measurements and physician gestalt. We calculated these test characteristics using the traditionally used cutoff points of IVC/Ao ratio (0.8) and collapsibility index of 50%. In addition, we calculated test characteristics for a cutoff point of IVC collapsibility index of 80% or greater because it was the best cutoff point obtained on the ROC curve to rule out dehydration and, therefore, the most clinically relevant. To determine inter-rater reliability between ultrasound observers, an ultrasound fellowship trained investigator, blinded to the study results and prior measurements, reviewed the ultrasound clips of a selected random subgroup of 30 patients, and re-measured the IVC/Ao ratio, as well as the maximum and minimum diameter of the long axis view of the IVC during the normal breath cycle. Intra-class correlation coefficients were calculated to determine the degree of reliability for these measurements. Statistical analyses were performed using Stata version 11.0 (StataCorp LP, College Station, TX).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31223261/</t>
+  </si>
+  <si>
+    <t>Since sample size in our study was &lt; 30, a non-parametric Mann Whitney U test was performed to determine the differences in accuracy of PIVKA-II, CA 19-9, CEA and CA 242 for PC versus benign pancreatic diseases (18). The results are expressed as median and interquartile ranges (IQR). To evaluate the discrimination ability of the tested biomarkers, area under the receiver operating characteristic curve (ROC AUC) were calculated. For each AUC we estimated the 95% confidence interval (95% CI). The values P &lt; 0.05 were considered statistically significant. Statistical analysis was performed using StatsDirect 3.0.187 statistical software (StatsDirect software, Cheshire, England)</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27205889/</t>
+  </si>
+  <si>
+    <t>Clinical characteristics between normal ABPM vs. not normal ABPM groups were compared by chi-squared analysis for categorical variables or Student's t-test for continuous variables. Logistic regression models adjusted for age, sex, and height were used to determine the relation between normal ABPM, as the binary outcome, and clinic SBP indices (auscultative, automated; highest, lowest, and average), which were sequentially replaced as the predictor of interest. Clinic SBP indices were treated as continuous variables and then as a binary high–low variable dichotomized at the age-sex-height referenced 90th percentile. Receiver operator characteristic (ROC) curves at 95% confidence intervals were then used to test the respective utility of significant in-clinic BP indices in the prediction of normal ABPM. To compare the ability of identified predictors of normal ABPM vs. ABPM itself in the prediction of target organ damage, secondary analyses used logistic regression to determine associations between LVH and in-clinic BP predictors identified in the primary analysis or separately ABPM hypertension (e.g., severe hypertension, ambulatory hypertension, or masked hypertension).16 Then, ROC curves were constructed, whereby positive predictive values (PPV), negative predictive values (NPV), sensitivity and specificity values, and likelihood ratios were determined. Analyses performed used SPSS (SPPS, Inc. version 21.0, Armonk, NY, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18499616/</t>
+  </si>
+  <si>
+    <t>Data are presented as medians and interquartile range (25th to 75th percentiles, interquartile range, IQR), absolute values and percentages, or means ± sd. The nonparametric data between survivors and nonsurvivors were compared with the Mann–Whitney U-test and categorical variables with the χ2 test. To determine the prognostic accuracy of VEGF at both time points, receiver operating characteristic (ROC) curves were constructed and the areas under the curve (AUC) were calculated with 95% confidence intervals. The Spearman correlation was used to test the relations between the estimated time of onset of sepsis and changes in VEGF concentrations. The level of P &lt; 0.05 was considered statistically significant in all tests. The analyses were performed using the SPSS 14.0 software (SPSS, Chicago, IL).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28431475/</t>
+  </si>
+  <si>
+    <t>Baseline characteristics of the patients included in this analysis and those excluded were compared by chi-square for categorical variables and t-test or Wilcoxon sum of rank test for continuous variables. Odds ratios (ORs) with its 95% confidence intervals (CIs) were calculated using univariable logistic regression. Performance of the ESRS score was measured based on its discriminative ability and calibration in total ischemic stroke, and in LAA and SAO subtypes of stroke, respectively. Discriminative ability was assessed by the area under the receiver-operator curves (AUC) and 95% CIs. An AUC statistic (c-statistic) of 0.5 indicates no better than random prediction, while 1.0 indicates perfect prediction. Calibration was assessed using the Hosmer–Lemeshow test. The α level of significance was p &lt; 0.05 two sided. All analyses were performed using SAS version 9.4 (SAS Institute Inc, Cary, NC).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17699285/</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed by SPSS for Windows software version 13.0 (SPSS Inc., Chicago, IL) and SAS system software version 8.2 (SAS Institute, Cary, NC). All data were expressed as mean ± SD for normally distributed data and median or range for skewed data. Data that were not normally distributed, such as the total white cell counts in the dialysate (which display a positively skewed distribution), were transformed logarithmically before analysis. To evaluate the discriminating ability of dialysate white blood cell counts, we performed receiver operating characteristic (ROC) analysis for log-transformed cell count on day 3 in comparison with day 1. To identify the cutoff levels that maximized the sensitivity and specificity, we calculated the area under the ROC curve (AUC); sensitivity and specificity at each threshold white cell count cutoffs were determined (8). We used multiple logistic regression to examine predictors for treatment failure. Our model-building strategy was constructed as follows. In the multivariate model, explanatory variables that encompassed covariates that were identified by our investigation and previous studies (9,10) were examined. Odds ratios and 95% confidence intervals (CI) were calculated. All probabilities were two-tailed, and the level of significance was set at 0.05.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24582273/</t>
+  </si>
+  <si>
+    <t>All SPARCL subjects were included in this analysis. Baseline demographic and clinical covariates were preselected based on previous studies of factors that influence the occurrence of vascular events after stroke. To account for major confounders that would be significant sources of variation, prespecified Cox proportional hazard models were used to calculate hazard ratios, 95% confidence intervals (CIs), and probability values with adjustment for randomized treatment assignment. Prespecified tests of heterogeneity were used to assess whether the treatment effects differed in groups defined by the risk factor score by including the relevant interaction term in each model. Absolute risk rates were based on the observed proportion of subjects experiencing an event. The accuracies of the FCRS and the novel predictive model were assessed by calculating c-statistics (areas under the receiver operating characteristic [ROC] curves). We also explored the ROC curves for the FCRS as a continuous variable, the FCRS in quintiles, and the presence of carotid atherosclerosis (a CHD risk equivalent almost always screened for in routine stroke/TIA clinical investigations). As these were exploratory analyses, there was no adjustment for multiple testing. All probability values were 2-sided and a P value of .05 or less was considered statistically significant. All statistical analyses were performed using SAS software version 9.2 (SAS Institute. Cary, NC).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20121888/</t>
+  </si>
+  <si>
+    <t>0.58 lower bound of CI; bounds were separated by commas</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21626428/</t>
+  </si>
+  <si>
+    <t>The predicted probability of non-SLN metastases was calculated for each patient by using a computerized model (downloaded from the MSKCC Web site at http://www.mskcc.org/mskcc/html/15938.cfm). The 103 patients were grouped into deciles according to their predicted probabilities. Receiver operating characteristic (ROC) curves were drawn and the area under the curves (AUC) and its 95% confidence intervals were calculated to assess the discriminative power of the nomogram. The ROCs and relative AUCs were calculated both for all the patients in the study and for the two subgroups with macrometastasis or micrometastatic disease in SLN. It is generally accepted that AUC values between 0.7 and 0.8 represent considerable discrimination; AUC values exceeding 0.8 represent good discrimination [27] (Figs. 1, 2, 3). Statistical analyses were conducted by SPSS for Windows (release 13; SPSS Inc., Chicago, IL).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33948940/</t>
+  </si>
+  <si>
+    <t>We first assessed the performance of the model including same predictors as the NCI tool, as well as the model including age and each of 11 biomarkers treated as continuous variables in our dataset. We then incorporated biomarkers into the NCI model through stepwise multivariable unconditional logistic regression with the entry level of 0.15 and stay level of 0.20 to assess whether these biomarkers improved the predictivity of the NCI model. Model discrimination was assessed using receiver-operating characteristic (ROC) curves and C-statistics. Comparison of C-statistics generated from different models was conducted by the Mann-Whitney U test.30 In addition, we performed an internal validation by bootstrap that avoids loss of sample size and allows us to estimate optimism and gauge overfitting, among 500 randomly drawn samples from our dataset of the same size as the full dataset (https://www.sas.com/content/dam/SAS/support/en/sas-global-forum-proceedings/2020/4647-2020.pdf). Optimism was calculated as the mean difference between the C-statistics of each bootstrap-sample-derived model on corresponding bootstrap samples and their C-statistics when tested on the original training set. All the statistical analyses were conducted using SAS version 9.4 (SAS Institute, Cary, North Carolina). All statistical tests were two-sided. A two-sided P value of &lt;.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28810259/</t>
+  </si>
+  <si>
+    <t>The statistical analyses for this study were performed using STATA IC version 13.1 (StataCorp, College Station, TX, USA). Separate analyses were conducted for ASPECTS on the full ordinal scale as well as dichotomized at 0-7 vs. 8-10 for both inter-rater agreement and prognostic accuracy. Inter-rater agreement and prognostic accuracy of ASPECTS across modalities were described by quartiles of the stroke onset to NCCT time (OCT) and referred to as epochs. To assess the specific influence of early time on interrater agreement and prognostic accuracy within a given method, we dichotomized OCT at quartile 1 vs. 2-4. For sensitivity analysis, we also subsequently tested the dichotomy of OCT at the median. The differences in rates of change in ASPECTS over time across different modalities were investigated using generalized estimating equations modelling with ASPECTS as the dependent variable and imaging modality, time epoch, and modality-by-epoch interaction term as independent variables. The inter-rater reliability of ASPECTS on different modalities was assessed using weighted kappa with quadratic weights and compared between modalities and/or time epochs using z-tests. Additionally, for every modality, the magnitude of inter-rater differences in ASPECTS between the hyper-acute epoch 1 and later time 2-4 epochs was compared using 2-sample Wilcoxon Mann-Whitney tests. A comparison of prognostic accuracy of ASPECTS for favourable functional outcome (defined as a modified Rankin Scale [mRS] 0-2 at 3 months) assessed on each modality was determined by assessing the combination of discrimination (ROC area) and calibration (Bayesian Information Criterion) for logistic regression models both adjusted for National Institute of Health Stroke Scale and ASPECTS &gt;7 and also unadjusted for each modality. The area under the ROC curves (AUC) for prognostic accuracy across modalities were compared using a chi-square test. A BIC &gt;10 points lower is regarded as very strong evidence of model superiority [19].</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33152585/</t>
+  </si>
+  <si>
+    <t>Quantitative variables and categorical data are presented as (mean ± SD) and (number and percentage), respectively. Different groups were compared using Mann–Whitney U test (for continuous variables), chi-square or Fisher's exact test (for categorical variables), and the independent Student's t-test, basing on appropriateness. The Kruskal–Wallis test and one-way ANOVA were used to compare groups, as necessary. We used the Youden Index to estimate the optimal cut off values by finding values that returned the maximum specificity and sensitivity. ROC analysis was also performed, and the area under the curve (AUC) was calculated. Decision curve analysis was performed to assess the clinical utility of L/A ratio. P &lt; .05 was considered statistically significant. Statistical analysis was carried out using IBM SPSS Statistics v.24 (IBM, Armonk, NY, USA) and R v.3.4.0.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25231768/</t>
+  </si>
+  <si>
+    <t>systematic review of clinical prediction models</t>
+  </si>
+  <si>
+    <t>We considered attempting to synthesize summary statistics of discrimination and calibration, which could be applied generally to other populations. However, the variety of study designs, case mixes, and reported summary statistics would have resulted in very few relevant data points, for which a summary statistic may have been inappropriate and misleading.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31237889/</t>
+  </si>
+  <si>
+    <t>To visualize the trends of claims for covariates of interest prior to diagnosis with PDAC and to identify a pre-diagnosis window of time when such trends diverge between cases and controls, we summarized the ratios of percent of cases to controls who had healthcare claims for the covariates of interest within 24 months prior to diagnosis. The 24-month history was divided into 3-month intervals (total of 8 quarter years). For the purpose of the main prediction model, we included claims within 15 months prior to PDAC diagnosis or index date to incorporate as many covariates that diverge between the cases and the controls, as well as to have sufficient lead time prior to pancreatic cancer diagnosis to identify potentially useful early detection signals.To describe covariate distributions of the case and control sample groups, we computed frequencies and percentages for categorical variables and medians and interquartile ranges for continuous variables. The primary outcome was the occurrence of PDAC. We compared covariate distributions between the case and control groups by Wilcoxon rank-sum statistics or chi-square statistics, as appropriate. To quantify associations between the covariates and the outcome, we constructed unconditional logistic regression models under adjustment for the matching variables: sex, age group, and year of diagnosis. Because we sampled some patients more than once, we accounted for repeated measurements on the same control across multiple years by robust variance estimates. Variables initially considered for inclusion in the multivariable model included race and influenza vaccine status and all of the covariates described above. Model selection was conducted by stepwise variable selection procedure based on Quasi-likelihood under the Independence model Criterion (QIC) statistic. [21, 22] The final multivariable model was chosen by the lowest QIC value, a statistical alternative to Akaike’s information criterion [23] but for correlated data. Age group, sex, year of diagnosis, race and influenza vaccine status were kept in the model regardless of statistical significance.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30149612/</t>
+  </si>
+  <si>
+    <t>Mean values, standard deviations, and group sizes were used to summarize the results for continuous variables. The differences between the successful and failed extubation groups at hospital discharge were examined using univariate analysis with a Student’s t test and a χ2 test. Significance was set at p &lt; 0.05. Predetermined variables, or those significantly associated with successful extubation in univariate analysis (p &lt; 0.05), were tested for interaction using multivariate logistic regression analysis. Odds ratios (ORs) and 95% confidence intervals (CIs) were calculated. SPSS 24.0 for Windows (SPSS, Inc., Chicago, IL, USA) was used for all statistical analyses Because the data distribution was unbalanced, accuracy was not a reliable measurement of predictor performance [23]. Instead, the weighted averaged recall (sensitivity), precision (positive predictive value [PPV]), and F1 scores (harmonic mean of sensitivity and precision) were used to measure ANN performance. The value of ideal recall, precision, and F1 scores = 1 [24]. All three scores were calculated for the test set and for all data The ANN performance was also measured using the area under the receiving operating characteristic (ROC) curve. The area under the ROC curve (AUC) of the neural network was compared against the AUC of variables that had significantly different outcomes. The AUC was also compared against the ideal value of 1 [25] To ensure that it is the ANN and not the individual variables that improve the prediction, the ROC of the ANN was compared with that of a composite score created from relevant variables. To create a composite score that was representative of individual variables, principal component analysis (PCA) was first performed on the significant variables. A composite score was then created by the results of the multivariate analysis. The variable weightings in the composite score were based on its correlation with the first principal component.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23774992/</t>
+  </si>
+  <si>
+    <t>We used logistic regression to estimate ORs and 95 % confidence intervals (CIs) for the associations with breast cancer risk for: the individual variables used in the calculation of the BCRAT score; the individual SNP genotypes; and the logarithms of the BCRAT risk score, SNP risk score and combined risk score. For each of the seven SNPs, we calculated risk-allele frequencies and p-values under Hardy–Weinberg equilibrium for both cases and controls. The performance of a risk prediction model is measured by its ability to accurately estimate population risk and individual risk. For populations, the calibration of a model is measured by comparing the overall numbers of observed and expected events [1, 18]. For individual risk, the discriminatory accuracy of a model (the balance between sensitivity and specificity) is measured by the AUC [1, 18], with an AUC of between 0.7 and 0.8 considered to be good discriminatory accuracy [1].For the BCRAT risk score, SNP risk score and combined risk score, we used the Hosmer–Lemeshow goodness-of-fit test to assess the calibration by comparing the observed and expected numbers of cases and controls within groups defined by deciles of risk. We used Pearson correlation to test the independence of the BCRAT risk score and the SNP risk score. To assess the discriminatory accuracy, we used receiver operating characteristic curves and calculated the AUC for the BCRAT risk score, the SNP risk score and the combined risk score. We used bootstrap resampling to calculate confidence intervals for the AUC and confidence intervals and p-values for differences in AUC.As in Mealiffe et al. [7], we used reclassification tables to quantify differences in classification of the BCRAT risk score and the combined risk score into groups defined as: low (&lt;1.5 %), intermediate (≥1.5 and &lt;2.0 %), and high (≥2.0 %). Net reclassification improvement (NRI) was calculated as the sum of: the proportion of cases moving to a higher risk category and the proportion of controls moving to a lower risk category minus the proportion of cases moving to a lower risk category and the proportion of controls moving to a higher risk category. To test the hypothesis that NRI = 0, we used an asymptotic Z test. Statistical analyses were performed overall (using all case–control data), and stratified by age group (35–39 years, 40–49 years and 50–59 years), based on age at diagnosis for cases and age at interview for controls. All statistical tests were two-sided and p-values &lt;0.05 were considered nominally statistically significant. All statistical analyses were conducted using Stata Release 12 [19].</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27817804/</t>
+  </si>
+  <si>
+    <t>Descriptive data are reported as frequencies or as mean ± standard deviation. Logistic regression was used to compare the area under the non-parametric receiver operating characteristic (ROC) curve for each questionnaire. This was done because four of the questionnaires generate a continuous score, and so the decision to classify a case depends on the threshold selected (the algorithmic approach of the Personal Level Screener only yields a binary classification). The ROC curve is based on estimating sensitivity and specificity at all possible thresholds. The area under this curve provides a convenient threshold-free measure of the predictive ability of the measure, and is monotonically related to the odds ratio (the association n parameter in logistic regression). An area of 0.50 indicates chance performance, with higher values reflecting better performance and 1.0 representing perfect prediction. ROC curves were compared using the method of DeLong and coworkers [33] as implemented in the LOGISTIC procedure of SAS version 9.4. Since the number of patients completing each questionnaire varied, each pairwise comparison was based on the available number of cases where both were completed. 222 patients completed 5 questionnaires, 127 completed 4, 24 completed 3 and 3 completed 2 questionnaires (Table 7). Classification metrics at the published thresholds for each questionnaire (including sensitivity, specificity, and positive and negative predictive values were also computed.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32719593/</t>
+  </si>
+  <si>
+    <t>Our statistical methods sought to predict both the cognitive load level and the performance on the task in the virtual environment, utilizing the aforementioned physiological and behavioral measurements. Performance-related variables were captured through the software, and included: number of digits recalled, number of misses, reaction time (time between the target appearing and being hit), and the target error (minimal distance between true target location and the vector pointing in the direction of the rifle). Binary classifiers were used to predict load level (numberofdigits = 3) or (numberofdigits = 6) as well as to predict other discrete performance variables. Classification was performed in a leave-one-subject-out fashion using version 0.21.2 of Scikit-learn's ensemble.RandomForestClassifier (Pedregosa et al., 2011). The random forest was run with 1,000 estimators and max depth of 4 for each tree. Scikit-learns' RobustScaler was estimated on each fold of the training data and applied to the test participant. Estimates were generated with all features and using a subset of features based on the modality (gait, speech, etc.).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22981409/</t>
+  </si>
+  <si>
+    <t>All statistical analysis was performed with SPSS for Windows version 18. Data were split randomly into a development data set (810, 70.0 per cent) and a validation data set (343, 30.0 per cent), which is standard statistical practice for developing and validating a logistic model. Univariate exploratory analysis was first performed on the development data set. The χ2 test was performed for categorical variables and standard statistical tests were used to calculate odds ratios and 95 per cent confidence intervals. Candidate variables with P &lt; 0.100 were entered into the multivariate model using a forward stepwise logistic regression analysis, to identify risk factors for perioperative mortality. Risk factors were retained for the final model if the P value was below 0.050. The relative contribution of each variable to the prediction of perioperative mortality was calculated. Discrimination is usually assessed by the area under the receiver operating characteristic curve (AUC), also known as C statistic. Calibration was assessed using the Hosmer–Lemeshow test, which examines how well the percentage of observed perioperative mortality matches the percentage of expected perioperative mortality over deciles of predicted risk. If the model calibrates well, there will not be a substantial deviation from the 45° line of perfect fit. Once the model was trained on the basis of the development data set, the validation data set was used to validate the model. The model validation applied the trained model from the development data set to estimate perioperative mortality probabilities for all patients in the validation data set. These expected probabilities were then compared with observed perioperative mortality status in the validation data set by computing the AUC (discrimination) to determine the predictive accuracy of the trained model has on the validation data set. If this AUC shows favourable predictive accuracy (&gt;0.70), then the model is considered validated. To compare the “in house” developed and validated risk predictor with other models, risk factors from to Glasgow Aneurysm Score (GAS), Modified Customised Probability Index (m-CPI), CPI, the VGNW and Medicare models were applied to all 1153 patients in our data set. The AUC was used to compare the discriminatory performance of the “in-house” risk calculator with that of the other models. GAS, m-CPI and CPI models were chosen to represent earlier risk predictor models that did not include EVAR in their development. The VGNW and Medicare models were selected as contemporary models that were developed from both elective open AAA and EVAR.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28073663/</t>
+  </si>
+  <si>
+    <t>Continuous variables were normally distributed by Kolmogorov–Smirnov test and shown as mean ± SD. Overall comparisons were performed with one-way ANOVA, and multiple comparisons between the two groups were derived from the LSD-t-test. Differences in categorical variables were determined by Chi-square analysis. Pearson linear regression analysis or multivariable linear regression analysis was conducted to evaluate the relationships between the index and apoM. Logistic regression analysis was used to evaluate independent risk factor of DN. An ROC curve analysis was used to determine the indicated values of apoM. A P &lt; 0.05 was considered statistically significant. Statistical analyses were performed using SPSS ver 16.0.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/31048129/</t>
+  </si>
+  <si>
+    <t>Our patch-based approach treated each patch as a training sample in training phase. In test phase each patient was regarded as a test case. Five consecutive slices that contained the largest size of lesions were chosen and for each slice five patches (four corners and middle region of the lesion) were sampled. The averaged score of the 25 patches was used as the final score. We separated our dataset into 10 folds where each fold had approximately the same ratio between the number of positive samples and the number of negative samples. The performance of each fold was evaluated separately and the final AUC was obtained by averaging the AUC of the 10 folds. We ran 10 fold cross-validation 5 times and pick the medium result. The bootstrapping strategy was used to calculate the confidence interval.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30685385/</t>
+  </si>
+  <si>
+    <t>All analyses were carried out using IBM SPSS Statistics 24 (IBM SPSS, Costa Mesa, CA, USA) and R version 3.5.0 (R Development Core Team, Vienna, Austria). Continuous variables are expressed as median and interquartile range (IQR). Unpaired data were compared using the Mann-Whitney U test for continuous variables, and with Fisher's exact test for categorical variables. Correlations were assessed using the Spearman r correlation coefficient. Stepwise forward and backward elimination logistic regression modelling was performed to identify independent predictors of the outcome of anti-TNF therapy. Final model selection was based on the most optimal second-order Akaike information criterion. Diagnostic performance was assessed with receiver operating characteristics (ROC) curve analysis. A relevant threshold value was chosen on the ROC curve, based on the performance of the Youden's J statistic and closest top-left method. A two-tailed p-value &lt;.05 was considered significant.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28237080/</t>
+  </si>
+  <si>
+    <t>The reliability of the various CT measurements was assessed using interclass correlation coefficients (ICC). The ICC was calculated for interobserver reliability and intraobserver reliability by 3 different orthopaedic surgeons (T-K.A., S-M.C., J-Y.K.). To compare each method of CT measurements and decide the cutoff value for the diagnosis of the syndesmosis diastasis, a t -test and analysis of receiver operating characteristic (ROC) curves were conducted. Student's t -test was performed to compare the CT parameters of 24 patients with arthroscopic diastasis with 54 patients without arthroscopic diastasis. An ROC curve plots the true-positive rate (sensitivity) against the false-positive rate (1 − specificity) for each possible cutoff score. The area under the ROC curve (AUC) can be interpreted as the probability of detecting the syndesmosis diastasis using the axial CT scan images among the patients with anterolateral ankle pain. The AUC can range from 0 to 1.0, where 0.5 indicates that the model has no diagnostic accuracy, and 1.0 signifies a perfect diagnostic accuracy. All data in this study were analyzed using SPSS (Version 15; SPSS, Chicago, IL).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/23336958/</t>
+  </si>
+  <si>
+    <t>Continuous variables are the mean ± SD; categorical variables are shown as percentages. The unpaired Student's t-test and x2 analyses were used to compare continuous and categorical variables, respectively. The 95% confidence interval (CI) was determined on the basis of the normal distribution of variables. Specificity was defined as the number of true-negative tests divided by the total number of patients without myocardial scarring. Receiver operating characteristic (ROC) curves were used to assess the relationship between the fQRS and the Q wave in the assessment of myocardial scarring. Areas under the ROC curves were compared using a medical statistics software package (MedCalc ver11.0; MedCalc Software, Mariakerke, Belgium). p &lt; 0.05 was deemed significant. All analyses were undertaken using SPSS ver18 (SPSS, Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30334182/</t>
+  </si>
+  <si>
+    <t>We determined the sensitivity, specificity, and AUC of the FRAX and Garvan models (without BMD information) in discriminating between participants who did and did not experience a hip fracture during (1) a 5-year time horizon for Garvan and (2) a 10-year time horizon for both FRAX and Garvan. AUCs plot the true positive rate (sensitivity) as a function of the false positive rate (100 minus specificity); they indicate how well a risk score can distinguish between diseased and non-diseased persons. AUC values range from 0.50 to 1.0; higher values indicate better discrimination. An AUC value of 0.50 indicates that the risk assessment tool is no better than chance in distinguishing between women who do and do not experience fracture during 10-year follow-up. AUC values were generated using logistic regression. We calculated the risk score thresholds that would correspond to sensitivities of ≥ 80% for detection of (observed) incident hip fracture over 10 years, with associated specificities, positive predictive value (PPV), and AUC values. For each risk score, Youden’s J statistic was calculated to identify the cut-point to maximize AUC values for identification of hip fracture (AUC(c)). We identified within age strata the Garvan and FRAX risk thresholds corresponding to AUC(c) values for identifying hip fracture.Because the FRAX and Garvan tools both provide an estimate of hip fracture probability, our primary analysis focused on prediction of hip fracture risk. In secondary analyses, we assessed discrimination for predicting the 10-year risk of MOF and 10-year risk of any clinical fracture. Because the Garvan risk tool does not provide an estimate of any clinical fracture or MOF, we used the Garvan-predicted probability of “any fragility fracture” when we assessed the discrimination of the Garvan risk tool for prediction of any observed clinical fracture or MOF. Because the FRAX risk tool does not provide an estimate of any clinical fracture, we used the FRAX-predicted probability of MOF when we assessed the discrimination of the FRAX risk tool for prediction of any clinical fracture. In additional secondary analyses designated a priori, we stratified our results according to the use of hormone therapy at baseline (yes vs. no) and race/ethnicity (white, African American, Hispanic, other). In sensitivity analyses, we excluded data from participants who initiated osteoporosis medications any time during follow-up: bisphosphonates, calcitonin, parathyroid hormone, selective estrogen receptor modulators, luteinizing hormone-releasing hormone agents, and somatostatin agents. Finally, we repeated the main analyses after excluding participants (n = 29,866) who used estrogen therapy any time during study follow-up. To assess calibration, we compared observed vs. predicted 10-year probability of hip fracture stratified by age category.Analyses were completed with SAS for Windows Version 9.4.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28213792/</t>
+  </si>
+  <si>
+    <t>Categorical variables were compared using the chi-square test. Non-normally distributed data were analyzed using the Mann–Whitney U test. Survival was estimated using Kaplan–Meier survival curves and compared using the log-rank test. A concordance index (c-index) was calculated to evaluate the discriminatory power of each staging system.9 A value of 0.5 indicates that chance alone is as predictive as the staging system, whereas a level of 1.0 signifies perfect concordance. A Cox proportional hazards model was used, with stage coded as indicator variables to obtain hazard ratios (HR), and the c-index was calculated from this Cox model.10 Cox proportional hazards modeling was used to assess the relative impacts of T and N classifications on survival. A separate model adjusting for potential confounding variables including sex, age, and race also was assessed. A p value lower than 0.05 was considered to be statistically significant. Data were analyzed using SPSS v22.0 (SPSS Inc, Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32389671/</t>
+  </si>
+  <si>
+    <t>Mentions both c-index and AUC. 0.58 is c-index</t>
+  </si>
+  <si>
+    <t>The primary endpoint in the present study was the TTFT, defined as the interval from the date of the initial diagnosis to the date of the first treatment or last follow-up examination, in months. The probabilities of the TTFT were estimated using the Kaplan-Meier method and assessed using the log-rank test. Cox regression was used for univariate and multivariate analyses of the effect of the variables on the TTFT. These data are expressed as the hazard ratio (HR) with the 95% confidence intervals. Harrell’s concordance index (C-index) and receiver operating characteristic (ROC) analysis were used to assess the discriminatory power of the prognostic models. For the C-index, a value of ≥ 0.7 was considered statistically significant. Descriptive statistics (median for continuous variables and frequency for categorical variables) were used to summarize the patient characteristics. The value of P &lt; .05 was considered statistically significant for all analyses. Statistical analysis was performed using SPSS, version 21.0, software (IBM Corp, Armonk, NY) and R, version 3.2.2 (R Foundation for Statistical Computing, Vienna, Austria).</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32919087/</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using SPSS Version 25 and Graph Pad Prism software. Continuous variables were expressed as mean ± standard deviation (SD). Qualitative data were presented as numbers with percentages. Normally distributed continuous variables were compared with a paired t-test. Fisher’s exact test and the Chi-square test were used with Yates' correction test for qualitative data. Overall diagnostic accuracy was evaluated by determining the area under the ROC curve (AUROC). The effect of the fibrosis stage distribution on test performances was explored by calculating the DANA (Difference between advanced and non‐advanced fibrosis) [3,16]. Diagnostic performances were determined by sensitivity, specificity, positive predictive value (PPV) and negative predictive value (NPV). Two-tailed P values &lt; 0.05 were considered statistically significant. ROC curves were compared according to Hanley and McNeil’s method and the performances of the three scores were compared using the McNemar test [17].</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27550775/</t>
+  </si>
+  <si>
+    <t>Data were tabulated, and statistical analysis was performed using SPSS version 20 (IBM Corp., Armonk, NY). Continuous variables were depicted as mean with standard deviation (SD), and categoric variables as median and interquartile range (IQR). Student's t-test (two tailed, independent) was used for metric parameters on continuous scale between two groups. Chi-square and Fisher's exact test were used to compare parameters on categoric scale between two or more groups. Binomial logistic regression analysis was used to identify independent predictors for postoperative SFR and complications. Linear regression analysis was used to identify the predictors of OT and LOH. A p-value of &lt;0.05 was considered statistically significant. The CNN was divided in quartiles for categorization in risk groups. The area under curve (AUC) calculated by receiver operating characteristic (ROC) curve analysis was used to predict the SFR and complications for GSS, CNN, and SB.</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27771361/</t>
+  </si>
+  <si>
+    <t>We analyzed data collected from 56 out of 60 patients (mean age, 29.0±11.7y; 65% men) referred by their general practitioners to the outpatient clinic of the Department of Geriatrics, Neurosciences and Orthopedics, Teaching Hospital “Agostino Gemelli” (Rome, Italy) because of knee pain as a result of suspected traumatic meniscal lesion. Details on patient selection and evaluation are provided elsewhere.3 Four cases were excluded from the analysis because of inconclusive arthroscopic findings (n=3) or judged uncertain at the physical examination (n=1). Data consisted of the tests' outcomes obtained by the best performer among 3 examiners of graded experience. The diagnostic performance was assessed using a first cohort of 30 patients, and the most accurate examiner was selected for evaluating the remaining 30 patients. The presence of meniscal tears was ascertained in all patients through knee arthroscopy. The study protocol was approved by the university's ethics committee. Among other diagnostic parameters, sensitivity and specificity were determined by analyzing the tests' outcomes recorded by the best examiner in a binary way (positive or negative for torn meniscus) (table 1). The approach developed by Fauci and Raso,4 which might be called the hyperbola method, is based on the approximation of the ROC curve to a hyperbola curve. The method allows for deriving the ROC curve according to the following equation. where P is the sensitivity (on the y-axis of the Cartesian plane), S is the specificity (with 1−S; ie, false-positive fraction on the x-axis of the Cartesian plane), and k0 is a parameter derived by entering the experimental values of sensitivity (P0) and specificity (S0) into the following equation. The area under the curve (AUC) (AZ) is then calculated as follows. The method also provides another equation for determining the variance of the AUC and its SE.</t>
+  </si>
+  <si>
+    <t>Quantitative data are represented as mean ± standard deviation (SD) and categorical data as number (n) and percentage. The demographic and clinical characteristics between the cancer and noncancer groups were compared using the independent sample t-test and Mann–Whitney test for continuous normally distributed and skewed variables, respectively. The area under the receiver operating characteristic curve (AUC) was calculated for the various PSA derivatives using SigmaPlot version 12.5 (Systat Software Inc, USA). All statistical analyses were carried out using SPSS version 22 (IBM Corp, Armonk, NY, USA), assuming a two-sided test with a 5% level of significance.</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed with SPSS version 22 (IBM, Armonk, NY, USA) and JMP Pro 11 (SAS Institute, Cary, NC, USA). Continuous variables are expressed as the mean ± standard deviation. Categorical variables are expressed as percentages.
+Data were analyzed on a per-patient basis for clinical characteristics and conventional TTE data, and on a per-stenosis basis for all other parameters.
+Continuous variables were compared using the paired or unpaired Student's t-test. Categorical variables are presented as n values (%) and were compared with the chi-squared test. Multivariate logistic regression models were used to detect LV segments with an FFR value ≤ 0.80 using PSI or the time interval between AVC and regional PLS as an independent variable, while considering age, gender, hypertension, diabetes mellitus, hyperlipidemia, smoking, and family history of coronary artery disease as independent variables. The Pearson product–moment coefficient was used to quantify the correlation of PSI, and the time interval between AVC and regional PLS, against FFR values. Receiver operating characteristic (ROC) curves were used to examine the PSI or the time interval between AVC and regional PLS as a predictor of the functional significance of a lesion (FFR ≤ 0.80), resulting in estimation of the area under the curve (AUC); identification of optimal cut-off values to predict the FFR cut-off value of 0.80; and corresponding sensitivity, specificity, and diagnostic accuracy metrics. The best cut-off value was determined by the highest sum of sensitivity and specificity. A P-value of &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Relevant data were integrated into standardized tables. For data analysis, SPSS (version 25, IBM Statistics, Armonk, NY, USA) and Prism (version 8, GraphPad, San Diego, CA, USA) were employed. For statistical analysis, the student’s t-test and Fisher’s exact test were used when appropriate, and a p value of &lt;0.05 was considered statistically significant. The area under the receiver operating curve was calculated using Prism (version 8, GraphPad), and the Youden Index (Youden’s J) was calculated using the formula “(sensitivity + specificity)-100” and the highest value was taken as the Youden Index. Data are given as n (%), the median (range) or the number of patients (percentage of group) if not stated otherwise. Outcomes reported were not adjusted for clinical scores or risk factors for pneumonia.</t>
+  </si>
+  <si>
+    <t>Curve parameters (wash-in and wash-out rates of malignant or benign areas) were compared using one-way analyses of variance in peripheral and transition zones. Accuracy comparisons were performed using ROCKIT software (version 1.1-Beta 2, CE Metz, University of Chicago) [20] to calculate the area under the curve (AUC Az) and conduct a statistical comparison of the receiver operating characteristic (ROC) curves. The ROC curves of the three cancer identification methods were estimated separately for all foci and for the peripheral and transition zones using maximum likelihood and assuming bivariate binormal data. ROC curves for the CAD were calculated using the 10-point scaled scores. For visual display, the ROC curves obtained from the pooled data were plotted using Microsoft Excel (version 2003, Microsoft Corporation, Seattle, USA). Generalized estimating equation models were used to calculate the corresponding 95% confidence intervals and to test for differences between methods. P values of less than 0.05 were deemed to indicate statistically significant differences.</t>
+  </si>
+  <si>
+    <t>Data are presented as absolute numbers and percentages for categorical variables and mean values and standard deviations for continuous variables. Dichotomous variables were compared using Fisher exact test and continuous variables by t tests. Correlations between scores are described by Spearman correlation coefficient r. A correlation coefficient of 0.5 to 1.0 suggests a strong positive correlation between two variables, whereas coefficients between 0.3 to 0.5 and 0.1 to 0.3 indicate medium and small correlation. The discriminatory power of the risk stratification systems was evaluated using a c-statistic, the area under the receiver-operating characteristic curve (ROC curve), with 95% confidence interval (CI). A c-statistic of 0.5 indicates no predictive ability, whereas a c-statistic of 1.0 would signify perfect discrimination. If area under the curve (AUC) reaches 0.7, the test is considered to be of acceptable predictive ability. We calculated the Youden index (maximum of sensitivity and specificity) to estimate an associated threshold to classify scores as positive/negative. Accuracy of the respective scores was defined as the sum of correct positive and correct negative predictions. Hosmer–Lemeshow goodness-of-fit test was applied to assess calibration of the respective tests, whereas a high p value and a low statistic indicate a well-calibrated test, demonstrating that model prediction is not significantly different from observed values. All statistical analysis was performed using SPSS (Armonk, New York, United States) 19.0 or the statistical package R version 2.12.2.</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were used to characterize the sample. Pearson correlations determined the relationship between the baseline continuous scores of the Ryff, GDS, age, and frailty.
+Receiver-operating characteristic curves were used to test the discriminative ability of the continuous Ryff scale and GDS in relation to frailty, disability, and mortality by evaluating the area under the curve (AUC). To determine whether the Ryff scale or GDS was associated with frailty, we used two logistic regression models adjusted for age, sex, and baseline frailty (dichotomized for the purpose of this analysis). To determine whether the Ryff scale or GDS were associated with functional disability (BADL or IADL), we used two logistic regression models adjusted for age, sex, and baseline disability. To determine whether the Ryff scale or GDS were associated with mortality, we used two Cox regression models adjusted for age and sex. Finally, we included the Ryff scale and the GDS in the same model to determine whether they were independently predictive of each of the outcomes: mortality (adjusted for age and sex), BADL and IADL disability (adjusted for baseline disability, age, sex), and frailty (adjusted for baseline frailty, age, sex). Survival was examined across levels of the GDS, (adjusting for age, sex, and Ryff scale) and Ryff scale (adjusting for age, sex, and GDS) using Kaplan Meyer curves.
+Mediation models were tested using PROCESS analysis (Hayes, 2012; Preacher and Hayes, 2008) for spss (IBM Corp Armonk, NY, USA) to examine the direct and indirect effects of depression and well-being while covarying for other pertinent factors. Estimates for indirect effects were calculated using ordinary least squares regression, and bias-corrected confidence intervals were obtained using 1000 bootstraps samples. Analyses were conducted separately for each outcome. Independent and mediation variables (psychological well-being and depression, respectively) were coded in quintiles, consistent with previous regression analyses. Outcome variables were dichotomously coded to facilitate interpretation of risk. All analyses were conducted using spss (version 15.0, SPSS Inc.). All reported confidence intervals are within 95% and statistical significance level was set at a P value of 0.05.</t>
+  </si>
+  <si>
+    <t>Continuous variables are expressed as the mean ± standard deviation (SD) or median with interquartile range, and were compared with a Student t test or Mann–Whitney U test. Nominal variables are expressed as the number (percentage) and compared using a chi-squared test. The performance of several prognostic models was measured by the C-index (R version 3.1.2; The R Foundation for Statistical Computing) and the C-index was compared using a t test. The receiver operating characteristic curve (ROC) was calculated and compared by a Z test (MedCalc Software, Belgium). In addition, the sensitivity, specificity, positive predictive value, and negative predictive value at an optimal cut-off point of the model score was compared among different scoring models.</t>
+  </si>
+  <si>
+    <t>The two-sample t-test was used to compare the means of age and the image-based phenotypes of breast PD, coarseness, and contrast between the high-risk and low-risk groups. All tests of statistical significance were two-tailed. Pearson correlation coefficients were calculated to assess the relationship between various texture features and breast PD. The analyses were performed using MATLAB software (The MathWorks, Inc., Natick, Massachusetts).
+ROC analysis21,22,32 was used to determine the performance of each image-based phenotype in the task of distinguishing between high-risk subjects and the low-risk control group. The area under the fitted ROC curve (AUC value) was used as a figure of merit to assess the potential usefulness of the phenotypes in assessing breast cancer risk. Statistical Z tests were performed to assess the statistical significance of the difference between the AUC value of each phenotype and an AUC of 0.5 (equivalent to random guessing). The level of statistical significance for the difference of two AUC values was calculated using the ROCKIT computer program.32 In order to correct for multiple test of comparisons, the Holm t-test was applied.33,34 The required level to claim significance was determined after taking into account the situation of multiple tests of comparison and used as the statistical cutoff for calculated p-values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this study, risk prediction models for PsA were developed using seven supervised ML algorithms:29,30,31 Logistic Regression (LR), AdaBoost, XGBOOST, Random Forest (RF), K-nearest neighbor classifier (KNNC), Decision Tree (DT) and Gaussian naive bayes (NB)29. For each feature subset the response measurement is PsA (class=1) and PsC (class=0). The original set of examples provides the training data and the learning algorithm has been trained and validated using stratified nested cross-validation. Many of the machine learning algorithms employed have one or more hyper-parameters that must be selected to optimise model performance. The most optimal hyperparameter for each ML model have been obtained using 5-2 fold nested cross validation stage.The purpose of our nested cross-validation was to find an unbiased view of the overall expected performance of each model, so the hyperparameter tuning process in this step only help to find the most accurate version of each algorithm in each nested-cross validation fold. The aim in this stage is only to evaluate and compare the learning power of each algorithm using different folds of data and removing any bias in the process. Thus, to achieve the optimal hyperparameters for each ML model we re-trained and performed a hyperparameter tuning for all the algorithms using the entire training data set. These hyperparameters are then used to evaluate the performance of each model on the test dataset. Ultimately, fully independent external validation with data available at the time of PsA prediction development is important. Here we use data from UK Biobank for external validation to test the generalisability of seven developed ML classifiers on PsA data. The assessment is for reproducibility rather than transportability as the external data is very similar to the PsA-MD data set32. Figure 4 presents our pipeline for internal model development and external validation. 80% of data was randomly used for training of ML classifiers using 5-2-fold stratified nested cross validation and 20% was selected randomly as a holdout set for internal validation. There are 448 different models with post mitigation trained using a combination of ‘number of features (1,10,...70)’, ‘7 feature selection methods’, ‘7 ML Model type’. We used the whole data and the optimal hyperparameter to test the best generated models in the UK Biobank dataset. Therefore, for each ML models 448(all models)/7(MLmodels)= 64 different combinations have been generated and the models with the maximal average AUC in nested cross validation is selected as the best model and tested for the external validation. All machine learning analyses were performed in Python (using the numpy, pandas, sklearn, matplotlib, and XGBOOST packages), which provides a user-friendly interface to access many machine-learning algorithms in Python. We used AUC, precision recall curve, precision (positive predictive value (PPV)), recall (true positive rate or sensitivity) and F1 score to evaluate the performance of the ML classifiers.
+</t>
+  </si>
+  <si>
+    <t>Full text not available</t>
+  </si>
+  <si>
+    <t>All numeric variables were expressed as mean±SD or median (interquartile range [IQR]). Fisher exact test, Mann-Whitney U test, and Kruskal-Wallis tests were used to explore the relationship between baseline categorical variables and recurrent stroke status as of day 7. We quantified the predictive validity of RRE and ABCD2 scores by computing the receiver-operating characteristic curve and calculated the area under the curve (AUC). We compared the AUC for different scores using the z-test.13 Statistical analyses were performed using SPSS 16.0.</t>
+  </si>
+  <si>
+    <t>All eligible patients were randomized into a training cohort and a validation cohort with a ratio of 2:1. The distribution differences of categorical variables were examined with the Fisher’s exact test. Kaplan–Meier method was applied for survival analyses, which were compared by log-rank test (two-sided). Then those factors with a P value &lt; 0.1 in the univariate analysis were incorporated into the Cox proportional hazards model to perform multivariate analysis for OS. A receiver operating characteristics (ROC) curve was produced for the integrated GTV-TNM stratification system, GTV risk group and TNM stage, and the area under ROC curve (AUC) was applied to assess the prognostic validity of these three different systems. Furthermore, bootstrap method was used to validate the predictions, which was done by randomly choosing 20% of the whole cohort for validation, and repeating 100 times to obtain a distribution of the prediction performance. For performance grading, F1 scores were calculated using Eq. 1–3 below where TP is the true positive rate, FP is the false positive rate and FN is the false negative rate. Statistical analyses were performed using SPSS 24.0 software (IBM, Chicago, IL, USA) and MATLAB® 2017 (MathWorks Inc., Massachusetts, USA), and the P value &lt; 0.05 (two-sided) was considered as significant difference.</t>
+  </si>
+  <si>
+    <t>Continuous variables are summarized as mean values ± SD and categorical data as a percent of the group total. The association of natural log LAVi with clinical and echocardiographic variables was examined in stages using linear regression. The log transformation of LAVi was used to satisfy the assumptions necessary for the modeling. The first model consisted of just age and gender followed incrementally by the addition of CV disease, EF, and finally DD. This modeling approach was used to understand the added value of each variable relative to previous information and is summarized as a change in the model R2(percent of explained variance). The effect of each variable on LAVi was summarized as a mean percent change in raw LAVi relative to a one standard deviation change in the predictor. Receiver-operator characteristic curve analysis was used to evaluate the predictive accuracy of LAVi for the detection of various groupings of DD grade and is summarized by the area under the curve. We also reported the sensitivity and specificity of the LAVi at the “optimal point” on the receiver-operator characteristic curve as the point nearest the corner of the receiver-operator characteristic curve where sensitivity and specificity would be 100%. The value of LAVi at that point (the partition LAVi) is also reported (Table 1).Kaplan-Meier curves were used to evaluate the bivariate association of DD grade and quartile grouping of LAVi with all-cause mortality. The association of LAVi with all-cause mortality while adjusting for age, gender, EF, and DD grade was done using Cox proportional hazards regression.</t>
+  </si>
+  <si>
+    <t>Statistical analyses were performed using IBM SPSS Statistics version 25.0 (IBM Corp, Armonk, NY), GraphPad Prism version 5.04 (GraphPad Software Inc., San Diego, CA) and Analyse-it for Microsoft Excel version 4.65.3 (Analyse-it Software Ltd., Leeds, UK). Categorical variables are presented as numbers (percentages) and compared between groups using the chi-square test. Continuous variables are presented as mean ± standard deviation or medians with 25th and 75th percentiles and compared between groups using the student's t-test or Mann-Whitney U test as appropriate. To evaluate the association of cIMT, ABI, hs-cTnT, and NT-proBNP with mortality during follow-up, Kaplan-Meier curves of cIMT, ABI, hs-cTnT, and NT-proBNP above and below the median were plotted. Survival curves of two groups were compared for significance using log-rank test. Hazard ratios (HRs) and 95% confidence intervals (Cis) for mortality were calculated using univariate and multivariate Cox proportional hazard regression analysis models. In multivariate analyses, the associations were adjusted for age and gender (model 2) and age, gender, prior cerebral artery disease, and diabetes mellitus (model 3). A P value &lt;.05 was considered to indicate statistical significance. Receiver operating characteristic (ROC) curve analysis was performed to assess the predictive capacity of cIMT, ABI, hs-cTnT, and NT-proBNP for mortality in PAD patients. The area under the ROC curve (AUC) as well as the 95% CIs was computed and the optimal thresholds with maximum combination of sensitivity and specificity in predicting mortality determined.</t>
+  </si>
+  <si>
+    <t>Continuous variables were given as mean±SD and categorical variables as percentage in each subgroup. Student t test and the χ2 test were used to compare continuous and categorical differences, respectively. Prevalence of ischemic stroke by quartiles of PP and MAP was calculated and tested by P trend χ2 test. PP and MAP were separately tested in a logistic regression model with the 2 variables on a continuous scale with results expressed as an OR for ischemic stroke as a function of 1-SD increase on the continuous scale. PP and MAP were also both divided into quartiles (MAP: &lt;108 mm Hg, 108 to 117 mm Hg, 118 to 127 mm Hg, and &gt;127 mm Hg, respectively; PP: &lt;51 mm Hg, 51 to 65 mm Hg, 66 to 80 mm Hg, and &gt;80 mm Hg, respectively) and the lowest quartiles chosen as reference in a logistic regression model. Another logistic regression model included PP and MAP simultaneously to assess relationships with adjustment for each other. Logistic regression models were adjusted for age and gender or multivariable for age, gender, body mass index, pulse rate, smoking, drinking alcohol, serum glucose, total cholesterol, LDL-C, HDL-C, triglycerides, and antihypertensive medication. Diagnostic accuracy of PP and MAP on a continuous scale in the prediction of ischemic stroke was estimated as the area under the curve (AUC) from receiver operating characteristic curves. The diagnostic accuracies were determined to evaluate the ability of the 2 parameters to correctly discriminate between individuals with and without ischemic stroke. Equality of the AUC on the receiver operating curves was tested using the algorithm suggested by Delong et al.11 All analyses were performed with SPSS statistical software version 12.0. A probability value less than 0.05 was accepted as indicating statistical significance.</t>
+  </si>
+  <si>
+    <t>Patient characteristics, respiratory, hemodynamic parameters and collapsibility of veins of responders and non-responders before passive leg raising were compared using the Mann-Whitney U test. ROC curves of collapsibility of central veins were generated for predicting positive passive leg raising maneuver. Statistical analysis was performed with EZR version 1.30 [9].</t>
+  </si>
+  <si>
+    <t>The Pearson correlation was used to characterize the association of G4% with mean ADC and ADC entropy. Mixed-model analysis of variance (ANOVA) was used to assess the significance of these correlations and to test whether mean ADC and ADC entropy were independent predictors of G4%. Mixed-model ANOVA was also used to compare Gleason 3+4 and Gleason 4+3 tumors in terms of mean ADC and ADC entropy. Area under the receiver operating characteristic (ROC) curve (AUC) was used to describe the utility of mean ADC and ADC entropy for the detection of those Gleason 7 tumors exhibiting Gleason 4+3 pattern. Logistic regression for correlated data was used to test the utility of mean ADC and ADC entropy, alone and in combination, as predictors of Gleason 4+3 tumors within the cohort. Specifically, generalized estimating equations (GEE) in the context of binary logistic regression was used to model the binary indicator of whether or not a tumor was a Gleason 4+3 lesion as a function of mean ADC and ADC entropy. In the mixed-model and GEE analyses, statistical dependencies among results acquired from multiple tumors within the same patient were accounted for by assuming results to be symmetrically correlated when acquired from the same patient and to be independent when acquired from different patients. All statistical tests were conducted at the two-sided 5% significance level using SAS 9.3 (SAS Institute, Cary, NC).</t>
+  </si>
+  <si>
+    <t>Descriptive statistics are shown for all variables used in this study (Table 1). Continuous variables are reported as mean (SE), categorical variables as percentages. The severity of sleep apnea according to the ODI was defined as follows: no sleep apnea = ODI less than 5; mild sleep apnea = ODI 5 or greater and less than 15; moderate = ODI 15 or greater and less than 30; and severe = ODI 30 or greater. The prevalence of sleep apnea according to severity was calculated. The AUC-ROC was calculated to assess the discriminating ability of different STOP-Bang scores for sleep apnea. ROC curves were used to identify the best STOP-Bang discriminating score in terms of sensitivity and specificity for predicting sleep apnea. The STOP-Bang diagnostic performance for mild and moderate/severe sleep apnea, at both the conventional cut-off value of 3 or greater and at the best discriminating value, was assessed by using multiple 2 × 2 contingency tables and expressed as sensitivity, specificity, PPV, and NPV. A parametric accelerated failure time model (Weibull regression) was used to analyze LoS as a continuous response to preselected predictor variables. Postoperative complications were dichotomized (yes/no) and analyzed with a binary logistic regression model by using the same predictors used to analyze LoS. For all regressions, parsimonious models were obtained with a combination of step-wise and manually removed predictors and interactions that did not reach the 5% significance level.</t>
+  </si>
+  <si>
+    <t>Data analysis and logistic regression. Descriptive statistics for patient variables were calculated using mean (standard deviation [SD]), median (interquartile range [IQR]), or frequency count (percentage), as appropriate, with Clopper-Pearson binominal 95% confidence intervals (CIs) for proportions. We compared CRO colonization at admission among MICU patients and SOT unit patients using the Fisher exact test. The relationship between each covariate and the study outcomes was evaluated using univariable logistic regression with general estimating equations and robust standard errors to account for patient clustering due to repeat unit admissions. Descriptive and logistic regression analyses were performed in Stata version 13.0 software (StataCorp, College Station, TX).
+Machine learning-derived prediction models and validation. Using all collected variables (n = 134), we developed prediction models for the outcomes of CRO, CRE, and CPO colonization at unit admission. We built decision trees applying the classification and regression tree (CART) algorithmReference Breiman, Friedman, Stone and Olshen21 using the rpart (recursive partitioning and regression trees) package, version 4.1–13. To fit our trees, we employed the Gini impurity criterion for splitting rules.Reference Duda, Hart and Stork22 Ensemble-based decision tree learning methods were utilized in sensitivity analyses (see Supplemental Material online). All machine learning models were developed using the R statistical package version 3.0.5 (R Foundation for Statistical Computing, Vienna, Austria). CART decision trees were internally evaluated using leave-one-out cross-validation.Reference Duda, Hart and Stork22 The discrimination of all models, both original (in sample) and cross-validated (out of sample), were assessed through the generation of receiver operating characteristic (ROC) curves and the calculation of C statistics in R software.</t>
+  </si>
+  <si>
+    <t>Patient characteristics were compared between groups using chi-square tests for categorical measures and Student’s t-test or Wilcoxon rank sum test for continuous measures. Distributions of cTnI concentrations were described with medians and interquartile ranges (IQRs) and compared between the MI groups using the Wilcoxon rank sum test. Diagnostic performances of individual cTnI concentrations assessed at a specific time (0h, 3h, 6h) and for absolute and relative changes in cTnI over time (0 to 3h and 0 to 6h) were evaluated. Absolute concentration change in cTnI from time x to time y (ng/l) with y &gt; x was computed as the absolute value of (cTnItime y – cTnItime x), and relative concentration change (%) from time x to time y with y &gt; x was computed as 100 times the absolute value of [(cTnItime y – cTnItime x) /cTnItime x]. Cutpoints for absolute and relative concentration changes in cTnI were chosen to optimize either sensitivity (≥ 90%) or specificity (≥ 90%) as noted. Area under receiver operating characteristic (ROC) curve, sensitivity, specificity, and positive and negative likelihood ratios with 95% confidence intervals (CIs) were computed for individual cTnI concentrations and absolute and relative changes. A comparison was made of 180-day mortality between MI groups in patients alive at index hospitalization discharge using a Kaplan–Meier curve (log rank test). A multivariable Cox Proportional Hazards model, adjusted for age,8,18 and histories of heart failure8,18 and renal insufficiency,18 was used to determine the independent contribution of MI group to risk of mortality. Exposure was calculated as time from date of presentation for index MI hospitalization until date of death, last contact if not deceased, or 180 days, whichever was first. The specific groups of interest were no index MI with all of cTnIs within 0–6h of presentation ≤ URL (34 ng/l), no index MI with at least one cTnI within 0–6h of presentation &gt; URL, type 1 MI, and type 2 MI. All tests were two-sided, and statistical significance was accepted at the 0.05 level with no adjustment made for multiple comparisons. Analyses were performed with SPSS version 20 and MedCalc version 12.7.0.</t>
+  </si>
+  <si>
+    <t>The sample size justification was reported previously and was based on having at least 10 events (i.e. deaths) for each prognostic variable in a multivariable Cox Proportional Hazards regression model [14]. All patients with PaP score were included in this study. We summarised the baseline demographics using descriptive statistics, including means, medians, proportions, standard deviations (SDs), interquartile ranges (IQRs), and 95% confidence intervals (95% CIs). We conducted analyses to examine the accuracy of the following four prognostic approaches:
+(1) Raw-CPS = CPS in days obtained from clinicians before transformation to PaP score units;
+(2) PaP-CPS = CPS that has been transformed into PaP score units, range 0–8.5 points;
+(3) PaP-without CPS = the combined score of the five clinical and laboratory variables in the PaP score, which is equivalent to the PaP-total score minus PaP-CPS, range 0–9 points; and 
+(4) PaP-total score = PaP-CPS + PaP-without CPS, range 0–17.5 points For each prognostic approach, we assessed discrimination ability using the following metrics: the C-index, the area under the receiver-operating characteristics curve (AUC), net reclassification index (NRI) and integrated discrimination improvement (IDI). Discrimination reflects how well a prognostic tool differentiates between patients who died and remained alive by a specific time frame. With the exception of C-index, we conducted the analyses for 30-day survival (alive, dead) and 100-day survival (alive, dead). The 30-day survival was chosen as a cutoff because it has practical implications for assessing the quality of end-of-life care and has been used in other studies examining the accuracy of PaP score [15]. The 100-day survival approximates the median overall survival for this patient cohort, and many palliative procedures are contraindicated if a patient's life expectancy is less than this time frame. The C-index is a measure of predictive discrimination, defined as the proportion of patient pairs in which the predicted and observed survival outcomes are concordant [16]. We employed the bootstrap validation method to estimate the bias-corrected or over fitting-corrected predictive accuracy of the model. C-index ranges from 0.5 to 1, indicating no discrimination and a perfect discrimination ability to predict survival time, respectively. Receiver-operating characteristic (ROC) curve examines the performance of a binary outcome (e.g. alive or dead at 30 d) with various discrimination thresholds by plotting sensitivity (y-axis) against 1-specificity (x-axis). In contrast to the C-index which examines a continuous outcome, AUC quantifies the overall performance for discriminating a binary outcome. The AUC ranges between 0.5 and 1, with a higher value suggesting better discrimination. Because C-index and AUC are not always sensitive to the addition of a novel prognostic marker to an existing model, we conducted reclassification statistical analyses with NRI and IDI [17], [18]. Specifically, we examined if the addition of PaP-without CPS to PaP-CPS improved its accuracy, and also whether the addition of PaP-CPS to PaP-without CPS improved its accuracy. NRI is calculated based on two components, event and non-event group. For the event group, we assign +1 if an individual is reclassified into a higher risk category in a new model compared to an existing model, −1 if an individual is reclassified into a lower risk category, and 0 if the risk category does not change. For the non-event group, we assign +1 if an individual is reclassified into lower risk category in a new model compared to an existing model, −1 if an individual is reclassified into higher risk category and 0 if the risk category does not change. Individual scores are summed separately for event and non-event group, referred to as score(event) and score(non-event). NRI is calculated as follows: score(event)/(total number of events) + score(non-event)/(total number of non-events). IDI is computed based on integrated sensitivity and specificity which can be defined as a difference in discrimination slope between two models, an existing model and a new model [19]. Discrimination slope is calculated by subtracting an average predicted probability of non-event from an average predicted probability of event. Statistical analyses are carried out in Statistical Analysis System (SAS version 9.2, SAS Institute, Cary, North Carolina) and R version 3.1.3. A P-value of &lt;0.05 is considered statistically significant.</t>
+  </si>
+  <si>
+    <t>The SPSS version 16.0 statistical software package (SPSS Inc., Chicago, IL, USA) and MedCalc 12.7 software (MedCalc Software, Ostend, Belgium) were used to analyze the data, and the measured data are expressed as mean ± standard deviation. Grade and classification data are expressed as a frequency distribution. Count data were compared with the I2 test. The results of the diagnosis of difficult tracheal intubation were analyzed using Spearman’s correlation, the diagnostic consistency kappa coefficient, and the area under the receiver operator characteristic (ROC) curve (AUC). The sensitivity, specificity, odds ratio, and positive and negative predictive values for the interincisor distance, modified Mallampati score, and thyromental distance were calculated. The Youden index, which is calculated as the maximal difference between the sensitivity and 1 – specificity for the optimal cut-off point, was used to determine the criteria that predicted difficult laryngoscopy and difficult tracheal intubation. The difference was statistically significant at P &lt; 0.005. Under the conditions of a type I error of &lt;0.05 and type II error of &lt;0.1, the sample of the original study (which included &gt;2000 patients) was sufficient to observe whether the “BURP” maneuver improves the difficult laryngoscopy proportion from 10% to 6%14 and to assess the AUC of predictors for difficult laryngoscopy.</t>
+  </si>
+  <si>
+    <t>Spearman's correlation coefficient (corr) was calculated to examine the reproducibility of the biomarkers in 20 blinded duplicate samples. Descriptive statistics were used to summarize patient and biomarker characteristics, as well as all clinical risk factors for PCa. AUC was calculated as the Wilcoxon statistic, and tests of differences among AUCs were performed via the nonparametric U-statistic method with or without Bonferroni correction for multiple comparisons.6 For those markers whose average values were higher in cancer cases, sensitivity was calculated as the proportion of cancer cases with a biomarker value equal to or greater than the cut point, and specificity as the proportion of controls with a biomarker value less than the cut point. For those markers whose average values were lower in cancer cases, ie under-expressed in PCa, sensitivity was calculated as the proportion of cancer cases with a biomarker value equal to or less than the cut point and specificity as the proportion of controls with a biomarker value greater than the cut point. Fisher exact 95% CIs for sensitivity and specificity were calculated, and sensitivities and specificities were compared across different markers using McNemar's test with or without Bonferroni correction. Backward selected multiple logistic regression was used to identify risk factors that significantly contributed to predicting PCa while controlling for all other markers and standard PCa risk factors. Spearman's correlation coefficients were calculated among the PSA isoforms for cases and controls separately, and successively used to remove isoforms highly correlated with each other to reduce multicollinearity in the model building process. The Kruskal-Wallis rank test or Mann-Whitney U test was used to examine the relationship between new biomarkers and Gleason score when appropriate. In addition, secondary analyses were performed for all cases and controls with PSA in the subrange of 2 to 10 ng/ml. All statistical tests were performed at the significance level of 0.05 (2-sided) and all statistical analyses were conducted using SAS® (version 9.2).</t>
+  </si>
+  <si>
+    <t>For all variables with non-Gaussian distribution (TIMPs, creatine kinase, troponin I), log-transformed values were used in analyses. Associations of TIMP levels with categorical variables were assessed using paired t test or Mann-Whitney U test for non-normally distributed variables and with continuous variables using Pearson correlation coefficient. Differences in TIMPs between quartiles of GRACE risk score were compared using between-group analysis of variance. Factors with univariate association with each end point at a significance level of a p value &lt;0.1 were entered into multivariable Cox proportional hazards models. For each TIMP, the strength of association with end points is expressed as hazard ratio (HR) per log-transformed unit increase in plasma concentration of that TIMP. When considering the primary end point of MACEs, we assessed time to first event. Median values of each TIMP were calculated for the entire population and used as cut-off points to predict adverse outcome using Kaplan-Meier assessment; we compared outcome between groups with 0, 1, 2, or 3 TIMPs above their respective median. Receiver operator characteristic curves were constructed for the predictive ability of each of our markers and for GRACE risk score. Comparison between c-statistics of receiver operator characteristic curves was performed using the method of DeLong et al.9 For all analyses, a p value &lt;0.05 was regarded statistically significant and 2-sided tests were used where appropriate. Statistical analyses were carried out using SPSS 14 (SPSS, Inc., Chicago, Illinois) and Analyse-it (Analyse-it software, Ltd., Leeds, United Kingdom) for Excel. The authors had full access to the data, accept responsibility for their validity, and have read and agreed to the report as submitted.</t>
+  </si>
+  <si>
+    <t>Discrete variables were expressed as counts (percentage) and continuous variables as medians and interquartile ranges (IQR) unless stated otherwise. Frequency comparison was done by chi-square test. Two-group comparison of normally distributed data was performed by Students t test. For data not normally distributed, the Mann-Whitney U test was used. Receiver-operating characteristics were calculated using STATA 9.2 (Stata Corp, College Station, TX). Levels that were nondetectable were assigned a value equal to the lower limit of detection for the assay. All testing was two-tailed and p values less than 0.05 were considered to indicate statistical significance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cant copy from pdf. SPSS used </t>
+  </si>
+  <si>
+    <t>Standard support vector machine (SVM) classifiers [21] are non-probabilistic dichotomous models. First, the predictor space (i.e. the multidimensional scatter plot of the predictors) is mapped into a high dimensional 'feature space'. The aim is to find a feature space where an acceptable linear model can be developed in order to deal with possible nonlinearities in the original predictor space. The linear separation between the events in the feature space tries to maximize the margin between the two groups - hereby imposing regularization - while at the same time controlling the number of misclassifications. A good balance between both is desired: too much focus on margin maximization leads to an overly simplistic model, too much focus on misclassification minimization leads to an overfitted model. A regularization (penalization) parameter is included to control the trade-off. Through the use of a positive definite kernel function it is not necessary to directly work in the high dimensional feature space. The choice of kernel affects how the linear separation in the feature space relates to the predictor space. The linear kernel x T z (with x and z two vectors of predictor values representing two patients) results in linear classifiers in the predictor space whereas other kernels such as the popular Gaussian kernel, exp(−∥x−z∥22/σ2)
+ with the kernel parameter σ that has to be tuned, result in nonlinear classifiers. Least squares SVMs (LS-SVMs) are a variant of SVMs that work much faster due to small changes in the cost function [13]. However, performance of LS-SVMs is similar to that of SVMs [22].
+We overcame the non-probabilistic nature of standard (LS-)SVMs through the use of a Bayesian framework [23]. Using the distribution of the outcome in the development data as prior event probabilities, dichotomous event probabilities were obtained based on the LS-SVM output. Hyperparameters such as the regularization and kernel parameters are automatically tuned by the Bayesian procedure.
+In essence, KLR only differs from SVMs with respect to the adopted loss function. However, KLR directly results in probabilistic output and is easily extended to a multinomial version (MKLR). We used an MKLR algorithm that is based on LS-SVMs [14]. The basis of the algorithm is a regularized MLR model that is solved using a penalized negative log likelihood function using iteratively regularized re-weighted least squares. By mapping the predictor space into a high dimensional feature space using a positive definite kernel and applying in each iteration a model with the structure of an LS-SVM, a kernel version of MLR is obtained. The hyperparameters were tuned using five-fold cross-validation (CV). MLR and MKLR simultaneously distinguish between all events. Such 'true' polytomous models are also called all-at-once methods. Other methods combine dichotomous models, and vary with respect to the type of dichotomous models and the method to combine them. When polytomous problems are decomposed, the dichotomous models often contrast each event with all other events (1-versus-all approach) or with each other event (1-versus-1 approach). We favored the 1-versus-1 method for the following reasons. Firstly, from a clinical viewpoint it is interesting to see which variables are useful to discriminate between each pair of events. Secondly, it is mathematically more efficient because lumping together different events in the 1-versus-all approach may result in a complex (i.e. heterogeneous) 'meta-event'. Each dichotomous model was developed on the training cases belonging to the two events involved, and was applied to all test set or validation cases. The probabilities from the 1-versus-1 models were combined to obtain polytomous probabilities (i.e. probabilities for each of the four events that sum to one) using the efficient technique of pairwise coupling [24]. The polytomous probabilities π i are estimated by solving the following linear system: πi=∑j,j≠i4π∧ijπi+πjk−1,∀i,with∑i=14πi=1 and πi≥0. For logistic regression models, we were careful regarding variable selection due to the small number of borderline and metastatic tumors. We did not use automated procedures based on p-values to directly select a final set of predictors because we prefer variable selection based on criteria similar to the model evaluation criteria, and because automated selection is highly unstable and bound to overfit when there are small groups and a large number of candidate variables [25]. The procedure was as follows. Using stepwise, backward, and manual selection procedures, several possible variable sets were generated. The final set of predictors was selected using three criteria. Two criteria measure information content: the Akaike and the Bayesian Information Criterion (AIC, BIC) [26]. These criteria penalize a model's log likelihood for the number of predictors. AIC has the tendency to be liberal whereas BIC tends to be conservative. Therefore, we prefer models with fairly low values for both criteria. The third and most important criterion was the discrimination performance assessed by the average dichotomous c-index for each event after 20 independent runs of stratified five-fold CV. The dichotomous c-index equals the area under the ROC curve. For the kernel-based methods, a forward selection algorithm based on rank-one updates of the kernel matrix in the context of standard LS-SVMs was used [27]. It is computationally intensive to select variables by repeatedly adding the variable that gives the best performance gain based on leave-one-out cross-validation (LOO-CV). When using LS-SVMs, this strategy can be speeded up significantly for two technical reasons. Firstly, the LS-SVM model structure allows for the fast computation of model performance measures based on LOO-CV. Secondly, the LS-SVM model can be updated using rank-one updates in the kernel matrix such that adding a variable does not require the re-computation of the model. This new method, abbreviated as R1U, is very fast, but is currently only available for linear-kernel LS-SVMs. Using the training set, we observed that a linear kernel LS-SVM with R1U-selected variables performed clearly better than linear or nonlinear LS-SVMs using variables that were selected using an advanced nonlinear procedure [28]. In each step, we used the c-index estimated by LOO-CV to determine which variable to add. We re-tuned the regularization parameter in each step using a grid search to find the value with maximal c-index.
+Overview of methods used to diagnose ovarian tumors The methods that were used in this study can be divided into two groups based on the variable selection method. The first group consists of two logistic regression-based methods using logistic regression-based variable selection: MLR, and pairwise coupling of 1-versus-1 logistic regression models (LR-PC). The second group consists of three kernel-based methods using variables from R1U selection: MKLR, and pairwise coupling of 1-versus-1 Bayesian LS-SVMs (LSSVM-PC) or KLR models (KLR-PC). We add one logistic regression-based method to the second group for means of comparison: pairwise coupling of 1-versus-1 logistic regression models (LR-PC2). Evaluation of model performance Model training was based on training data only. The models were then applied to the validation datasets for evaluation and comparison. Model evaluation was based primarily on a polytomous extension of the c-index. Then the standard c-index (i.e. the area under the ROC curve) was used to assess discrimination between every pair of events. The polytomous extension is a measure that bears similarity with the volume under the surface index for trichotomous classification [29]. Assume a set of cases consisting of one case from each event. We defined that perfect separation of the cases in the set was obtained if, for all events, the predicted probability for an event was largest for the case with this particular event [30]. More generally, we counted the number of events for which this was true. For a 4-event problem, with N 1 to N 4 number of cases per event, this polytomous c-index was then written as 14N1N2N3N4∑n1=1N1∑n2=1N2∑n3=1N3∑n4=1N4C(n1,n2,n3,n4), with C(n 1, n 2, n 3, n 4) the number of events for which it held that the event's predicted probability was largest for the case with that event. Thus C ranged between 0 and 4. The average C over all sets was divided by 4 to obtain a value between 0 and 1 (with 0.25 for random discrimination). This polytomous index can be interpreted as the probability to correctly identify a case from a randomly chosen event within a set of 4 cases. Calibration was assessed using calibration graphs that related predicted probabilities to actual probabilities using loess smoothing [31, 32]. This resulted in four graphs, one per event.</t>
+  </si>
+  <si>
+    <t>All analyses were performed in R statistical software (V3.6.1, https://www.R-project.org/). For differences in patient characteristics, the appropriate two-sided hypothesis test was applied; standard Z-test for proportions of continuous variables, unpaired Wilcoxon test for median and range, and exact Fisher test for categorical variables. Univariate association with OS was used to confirm that important clinical features had not been overlooked. OS was analysed from commencement of radiotherapy until death or loss to follow-up (right censored) using the coxph function in the package survival [33] and c-indices were obtained from the survcomp package [34]. Survival outcomes were compared between risk groups using the Kaplan–Meier survival analysis (log-rank test with one-sided p value). In addition to the c-index and KM curves, we examined the distribution of prognostic scores generated by the model (namely, median and interquartile range) as well as regression of the prognostic scores themselves against OS as indication of the calibration slope, in accordance with Royston and Altman [32] to check for discrimination, calibration and model fit.</t>
+  </si>
+  <si>
+    <t>All statistical analyses were performed using the Statistical Package for Social Sciences (SPSS) version 20.0 (SPSS Inc., USA). Descriptive data are presented as mean ± standard deviation or median and range for continuous variables as appropriate, and percentages for categorical variables. Normality was examined by use of the Shapiro–Wilk test. Spearman rank correlation and Mann–Whitney tests were applied when indicated. Non-parametric ANOVA (Kruskal-Wallis test) was used across the four LH quartiles followed by a post-hoc pairwise comparison in case of a statistical difference between groups where appropriate. Percentages or rates were compared by use of Pearson chi-square, and Mantel–Haenszel test was computed for trend analysis. The receiver operating characteristic (ROC) curve was defined for serum LH on day of trigger and the area under the curve (AUC) was calculated. Multivariate logistic regression was used to estimate the odds ratio (OR) for the association between LH value on the day of trigger adjusted for all potential confounders and ongoing pregnancy (OP), live birth (LB), and early pregnancy loss (EPL). The LH level on the day of trigger was assessed as quartiles rather than continuous. Variables were included in the logistic regression model if they demonstrated a P &lt; 0.03 for the association with outcome in the unadjusted analyses. The model for OP and LB included variables: serum estradiol (E2) levels and serum prolactin levels on day 2, total dose of GnRH antagonist, serum E2, serum progesterone (P4), number of follicles &gt; 11 mm, and serum LH levels on the day of trigger (the first quartile was taken as the reference category), serum LH levels and serum P4 on OPU+7, number of embryos obtained, number of transferred embryos, embryo quality (good vs. bad), and GnRH-a dose on OPU+6 (yes/no). The model for EPL included the following variables: BMI, serum LH levels on the day of trigger (the first quartile was taken as the reference category), serum LH levels and serum FSH levels on OPU+7, the day of embryo transfer (2 or 3), and the GnRH-a dose on OPU+6 (yes/no). All statistical tests were two sided. P &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Statistical analyses were made using SPSS (version 23.0)b and R software.c A 2×2 contingency table was created to compare each clinical test (slump test, SLR test, femoral neurodynamic test, and neurologic examination) to MRI findings (disk extrusion, high-grade subarticular compression, and high-grade foraminal compression). The accuracy of the clinical tests in detecting the MRI findings was primarily evaluated using sensitivity, specificity, and receiver operating characteristics analysis with area under the curve (AUC), including 95% confidence intervals, and secondarily evaluated using positive and negative predictive values, positive and negative likelihood ratios, and diagnostic odds ratios (DORs).27 As references for the interpretation of sensitivity and specificity, the following classification was used: 0 to 0.4, low; 0.4 to 0.7, moderate; and 0.7 to 1.0, high.28, 29 For the respective interpretation of AUC, the following classification was used: 0 to 0.7, poor; 0.7 to 0.8, moderate; 0.8 to 0.9, good; and 0.9 to 1.0, excellent.30 MRI data were available for 99 subjects (1 subject excluded). The clinical tests--the slump test, the SLR test, and the neurologic examination--were analyzed for the entire sample (N=99), while the femoral neurodynamic test was analyzed only for the subjects who received a midlumbar (L2-4) injection (n=18).</t>
+  </si>
+  <si>
+    <t>For the supervised classification strategy, we employed four different feature selection methods. (1) Covariance was used to identify the most correlated features with the ODx risk category based on the corresponding correlation coefficient value. (2) WRST ranks features based on their corresponding p value associated with the null hypothesis, the null hypothesis being that the feature distribution in one class has an equal median value as in the other class [17]. (3) MRMR-mid and (4) MRMR-miq approaches identify features that not only are highly discriminatory between the two classes of interest, but also are minimally correlated with each other [20]. In addition, we used BC distance [25] to measure separation of the top identified feature set between two defined classes. The BC distance reflects the relative similarity between two statistical samples, which is in turn derived from the Bhattacharyya coefficient assessing the overlap between the two probability distributions.
+For unsupervised clustering, PCA was employed for feature selection. PCA converted original features into uncorrelated variables via an orthogonal transformation [24]. The top principal components, which in turn represent the majority of the feature variance in the original feature space, could be identified from the transformed PCA space.
+For supervised classification, three different classifiers were utilized including LDA, QDA, and SVM. LDA and QDA model the distribution of the top QH features for each of the two classes, and then Bayes’ optimal solution was used to predict the class label for each patient given the corresponding top feature set [22, 23]. LDA additionally assumes equal covariance among the top identified features between the two output classes [22]. SVM is a discriminative classifier which outputs an optimal hyperplane representing the largest separation of the top identified features between the two classes [21].
+Apart from the supervised classifiers, we also employed an unsupervised consensus clustering approach [26], which employed hierarchical clustering on the top two principal components from the PCA transformed feature space. The distance metric employed in hierarchical clustering was measured by the Pearson correlation coefficient. The clustering is performed in conjunction with a patient resampling rate of 0.8 over 50 runs to validate the stability of the principal components and their distinguishability between the defined classes for different classification tasks. After the 50 repeated clusterings, each patient is assigned a cluster group index (cluster 1 or cluster 2).</t>
+  </si>
+  <si>
+    <t>One criterion for evaluating an index for healthy aging is that the index should discriminate among subjects based upon their observed survival times. For an index generated from a Cox regression model, this output corresponds to a "risk score" (i.e., linear predictor), which is proportional to the predicted mortality risk of a subject relative to all other subjects. This risk score is a useful diagnostic index if subjects assigned high scores tend to be short-lived, and if subjects assigned low scores are usually long-lived. Along these lines, we evaluated predictive capacity of models based upon a cross-validation criterion, in which a model is first constructed using one set of subjects (i.e., a training set), and then used to generate risk scores for a distinct set of subjects (i.e., a testing set). The predictive capacity of the model is measured according to how well risk scores discriminate among short and long-lived subjects within the testing set. In our analyses, training data consisted of randomly selected sets of 3687 subjects (90% of cohort), while testing data consisted of the remaining 410 subjects (10% of cohort). Prognostic capacity is measured according to a concordance index (based on time-specific area under the curve (AUC) statistics; see below), which measures the degree to which high risk scores are assigned to short-lived subjects, and the degree to which low scores are assigned to long-lived subjects. For a given model, this process is repeated 10,000 times, and the average concordance score among all simulation trials is computed. This cross-validation approach, involving random splitting of subjects into "training" and "testing" sets, provides a good indication of how well the model characterizes meaningful patterns in the data that are useful for prediction, rather than random noise [57].
+Correspondence between model-generated risk scores and observed mortality patterns was evaluated based upon the time-specific receiver operating characteristic (ROC) curve approach and definitions of incident sensitivity and dynamic specificity proposed by Heagerty and Zheng [58]. This evaluation method permitted calculation of a global concordance index (C), measuring overall correspondence between risk scores and observed mortality patterns, as well as time-specific metrics interpreted as ROC curve statistics, which provided a useful indication of the short versus long-term prognostic ability of a given model. For any survival time t, the framework proposed by Heagerty and Zheng [58] provides a measure of how well a risk score distinguishes at-risk subjects that die at time t from at-risk subjects that survive beyond time t. This is done by constructing time-specific ROC curves based upon estimates of incident sensitivity and dynamic specificity. Such a curve is generated from a risk score marker (M), by choosing different M threshold values (c) for predicting death, leading to a series of sensitivity and specificity estimates with respect to a given survival time t [58].
+Sensitivity(c,t)=P(Mi&gt;c|Ti=t)
+(1)
+Specificity(c,t)=P(Mi≤c|Ti&gt;t)
+(2)
+The estimated (incident) sensitivity rate forms the vertical axis of the time-specific ROC curve and reflects the ability of risk scores to accurately identify subjects that die at time t (i.e., true-positive identification rate). The estimated (dynamic) specificity rate is used to calculate false-positive rates, which forms the horizontal axis of the time-specific ROC curve, reflecting the degree to which high risk scores are incorrectly assigned to subjects living beyond time t (i.e., 1 - Specificity).
+Time-specific ROC curves were used to calculate area under the curve statistics (i.e., AUC(t)), which provided intuitive and useful summary measures of prognostic capacity, with respect to certain survival times. The interpretation of AUC values is consistent with those generated in other contexts, with possible values ranging between 0 and 1, and values greater than 0.50 indicative of model output that is more useful than randomly generated risk scores. The value of AUC(t) can also be interpreted in probabilistic terms. For two subjects with risk scores M j and M k , the value of AUC(t) represents the probability that M j is larger than M k , given that subject j has a survival time of t and subject k has a longer survival time [58].
+AUC(t)=P(Mj&gt;Mk|Tj=t,Tk&gt;t)
+(3)
+The value of AUC(t) provides an indication of model discrimination ability at a given survival time. A global concordance measure (C) is obtained by integrating AUC(t) values with respect to t, providing an "averaged" value of AUC(t) that reflects overall discrimination ability across all survival times [58]. This concordance index is interpreted as the probability that the model can, for any two subjects chosen at random, correctly identify which subject was the first to die [58].
+C=P(Mj&gt;Mk|Tj&lt;Tk)
+(4)
+Values of AUC(t) and C are used in our analyses to evaluate the ability of models, developed on a randomly selected training set, to discriminate among the survival outcomes of subjects within a testing data set. In our analyses, data are randomly split 10,000 times into training and testing sets, and values of AUC(t) and C are estimated with each iteration. Discrimination ability of models over all iterations is measured by averaging values of AUC(t) and C across all 10,000 simulations.</t>
+  </si>
+  <si>
+    <t>Data analyses were performed with R statistical software (R, version 2.12.2, R Project, www.r-project.org). P ≤ .05 were considered significant. A 2-sided power analysis for cohort studies was conducted to determine the probability of detecting an effect given the sample size of the current study. Predictors of DCI were assessed using logistic regression models. The percentage of patients surviving DCI for 30 d was calculated using the Kaplan–Meier method. Survival curves were compared using the log-rank test. Cox regression was used to calculate hazard ratios and 95% confidence intervals (CIs) for risk factors. Area under the curve (AUC) model performance was tested using the Delong–Delong method and partial AUC (pAUC) was compared using bootstrapping. Multivariable models were generated using standard biostatistical procedures. The initial pool of candidate predictor variables included all available demographic, prior medical history, admission, and surgical aneurysm repair variables that had univariate associations P &lt; .25 with the outcome variable. Backward stepwise regression methods were used to produce the final model whereby the least nonsignificant variable was removed from the model 1 at a time until all remaining variables have P &lt;.05. Tests for interactions were performed among all significant variables retained in the multivariable models.</t>
+  </si>
+  <si>
+    <t>All patient data and events were prospectively collected and entered in a database. The only exception was in-hospital bleeding that was retrospectively adjudicated according to selected definition, using collected data. Categorical variables were presented as numbers and percentages and were compared using χ2-statistics. Continuous variables were presented as median with interquartile range (25th to 75th percentiles) and were compared using Mann-Whitney U test. We used Kendall's t–b test to examine correlations between scores. Multivariable logistic regression was used to identify independent predictors of major bleeding with significance level of 0.05. The incidence of bleeding was determined, stratified according to the calculated risk scores and compared between risk categories using qui-square for trend. For each of the three scores, receiver operating characteristic (ROC) curves were used to relate the calculated scores to the rate of the major bleeding. The C-statistic was used to measure the predictive accuracy of the risk scores. The goodness-of-fit of the scores was assessed using the Hosmer-Lemeshow statistic. The ROC areas were compared using the non-parametric method described by DeLong (Citation12). The performance of the scores was also analyzed in four subgroups of patients: undergoing coronariography, undergoing percutaneous coronary intervention (PCI), treated with glycoprotein IIb/IIIa inhibitors and with renal dysfunction (creatinine clearance &lt;60 ml/min calculated by the Cockcroft-Gault equation). The incidence of in-hospital death and ischemic events was determined and ROC curves were used to relate the calculated risk scores to the rate of these endpoints. Statistical analysis was performed with SPSS® version 16.0 (SPSS Inc., Chicago, IL, USA) and MedCalc® version 11.1 (MedCalc Software, Mariakerke, Belgium).</t>
+  </si>
+  <si>
+    <t>Continuous variables are reported as median and interquartile range. Median values between two groups were compared by the Mann–Whitney U test, while comparison among the four groups of lung involvement was performed by the Kruskal–Wallis test. Categorical variables were reported as count and percentage and compared by Pearson chi-squared test. A first descriptive analysis of clinical characteristics of patients was performed according to lung involvement. We also analysed clinical and biochemical differences between survivor and non-survivor patients. Finally, we built the receiver operating characteristic (ROC) curve to test the predictive value against in-hospital mortality before and after the addition of the lung involvement score as previously described (from 0 to 4 points). Area under the curve (AUC) values were calculated. The statistical significance was set at a P value &lt;.005. All the analyses were performed using the IBM software SPSS 25.0.</t>
+  </si>
+  <si>
+    <t>For both analyses, we quantified classification performances using receiver operating characteristic (ROC) curves. ROC curves were calculated by shifting the threshold for classifying an individual as patient (bvFTD model analysis) or carrier (carrier-control model analysis) from 0 to 1, and plotting the true positive rate (sensitivity) versus the false positivity (1 – specificity) for each intermediate point. The area under this ROC curve (AUC) is a measure of classification performance insensitive to the distribution between the groups (Fawcett, 2006). Additionally, we calculated the optimal operating point on the curve to calculate the model's sensitivity, specificity and classification accuracy, given equal class distribution and equal penalty for false positive and false negative predictions. For the carrier-control model analysis, we averaged AUC, accuracy, sensitivity and specificity values from the 50 times repeated nested cross-validations.
+2.10. Multimodal classification
+To obtain the best multimodal carrier-control model using several feature vectors, we performed step-wise feature concatenation as previously described (Bouts et al., 2018; Schouten et al., 2016). First, we assessed classification performance for each feature separately. Subsequently, we added a new feature to the best performing feature combination (i.e. highest AUC) of the previous step until all features were included in the model. The best performing feature combination will be referred to as the multimodal carrier-control model.
+2.11. Statistical analysis
+Statistical analyses of non-imaging data were performed using R (R Core 2016, Vienna, Austria). We tested for carrier-control differences using unpaired t-tests (age and education), the Mann-Whitney U test (mini-mental state examination (MMSE) scores [0−30]) and the χ2 test (gender distribution). Probability scores were compared using Mann-Whitney U tests for overall carrier-control contrasts, and Kruskal Wallis H tests and Dunn post-hoc tests for comparisons between all four groups (MAPT, GRN, C9orf72 and controls). To compare models' AUC values against chance level, we used permutation tests (N = 5.000) (Noirhomme et al., 2014). In order to correct for multiple comparisons, we took the maximum AUC difference of the family of tests for each permutation. Then we compared the observed AUC difference to the new distribution of maximum AUC differences to get a family-wise error rate corrected p-value. The alpha level required for statistical significance was set at p &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>The data, unless otherwise stated, are given as medians with interquartile ranges (25th and 75th centile) for continuous variables and as simple frequencies, proportions and percentages for categorical variables. Variables with significant differences were tested by a binary logistic analysis together with qSOFA score and presented with a 95% CI. Dichotomous variables were compared using Fisher’s exact tests or chi-square test statistics. In order to assess the discriminatory power of the qSOFA score for predicting outcomes, receiver operating characteristic (ROC) curve analysis was used to calculate the optimal thresholds, sensitivities, and specificities for the three different scoring systems evaluated. In order to assess the discriminatory power of qSOFA score in predicting outcomes, we compared the ROC curves of the qSOFA score with those of the CURB-65 score (or other combinations). Area under the ROC curve (AUC), 95% CIs and p values were considered the measure of the overall performance of each scoring system. The optimal threshold was defined as the value associated with the highest sum of sensitivity and specificity for each scoring system (Youden’s index). Finally, we reported sensitivity and specificity for each cut-off point and then used the cut-off points to compare sensitivity and specificity of each score system. P-value analyses were two-sided and a p value of &lt;0.05 was considered statistically significant. Positive predictive values and negative predictive values were calculated to evaluate the proportions of true positive and negative results. The likelihood ratio (LR) was calculated as the ratio of the probability of outcome in an exposed group to the probability of outcome in an unexposed group. All potential confounders were entered into a regression model based on prior knowledge or expected clinical relevance. Analyses were performed with a stepwise forward regression model, in which each variable with a p value &lt;0.05 (based on univariate analysis) was entered into the model; all regression models included age at initial evaluation and gender, as covariates. All statistical analyses were performed with Statistical Package for Social Science (SPSS), version 20.</t>
+  </si>
+  <si>
+    <t>Comparisons between PAD and healthy control subjects were made with two sample t- and Mann-Whitney tests. Multivariable linear regression modeling included age, sex, BMI, statin use, insulin use, clopidogrel use, LDL-C, ApoB, triglycerides, smoking, diabetes, hyperlipidemia and hypertension as covariates. Comparisons between tertiles of subjects with PAD were performed with Kruskal Wallis tests and Jonckheere-Terpstra and Cochrane-Armitage tests for trend. Prediction models were generated using Cox proportional hazards regression. The relation of LDL aggregation inflection point with MACE and MACLE was presented as Kaplan-Meier curves with inflection point categorized by tertile. The cumulative risk of MACE and MACLE were calculated in each group and compared using the log-rank test. We tested the capacity of the Framingham Risk Calculator for secondary cardiovascular events [12] to predict 1-year MACE within this PAD cohort and compared the associated Harrell c-statistic with and without the addition of LDL aggregation inflection point using the z-score test. A two-tailed p-value less than 0.05 was set a priori as the criterion for statistical significance.</t>
+  </si>
+  <si>
+    <t>Effect of CAD.—Per-case sensitivity and specificity were calculated with and without CAD. The effect of CAD on reader confidence was assessed by using a paired t test. Receiver operating characteristic (ROC) curves were generated for each reader with and without CAD on the basis of the association between confidence level and correct case classification (normal vs abnormal). Effect of CAD FPmarks.—The distribution of the causes of CAD FP marks was compared between those data sets generating 15 or fewer CAD FP marks and those generating more than 15 CAD FP marks by using a χ2 test, and the number of reader FP detections before and after CAD were calculated. Linear regression was used to examine the relationship with reader case confidence and reporting times. The effect of CAD FP numbers on correct reader classification of normal data sets was also examined by using logistic regression. Robust standard errors (by using the Huber, White, and sandwich estimators of variance) (,15) were used for all regression analyses to account for the fact that each case was included in the analysis four times (one for each observer).</t>
+  </si>
+  <si>
+    <t>Summary data are expressed as absolute numbers and percentage for categorical variables, whereas mean ± SD was used for continuous values. Statistical comparisons of demographic and clinical features were performed using the χ2 test (Fisher exact test) when expected frequencies were less than 5% and the Pearson exact test for categorical variables, whereas the Student t test was used for continuous variables (Wilcoxon rank sum test). P &lt; .05, from a 2-sided test, was considered to indicate statistical significance. Comparisons were made using the log-rank test or the stratified log-rank test in the propensity score–matched cohort. Because there were differences in baseline characteristics between patients with vs without positive stress testing, propensity score matching was used to adjust for possible confounders [18]. SPSS software allows estimation of the propensity score using logistic regression and specifying nearest-neighbor matching. Detailed balance statistics and graphs are produced by the program. A 5:1 matched analysis based on the propensity score of each patient was conducted. To ensure good matches, a caliper (maximum allowable difference between 1 participants) of 0.15 was defined. Variables included in the model were age, sex, hypertension, hypercholesterolemia, diabetes mellitus, active smoking, known cardiovascular disease, chronic renal disease, heart rate, systolic arterial pressure, TIMI risk score [19], GRACE score [2], [17], CHA2DS2VASc [20], and CHADS2 score [21]. Cox analysis regression model was performed to identify independent predictors for primary end point. Sensitivity analyses using backward logistic regression for all the clinical variables and comorbidities considered in the study were carried out; the clinical variables which were found to have a probability value less than 0.05 were subjected to multivariate backward logistic regression analysis. Odd ratios were used to illustrate the probabilities of adverse events. In addition, to estimate the predictive power of single tests for predicting the presence or absence of disease, sensitivity, specificity, positive (+) and negative (−) predictive values, and likelihood ratios (LR) [(+)LR = sensitivity/(1 − specificity); (−)LR = specificity/(1 − sensitivity)] were calculated considering follow-up data. Receiver operating characteristic (ROC) curve analysis was obtained for patients who were found as having positive stress testing to detect sensitivity-specificity ratio. Comparison of ROC curves was performed using pairwise C-statistic test. Calculations were performed using SPSS version 21 (SPSS, Inc, Chicago, IL) for all analyses.</t>
+  </si>
+  <si>
+    <t>The predicted propensity of a given AA in the input protein chain is a real number which is (often) binarized to denote two outcomes: whether or not the residue is a part of an epitope. The evaluation of the binary predictions uses several quality measures including accuracy (ACC), sensitivity, specificity, precision, F-measure, and Matthews correlation coefficient (MCC):
+Accuracy  =  (TP+TN)/(TP+FP+TN+FN)
+Sensitivity  =  TP/(TP+FN) Specificity  =  TN/(TN+FP) Precision  =  TP/(TP+FP) F-measure  = 2*TP/(2*TP+FN+FP) MCC  =  (TP*TN+FP*FN)/sqrt{(TP+FP)*(TP+FN)*(TN+FP)*(TN+FN)} where TP and TN are the number of correctly predicted epitope and non-epitope residues, respectively, FP is the number of non-epitope residues that were predicted to be in an epitope, and FN is the number of epitope residues that were predicted not to be in an epitope. Higher values of these measures indicate better quality of predictions. We calculate the area under the ROC curve (AUC) to evaluate the real-valued predictions. We also use the success rate that was proposed earlier [34], [35]. The success rate is defined by the number of correctly predicted proteins divided by the total number of predicted proteins. A given chain is assumed to be correctly predicted if the average of the real-valued predicted propensities for the native epitope residues is larger than the average real-valued predicted propensities of all residues in that chain.</t>
+  </si>
+  <si>
+    <t>Patient demographics and obstetric history are reported descriptively as mean and standard deviation (SD) or frequencies and proportions. Univariable analyses for the association between delivery outcomes and PCI distances were performed using Spearman correlation, linear and logistic regression models. Adjusted analyses were further evaluated for preterm birth, birth weight, and FGR by incorporating clinically relevant covariates. For preterm birth, we adjusted for prior history of preterm birth. We controlled for GA at delivery in evaluating the association between PCI with birth weight. In modeling FGR, we explored the association between PCI distance after accounting for maternal age, due to the increased risk of velamentous cord insertion and placental complications of pregnancy in the setting of advanced maternal age [4,13]. Further, to compare with existing literature, exploratory analyses were performed using PCI distances categorized as follows: &lt; 2 cm, 2–3 cm, and ≥3 cm. Model estimates (SE) or odds ratios (OR) with corresponding 95 % confidence intervals (CI) are reported. Model diagnostics were assessed using R-squared, Hosmer-Lemeshow goodness-of-fit tests, and area under the curve (AUC) from receiver operating curves (ROC). A p-value of &lt; 0.05 was considered statistically significant. All analyses were performed using SAS version 9.4 (SAS Institute Inc, Cary, NC). This study was approved by the Institutional Review Board at the Icahn School of Medicine at Mount Sinai.</t>
+  </si>
+  <si>
+    <t>We evaluated the predictions of the Brigham model through calibration and discrimination. Calibration examines the agreement between the predicted and observed pregnancy success rates, while discrimination refers to the ability of the model to separate women with a successful pregnancy from those without. Therefore, we calculated the percentages of a successful pregnancy according to the formula described by the Brigham model, as shown below (Brigham et al., 1999). logð P 1  P Þ ¼ 2:00  0:0828 age ð Þ  32  0:2467 number of pregnancy losses ð Þ Here, P is the predicted probability of a vital pregnancy for those patients who reached pregnancy. We performed a graphical assessment of the calibration, using the val.prob.ci.2 function, obtained from the library CalibrationCurves (https://github.com/BavoDC/ CalibrationCurves), of the R statistical program (version 4.0.2). This function validates predicted probabilities against binary events, computing a set of indexes and statistics. Based on these indexes and statistics, a calibration curve is plotted, including a calibration intercept, which indicates the extent that predictions are systematically too low or too high (also called ‘calibration in the large’), and a calibration slope. In a perfectly calibrated model, the intercept is 0 and the slope is 1. An intercept with a negative value suggests overestimation, while an intercept with a positive value suggests underestimation. A slope &lt;1 suggests that the estimated chances are too extreme, while a slope &gt;1 suggests that the estimated risks are too moderate (Van Calster et al., 2019). The discriminative ability of Brigham’s model was measured using the concordance statistic (c-statistic). It gives the probability that a randomly selected patient who achieved a successful pregnancy had a higher estimated chance than a patient who did not. A value of 1 means that the model perfectly predicts who will experience a successful pregnancy and who will not. A value of 0.5 means that the model is no better at predicting than random chance. To see whether the Brigham model would perform better after recalibration to our validation data, we followed the methods described by Vergouwe et al. (2017). Three additional logistic regression models were estimated: one updating the intercept of the model (recalibration in the large), one updating the intercept and the strength of the predictors (logistic recalibration) and model revision (estimating all model parameters anew). The performance of these updated models was assessed using the same metrics as for the original Brigham model.</t>
+  </si>
+  <si>
+    <t>The data are shown as medians with the 25th and 75th percentile ranges or proportions with 95% confidence interval (CI). The Chi square test with Yates correction was used to compare categorical data, except when small size required the use of Fisher's exact test. Comparisons were made of the continuous variables among the following three groups: (1) patients who failed the SBT (trial failure group), (2) patients re-intubated (re-intubation group) and (3) patients successfully extubated (successful extubation group), using one-way analysis of variance for continuous variables with normal distribution and the Kruskall-Wallis test for variables with non-normal distribution. A true positive result (TP) was defined as occurring when an index predicted extubation failure and the patient was, in fact, reintubated; a false positive result (FP) was defined as occurring when an index predicted extubation failure but the patient was, in fact, successfully extubated; a true negative result (TN) was defined as occurring when an index predicted extubation success and the extubation actually succeeded; a false negative result (FN) was
+defined as occurring when an index predicted extubation success
+but the patient was, in fact, re-intubated. Standard formulas were
+used to calculate the sensitivity (TP/TP+FN), specificity
+(TN/TN+FP), positive likelihood ratio (sensitivity/1-specificity) and negative likelihood ratio (1-sensitivity/specificity). The cutoff values selected were those resulting in the fewest false classifications. The predictive performance of each index was also assessed with the receiver operating characteristic (ROC) curve. ROC curve analysis provides a powerful means of assessing the ability of each index to discriminate between two groups of patients (reintubated and successfully extubated), with the advantage that the analysis does not depend on the cutoff value selected.</t>
+  </si>
+  <si>
+    <t>All patients with a calculated SXscore were included in the analysis. All variables were stratified according to SXscore tertiles. Discrete data were summarized as frequencies (%), whereas continuous data were expressed as mean ± SD. Testing for (linear) trends was done with generalized linear models with SYNTAX tertiles as a covariable for continuous variables and the Cochran-Armitage test for trend in categorical data. The Fisher exact test was used to analyze differences in outcome between stents. Survival curves were constructed for time-to-event variables with Kaplan-Meier estimates and compared by the log-rank test. Patients lost to follow-up were considered at risk until the date of last contact, at which point they were censored. A Cox multivariate model was performed with the covariates sex, age &gt;65 years, presence of diabetes, presentation with acute MI, stent type, and SXscore. C-statistics from receiver operator characteristic curves were used to compare the discrimination of the SXscore, ACEF score, and CSS score. A p value of &lt;0.05 was considered significant, and all tests were 2-tailed. Data were analyzed with SAS software (SAS, version 9.2, Cary, North Carolina) by a dedicated statistician.</t>
+  </si>
+  <si>
+    <t>The performance of sABLATE score in predicting complications and outcome in our population was compared to those of RENAL, mRENAL, and ABLATE. The difference between the mean values of patients with and without complications, for each of the 4 scores, was evaluated with Mann–Whitney U test. Receiver operating characteristic (ROC) analyses were then used to assess the accuracy of each score in predicting complications. Subsequently, logistic regression analyses were performed for each score to find significant association with complications. Regarding outcome, due to the low number of events, residual disease and local tumor progression were considered together at statistical analysis. Outcome analyses were performed selecting lesions with malignant histology only. Cox-regression analyses were performed for prediction of residual disease or local tumor progression on the basis of the 4 scores. To maximize comparability between hazard ratios, all indices were standardized to have a mean of zero and standard deviation of one. A 5% significance level was used (p &lt; 0.05).</t>
+  </si>
+  <si>
+    <t>Continuous variables are expressed as mean ± SD and compared with parametric (analysis of variance) and nonparametric (Wilcoxon signed rank and Kruskal-Wallis) tests. Nominal variables are expressed as absolute count and percentages and compared with the chi-square or Fisher exact tests. Correlations were assessed with linear and polynomial regression.
+Outcomes were assessed with logistic regression to create receiver-operator characteristic (ROC) and calculate probability of response for each level of SDI and QRS. Optimal cutoffs were selected as the level with the highest (sensitivity – [1 – specificity]). Odds ratios were derived by dichotomous analysis based on traditional values for QRSd (120 ms) and the observed best cutoff for SDI (10.4%). Interobserver agreement was assessed with intraclass correlation coefficient (ICC), linear regression, and Bland-Altman plots; variability was expressed as mean difference of measurements as well as adjusted for the mean of each pair of measurements. JMP version 7 (SAS Institute Inc., Cary, North Carolina) and PASW Statistics version 18 (SPSS Inc., Chicago, Illinois) were used for statistical analyses.</t>
+  </si>
+  <si>
+    <t>Data were entered into the Statistical Package for the Social Sciences, version 10.0 (SPSS, Chicago, Il., USA) for statistical analysis. For univariate analysis, variables were analysed with the chi-squared test, Fisher's exact test or the Mann-Whitney U test. The data were also fitted in a  logistic regression model for identification of significant features</t>
+  </si>
+  <si>
+    <t>Comparisons among groups were performed using Mann-Whitney test or Kruskal-Wallis test. The correlation between SUVp and primary tumor size was evaluated using the Spearman correlation coefficient. The ability of the PET parameters to predict the event for disease-free survival was determined by analysis of the areas under the receiver-operating characteristic (ROC) curves. Correlations between the most effective prognostic factor among the PET parameters and various clinicopathologic parameters were assessed using the chi-square test. We used the Cox proportional hazards model to evaluate prognostic variables, including PET parameters and clinicopathologic variables as dichotomous variables. The assumption of proportional hazards was confirmed using the Schoenfeld test [19], and the nonlinearity was checked by plotting the Martingale residuals against covariates [20]. The Hosmer-Lemeshow test was used for model calibration [21], and the Harrell concordance index (C-index) for assessing the model discrimination [22]. Disease-free survival was calculated using the Kaplan-Meier method, and the differences between subgroups were compared by the log-rank test. The statistical tests were performed using SPSS (version 13.0; SPSS, Inc.) and MedCalc (version 12.3; MedCalc Software). All p values were two-sided, and a p value of less 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Multivariable linear regression was used to assess the differences in methylation at each measured CpG between (1) vapers versus non-smokers, (2) smokers versus non-smokers, and (3) smokers versus vapers, with adjustment for age, biological sex, BMI, educational attainment, household smoking, recreational drug use and 20 surrogate variables, using meffil [23]. We investigated CpGs which reached a Bonferroni-significance threshold of p &lt; 5.91 × 10–8 (0.05/846,244 CpGs tested), as well as a less stringent threshold of p &lt; 1 × 10–5. From these EWAS results, we identified differentially methylated regions (DMRs) using the dmrff R package [24]. DMRs were defined as regions containing at least two CpGs within 500 bp, each with EWAS meta-analysis p values &lt; 0.05 and methylation changes in a consistent direction, and where the regional p value surpassed Bonferroni correction. For the EWAS of vapers versus non-smokers, five additional models were run: (i) with adjustment for estimated cell type composition, (ii) with adjustment for self-reported smoking history (number of cigarettes), (iii) with adjustment for methylation at AHRR (cg05575921), an objective biomarker of smoke exposure [25], (iv) after excluding participants with &lt; 60% salivary methylation at AHRR (cg05575921), indicative of a substantial smoking history [18], v) restricted to individuals of white ethnicity. For the CpG sites identified in the EWAS of vapers versus non-smokers, and smokers versus non-smokers, we investigated whether there was evidence of a dose response in methylation levels based on the length of exposure history (6 months–1 year vs &gt; 1 year for e-cigarette use, 6 months–5 years vs &gt; 5 years for smoking). From the EWAS results of (1) vapers versus non-smokers, and (2) smokers versus non-smokers, we investigated evidence for enrichment of associations among 2,623 and 1,501 smoking-related methylation sites identified in previous large-scale studies of blood [10] and buccal samples [14], using a Wilcoxon rank sum test. Although we excluded potential participants who reported drug dependence, given the widespread use of e-cigarettes for inhaling cannabinoids [26] and known impact of cannabis on DNA methylation levels [27], we assessed whether any of the 15 CpGs identified in an EWAS of cannabis [27] were associated with e-cigarette use after Bonferroni correction. We also ran an additional model for the EWAS of vapers versus non-smokers with adjustment for reported cannabis use. Further, we assessed whether any CpG sites associated with alcohol use in a previous EWAS [28] were associated with e-cigarette use after Bonferroni correction. We also investigated whether there was any evidence for replication of 14 CpGs related to e-cigarettes in a previous EWAS [29], and assessed the extent to which the CpGs identified in our EWAS had been previously reported in relation to other traits in two publicly available repositories [30, 31]. We explored the potential functions of the top 50 CpGs identified in each EWAS via GO and KEGG enrichment analysis using the missMethyl R package [32]. Methylation scores can be derived by summing methylation values at relevant CpGs previously identified in relation to a relevant exposure, weighted by the effect sizes observed in independent EWAS studies. Five methylation scores of smoke exposure [10, 14, 16, 25, 33] and four methylation scores of epigenetic ageing [33,34,35,36] were quantified. We assessed associations between scores comprising methylation values derived from a weighted average of CpG sites found to be related to smoking in previous studies. This included scores derived from the CpG sites identified in EWAS conducted by Joehanes et al. [10] and Teschendorff et al. [14], as well as 233 and 172 CpG sites identified in McCartney et al. [16] and Lu et al. [33] respectively. The latter two studies used penalised regression models of smoking pack-years to identify CpG sites most predictive of smoke exposure. Finally, since the CpG site, cg05575921 (AHRR) contributed most weight to all of the methylation scores and has been proposed as an independent biomarker of smoking [25], we investigated this site as an additional biomarker. With the exception of AHRR, the other scores developed were linear combinations of methylation levels at the relevant CpG sites weighted by the effect sizes of sites identified in relation to smoking from the various studies [10, 14, 16, 33]. For epigenetic ageing, we assessed associations between two “first generation” epigenetic clocks derived from DNA methylation levels at CpG sites found to be strongly associated with chronological age [34, 35], as well as two more recently derived clocks: one optimised to predict physiological dysregulation (PhenoAge) [36] and one optimised to predict lifespan (GrimAge) [33]. To generate the epigenetic ageing measures in SEE-Cigs, we uploaded DNA methylation data for a subset of CpG sites from the Illumina EPIC array to the online DNA Methylation Age Calculator (https://dnamage.genetics.ucla.edu/) developed by the Horvath lab. We also uploaded an annotation file, containing data on chronological age, sex and tissue type (saliva) for the samples. We were able to generate the following epigenetic ageing measures: intrinsic epigenetic age acceleration based on Horvath’s multi-tissue predictor (IEAA) [34]; extrinsic epigenetic age acceleration (EEAA) based on Hannum’s method, which up-weights the contribution of blood cell composition [37]; PhenoAge [36] and GrimAge [33]. Intrinsic epigenetic age acceleration (IEAA) is independent of changes in blood cell composition while extrinsic epigenetic age acceleration (EEAA) incorporates age-related changes in blood cell composition. PhenoAge and GrimAge can be considered as measures of extrinsic ageing. Multivariable linear regression was used to assess differences in methylation scores between the three groups with adjustment for age, sex, BMI, educational attainment, household smoking and recreational drug use. Further analyses were restricted to individuals of white ethnicity only, with adjustment for methylation-derived smoking pack-years in the GrimAge model [33], and with adjustment for self-reported smoking history when evaluating methylation scores in relation to e-cigarettes. We generated methylation scores for e-cigarette use and smoking within SEE-Cigs and then assessed their discriminative performance for predicting e-cigarette use and smoking within SEE-Cigs and in an independent dataset, the Avon Longitudinal Study of Parents and Children (ALSPAC) [38,39,40]. We also investigated whether the methylation scores for e-cigarette use was able to discriminate tumour from normal tissue in lung to the same extent as the methylation score for smoking, using data from publicly available methylation data in The Cancer Genome Atlas (TCGA) [41]. For internal validation of the methylation score of e-cigarette use, we used a training (2/3 sample of vapers and non-smokers) and testing set (1/3 sample of vapers and non-smokers) within the SEE-Cigs study. In the training set, we used the glmnet package in R to fit a generalized logistic regression via penalized maximum likelihood using three-fold cross validation and run 10 times to determine a lambda with minimum average error. A methylation score was then generated based on the fitted object produced. The resulting methylation score comprised a sum of the beta-values of the included CpG sites. Its performance in predicting e-cigarette use was evaluated in the test set by generating a receiver operator characteristic (ROC) curve and evaluating the area under the curve (AUC) derived from the logistic regression model using the R package pROC (version 1.16.1). We compared the AUC obtained from this model with that from a similar model for predicting smoking. For this, we derived a methylation score for smoking using a training set (2/3 sample of smokers and non-smokers) and testing set (1/3 sample of smokers and non-smokers) within SEE-Cigs. We next assessed external validation of methylation scores for e-cigarette use and smoking in the Avon Longitudinal Study of Parents and Children (ALSPAC). ALSPAC is a large, prospective cohort study based in the south-west of England. Pregnant women resident in Avon, UK with expected dates of delivery 1st April 1991 to 31st December 1992 were recruited and detailed information has been collected on these women and their offspring at regular intervals [38, 39]. Additional offspring that were eligible to enroll in the study have been subsequently recruited at the ages of 7 and 18 years [40]. The additional enrolment provides a baseline sample of 14,901 offspring who were alive at 1 year of age. Please note that the study website contains details of all the data that are available through a fully searchable data dictionary and variable search tool (http://www.bristol.ac.uk/alspac/researchers/our-data). Ethical approval for the study was obtained from the ALSPAC Ethics and Law Committee and the Local Research Ethics Committees. Consent for biological samples has been collected in accordance with the Human Tissue Act (2004). Informed consent for the use of data collected via questionnaires and clinics was obtained from participants following the recommendations of the ALSPAC Ethics and Law Committee at the time. When the offspring were 24 years old, they were invited to attend the Focus @ 24 + clinic, which took place between June 2015 and October 2017. 4,026 were seen at this clinic, where fasting blood samples were taken. Blood samples from 570 of the offspring were selected for DNA methylation profiling to maximize overlap with existing DNA methylation profiles generated collected at younger ages as part of the Accessible Resource for Integrated Epigenomic Studies (ARIES) [42]. Following DNA extraction, samples were bisulphite-converted using the Zymo EZ DNA MethylationTM kit (Zymo, Irvine, CA). Genome-wide methylation was then measured using Illumina Infinium MethylationEPIC Beadchip arrays. The arrays were scanned using an Illumina iScan, with initial quality review using GenomeStudio. During the data generation process a wide range of batch variables were recorded in a LIMS, which also reported quality control metrics. Quality control and normalization was then carried out using the meffil R package [23]. Quality control included checks for sample swaps using genotype matching and sex prediction, methylated versus unmethylated signal outliers, dye bias, poor probe signal detection, and low bead numbers. Only one sample failed and was excluded due to evidence of being a sample swap and having multiple control probe outliers. The 569 samples that passed were normalized in meffil using functional normalization using the top 20 control probe principal components and sample plate as a random effect. At the same time point when the offspring were 24 years old, information on smoking and e-cigarette use was obtained from a questionnaire that was completed by 458 of the offspring with DNA methylation data. Questionnaire data were collected and managed using REDCap electronic data capture tools hosted at the University of Bristol [43]. The participants were asked whether they had ever smoked or used an e-cigarette, as well as about the frequency and duration of use. From these details were determined three groups of participants: (1) vapers (currently users of electronic cigarettes or other vaping devices, n = 14) (2) smokers (current daily or weekly smokers, n = 47) (3) non-smokers (smoked &lt; 100 cigarettes in their lifetime and never used an electronic cigarette or other vaping device, n = 262). We assessed the discriminative performance of a methylation score generated in SEE-Cigs for predicting e-cigarette use (vs. non-smoking) in the ALSPAC cohort, which was compared with a methylation score for predicting smoking (vs. non-smoking). Both e-cigarette and smoking methylation scores were obtained using the same approach described above in the full sample of: i) vapers vs. non-smokers and ii) smokers versus non-smokers, respectively, in SEE-Cigs. We used data on 27 individuals with lung adenocarcinoma (LUAD) and 41 individuals with lung squamous cell carcinoma (LUSC) who had Illumina Infinium 450K DNA methylation measured in both tumour and adjacent normal samples as part of The Cancer Genome Atlas (TCGA). Again, a methylation score was generated on the full sample of vapers versus non-smokers in SEE-Cigs, this time restricted to CpG sites which were present only on the 450K array. This was compared with a methylation score for smoking generated on the full sample of smokers versus non-smokers, again restricted to 450K CpG sites.</t>
+  </si>
+  <si>
+    <t>Using the FRAX and FractureRiskCalculator.com websites, we calculated the 10-year risk of fracture for each individual. We then compared the average predicted probability between those who had fractures and those who had not sustained a fracture. The Hosmer–Lemeshow test was used to assess goodness of fit. To assess the discrimination of the prognostic test, we calculated the area under the receiver operating characteristic (ROC) curve (AUC), which reflects the model’s ability to discriminate between those who will sustain a fracture from those who will not. An AUC of one represents perfect discrimination, and an AUC of 0.5 reflects discrimination that is no better than random chance. All database management and statistical analyses were performed via the R language system [18].</t>
+  </si>
+  <si>
+    <t>The performance of two scores in predicting prognosis was analyzed regarding discrimination and calibration. Discrimination refers to the ability to distinguish patients who will die from those who will survive by analysis receiver operating characteristic (ROC) curve and area under curve (AUC). Delong’s test was used to compare discriminative power between two scores (DeLong et al. 1988). P &lt; 0.05 was considered significant. MedCalc (version 13.0, MedCalc Software bvba, Belgium) were used for discrimination analysis. Calibration refers to the agreement between observed survival and predicted survival according to score categories. The calibration was analyzed by Hosmer and Lemeshow (HL) goodness-of-fit test (Hosmer et al. 1997). P &gt; 0.20 was considered good fit. IBM SPSS statistics software (version 19.0, IBM, Armonk, NY) was used for calibration analysis. The prognosis outcomes of 1-, 3-, and 5-year PFS and OS were analyzed, respectively.</t>
+  </si>
+  <si>
+    <t>Bayesian networks10 are classification algorithms in which nodes represent variables and directed edges (depicted as arrows between nodes) represent influences between those variables. The absence of an arrow between a pair of nodes implies independence between those variables. This allows for significant savings in the number of parameters necessary to represent the complete probability distribution of predictive factors in this complex patient population, making BNs highly practical. In addition to the graph structure, a BN is equipped with conditional probability tables associated with each node, which not only describe the direction of influence amongst variables but also allows for representation of the degree of influence. Consider a simple BN model in Supplemental Figure 1 (Supplemental Digital Content, https://links.lww.com/ASAIO/A63), containing risk factors related to LVAD survival. The percentages in Supplemental Figure 1a (Supplemental Digital Content, https://links.lww.com/ASAIO/A63) correspond to the prevalence of each factor in this example population. The network represents the joint probability distribution of the four clinical factors on survival: age, center experience, albumin, and creatinine contributing to a predicted 2 year mortality of 27%. Now considering a specific patient (see Figure 1b, Supplemental Digital Content, https://links.lww.com/ASAIO/A63) greater than 70 years of age at an inexperienced center for which albumin and creatinine values are unavailable, the model predicts a 58% chance of survival. If albumin and creatinine values were made available for this patient, Supplemental Figure 1c (https://links.lww.com/ASAIO/A63) demonstrates a reduction in the chance of survival to 41%. By contrast, Supplemental Figure 1d (https://links.lww.com/ASAIO/A63) illustrates a much more favorable prognosis (94% chance of survival) using the same BN for a different patient, age 51–60 years at an experienced center and normal albumin and creatinine values. This example illustrates the ability of BN models to accommodate incomplete datasets.11,12 The methods used for the present study evolved from our prior experience with machine learning for decision support of optimal VAD weaning,13 the need for right ventricular support due to right ventricular failure in LVAD recipients14–16 a two-center study to predict 90-day survival for continuous flow LVADs17–19 and previous mortality studies using INTERMACS.20,21 For this study, we investigated three BN classification algorithms: the Naïve Bayes, Tree-Augmented Naïve Bayes (TAN), and Hill Climber Bayes Net for their unique features, each based on a subset of clinical variables. Naïve Bayes assume that all clinical variables affect the outcome (mortality), but are independent of each other. TAN allows representation of correlations/dependence between the variables, as well as their impact on outcome, represented as multiple arrows. For example, Naïve Bayes could link preop international normalized ratio (INR) and albumin to mortality and TAN would take this initial Naïve Bayes structure and then add an arrow between INR and albumin. Hill Chamber Bayes Net22 adds, deletes, and reverses edges (arrows) as it searches through the feature space and terminates when an optimal model structure is achieved. The subsets of clinical variables were derived using a process called feature selection, which reduces the total number of variables to avoid over-fitting the model to the data. In this study, this was performed by three different evaluators including χ2 correlation analysis and information gain.23 These processes allow for variables to be ranked based on their predictive power. All BN classifiers were evaluated on an independent dataset comprised of a training set of approximately 90% of the data records and a testing set from the remaining approximate 10%, also known as tenfold cross validation. Multiple timepoints were chosen for mortality postop to demonstrate the ability of BN risk scores to be consistently reproducible and clinically relevant. The final step was to re-rank variables at each mortality end-point by sequentially removing those that were least predictive, to obtain a subset that was most accurate and relevant for that particular mortality end-point.
+The HMRS, which is the only predictive score derived and validated on a cohort of CF LVADs, was derived initially for 90 day survival, but also applied and validated for the 1 year mortality end-point. In this study, we calculated the 90 day and 1 year mortality stratified by the HMRS for comparison with the Bayesian (CORA) models. The HMRS variables are: center experience (0 if ≥15 VADs/year, 1 if ≤15 VADs/year), age (per 10 years), albumin, creatinine, and INR. The HMRS equation = (0.0274 × [age in years]) - (0.723 × [albumin]) + (0.74 × [creatinine]) + (1.13× [INR]) + (0.807 × [center LVAD volume &lt; 15]).7 As the INTEMACS data for age were recorded by decade (e.g., 40–49 or 50–59 years), it was coded by the median value (e.g., 55 for 50–59). The site of LVAD implant for each patient was also not provided, so we assumed that all centers were considered experienced, which ultimately neutralized the variable. Missing values were replaced by the mean of the associated feature: albumin (844 missing, mean = 3.39), INR (434 missing, mean = 1.34), and creatinine (35 missing, mean = 1.43). There were no missing entries for the age variable. The performance of the HMRS was assessed by the AUC of the receiver operator characteristic (ROC) curve, the Kaplan–Meier curves, and the general distribution of predicted low-, medium-, and high-risk patients.
+ The BN (CORA) models were assessed by their accuracy, Kappa statistic, area under the ROC curve (AUC %) and Kaplan–Meier curve. Accuracy was defined as the sum of true positive and true negative instances divided by the total number of instances. Standard ROC curves were constructed to capture the relation between overall sensitivity (true positive rate) and specificity (true negative rate). The area under the ROC curve (AUC %) provided a measure of overall performance. The Kappa statistic measured the agreement of the prediction with the true class (actual outcome), where 1.0 signifies complete agreement and 0 is agreement based on chance. Univariate statistical analysis was performed to corroborate the statistical significance of the variables that were identified by the BN feature selection. Cox proportional hazards regression model was used to identify statistically significant variables (defined as p ≤0.05) using MedCalc Statistical Software (version 13.0.6, Ostend, Belgium, 2014) and SAS (version 9.4, Cary, NC). Patient survival estimated by each of the predictive models (BN and HMRS) was plotted as Kaplan–Meier curves for 90 days and 1 year. The latter plots were stratified according to HMRS classification: low-, medium-, high-risk. Bayesian network plots were stratified according to the prediction of survival at the associated end-point. Differences between stratified groups were compared using log-rank statistics.24 The log-rank test was used to compare the survival curves, with statistical significance defined as p ≤ 0.05. Survival was calculated from the day of implant.</t>
+  </si>
+  <si>
+    <t>The sample size was defined as 38 patients to estimate the correlation between CI and ΔRESPPP 0.5 (moderate to high magnitude), with a level of significance of 0.05 and a power of 90%. The effects of FC on the hemodynamic parameters were assessed using the paired Student's t-test for normally distributed variables or the nonparametric Wilcoxon Signed Rank test for non-normally distributed variables. The hemodynamic parameters between both groups at baseline and after FC were compared using the two-sample Student's t-test or the nonparametric Mann-Whitney U test. The results were expressed as the means±SD or the medians (25-75th percentiles). Receiver operating characteristic (ROC) curves were constructed to evaluate the ability of ΔRESPPP, ΔRESPPP/DP, CVP and PAOP to predict fluid responsiveness. The optimal cut-off value for the ΔRESPPP ROC curve was determined for the study cohort. The following measures of diagnostic performance were calculated: sensitivity, specificity, predictive values and likelihood ratios. Linear correlations were tested using the Spearman rank method. The data were analyzed using SPSS 15.0. A p-value&lt;0.05 was considered to be significant.</t>
+  </si>
+  <si>
+    <t>Non-parametric statistical analysis was performed using IBM SPSS Statistics V.20 software to apply Mann-Whitney U tests with Bonferroni correction (P &lt; .008). The utility of the candidate markers was tested using receiver operating characteristic (ROC) curves. Box and Whisker plots were plotted using the R-programming environment (R Development Core Team [http://www.r-project.org/] and show median (bold line), 25th to 75th percentiles (box) and outliers (dots).</t>
+  </si>
+  <si>
+    <t>To perform the statistical analyses for this study, SPSS v.20.0 software (IBM Corp, Somers, NY) and R software were used. Distributions of continuous variables were assessed for normality using the Kolmogorov–Smirnov (n &gt; 2000) and Shapiro–Wilk (n ≤ 2000) tests. Categorical variables were presented as percentages and continuous variables as the median (25%, 75% quantiles). The differences between categories for the clinical diagnosis of pulpitis were assessed using the Kruskal–Wallis test (comparison of &gt; 2 groups) or Wilcoxon rank sum test (comparison of = 2 groups) for continuous and ordinal distributed variables, and the chi-squared test for categorical variables. A linear regression analysis was used to assess the association between the difference in EPT values, and the different types of pulpitis were assessed using a univariate analysis. For further analysis, multivariate logistic regression was used to analyze the associations between the difference in EPT values and clinical diagnosis of pulpitis after adjustment for potential confounding factors. The receiver operating characteristic curves were generated to assess the predictive probability of the difference in EPT values with regard to the differential diagnosis of the two types of pulpitis. The differences in EPT values were converted into categorical variables, and the P values were calculated for the trend. P &lt; 0.05 was considered statistically significant. Restricted cubic splines were also used with four knots at the 5th, 35th, 65th, and 95th centiles to flexibly model the association between the difference in the EPT values and the risk of SIRP.</t>
+  </si>
+  <si>
+    <t>Data were analysed using SPSS version 20.0. Accuracy of components was determined from the AUC, calculated from receiver operating characteristic (ROC) curves. ROC scores above 0.50 indicated that the component had better predictive power than by chance alone. Nonoverlapping 95% confidence intervals (CI) suggested statistically significant differences between components. Cronbach’s alpha coefficient () and the intraclass correlation coefficient (ICC) measured internal consistency.</t>
+  </si>
+  <si>
+    <t>When developing a predictive model in multiple samples, a recommended approach consists in selecting and tuning the best model in one a priori selected sample and assessing its performance in the remaining independent samples for external validity. Because the evaluation of internal performance within the same sample where the model was derived is affected by overfitting, internal validation optimism correction should be performed. Among the most accepted techniques for internal validation is bootstrap resampling. We have developed the predictive model in the ALSPAC cohort. We ran a logistic regression including outcome (ADHD at last assessment) as the dependent variable and all eligible predictor variables as covariates. We inspected linearity assumptions of continuous variables by plotting the predictor and the logit of the outcome, and trough Box–Tidwell regressions. We derived the model using linear splines of equal sample sizes (with knots at 25th, 50th and 75th percentiles) in the ADHD symptom variable, and this model had better fit indices (AIC, BIC). Multiple imputation with chained equations (ten imputations) using the remaining predictors was used to deal with missing values in the predictor variables. We used a fixed number of ten iterations and assessed convergence with trace plots. In the ALSPAC cohort, for each of the 1000 bootstrap resamples, we have performed pooled regression coefficient estimates and variance across imputations with the command mi estimate in Stata (Rubin, Reference Rubin1987). We evaluated the predictive discrimination of the probability model calculating the area under the receiver operating characteristic curve (c-statistic) of the estimated probability against the actual outcome as an index of model performance. We have assessed optimism of internal validation with bootstrap inference using 1000 replications with the R package rms (Harrell et al., Reference Harrell, Lee and Mark1996). We have assessed internal and external model calibration with calibration curves, plotting predicted probabilities against observed frequencies. Extreme predictions at the right end of the distribution (highest risk) including &lt;1% of the sample at risk were excluded of the calibration analyses to avoid instability of the estimates, and these ranges are not shown in each graph. Multiple imputation and model generation were conducted in Stata MP 13.0. Finally, we tested the predictive discrimination of the same predictors using Machine Learning approaches with the R package caret (see eMethods). We performed several sensitivity analyses to assess the robustness of our findings. We analysed the performance (measured by the c-statistic) of the model among individuals who endorsed a very low number of ADHD symptoms at baseline (operationalised as equal or below the median of each population) in ALSPAC, E-Risk and Pelotas samples. We had also analysed the performance (measured by the c-statistic) of the model excluding one variable at each time. Finally, we present the variation of the predicted probability within fixed levels of ADHD symptoms to assess the contribution of the remaining variables to the model.</t>
+  </si>
+  <si>
+    <t>The Shapiro–Wilk normality test was used to investigate normal distribution of continuous variables. Continuous and not normally distributed variables are presented as medians with interquartile ranges (IQR). The Wilcoxon rank-sum (Mann–Whitney U) test was used for not normally distributed variables. Comparison between categorical variables was performed using the Fisher’s exact test and the Chi-square test. The median follow-up for evaluation of CSM and ACM was calculated with the reverse Kaplan–Meier method [6]. Cancer-specific survival (CSS) and overall survival (OS) rates were estimated using the Kaplan–Meier method; the log-rank test was employed to compare survival curves. Univariable and multivariable analyses (Cox proportional-hazards regression models) were conducted to assess the influence of clinical and pathological parameters on CSM and ACM. The scrutinised clinical and pathological criteria of the study were adjusted according to date of APE within the Cox models. In all Cox models, proportional hazards’ assumptions were verified using the Grambsch–Therneau residual-based test. The clinical impact of the various invasion patterns (VAG or UT versus VAG + UT) in multivariable models was assessed using receiver operating characteristic (ROC) analysis. Identification of area under curve (AUC) values (c-indices) for assessment of the predictive accuracy (PA) was performed according to Harrell [7]. Briefly, for comparison of the Cox models with and without integration of invasion patterns, the changing value of the c-index was analysed. In this context, a c-index of 1.0 indicates a perfect discrimination of the model between women with different outcomes, whereas a value of 0.5 is equivalent to coin toss, indicating that the model contains no predictive information. The c-indices were compared according to the Mantel–Haenszel test. A total of 1,000 bootstrap samples were used for internal validation and to reduce bias due to overfitting. Based on these bootstrap samples, which were drawn at random by replacement from the complete dataset, the coefficients of the final regression model were estimated and tested in the original sample. The differences between the coefficients in the original sample and the bootstrap samples, which are reflected by the slope index (or shrinkage index), are the measure for the amount of optimism. Normally, slope values range between 0 and 1 with a slope value of 1 displaying no optimism. Data were analysed using the R statistical package (v.2.12.2) and SPSS 19.0 (SPSS Inc. Chicago, IL, USA). Reported p values are two-sided with the statistical significance level set at p ≤ 0.05.</t>
+  </si>
+  <si>
+    <t>Continuous variables that did not satisfy the normality test are presented as median values with interquartile ranges. Categorical variables are presented as frequencies and percentages. Differences between MT and no-MT groups were tested using the Mann-Whitney U-test for continuous variables. The Fisher's exact test or chi-square test was used for comparison of categorical variables, as appropriate. Receiver operating characteristic (ROC) analysis was performed to examine the prognostic performance of GB, PER, and MEW scores for predicting MT. The comparison of dependent ROC curves was performed using the method of DeLong, et al.17 Optimum cutoff values were determined using Youden's index. ROC analyses were also performed in stratified groups (patients with varix and those with non-varix). Then, additional analysis was performed to examine the relationship between varix status and MEW score. Logistic regression analysis was used to identify independent risk factors for MT after adjusting for relevant covariates. All variables with a p value &lt;0.1 on univariate analysis were included in the logistic regression. Factors with a p value &lt;0.05 in the multivariate logistic regression model were considered final adjusted variables. Respiratory rate, GCS ≤12, and hemoglobin, BUN, and fibrinogen levels were selected as adjusted variables. Backward selection was used to achieve the final model. Subgroup analysis was performed according to the type of intervention and timing of intervention to examine the relationship between intervention and outcome. Data were analyzed using PASW/SPSS™ software, version 18 (SPSS Inc., Chicago, IL, USA). The ROC curves were calculated and compared using MedCalc version 16.1 (MedCalc Software, bvba, Ostend, Belgium). A two-sided significance level of 0.05 was used for statistical significance.</t>
+  </si>
+  <si>
+    <t>Data are shown as the mean and standard deviation for age, and median in other data. The chi-square test, Fisher’s exact test, or Mann-Whitney U test was used for comparisons between the two groups. Receiver operating characteristic (ROC) curves were used to evaluate the efficacy for predicting ROSC and to determine the cut-off point with the Youden index. The optimal cut-off point is the one that maximizes the sum of sensitivity and specificity employed the Youden index approach. IBM SPSS Statistics 22 was used for the statistical analysis. Statistical significance was assumed to be present at a p value of less than 0.05.</t>
+  </si>
+  <si>
+    <t>Patient characteristics were compared using the chi‐square test or the independent samples t test. To compute the 4‐item PRECISE‐DAPT score, hazard ratios (HR) for its variables, as reported in the appendix of the PRECISE‐DAPT derivation study, were used to calculate the corresponding beta coefficients.17 The sums of truncated predictor variables times their respective beta coefficient were scaled and rounded to an integer between 0 and 100.17 The variable for creatinine clearance, used to determine the PRECISE‐DAPT score, was computed using the Chronic Kidney Disease Epidemiology Collaboration formula.27 Kaplan‐Meier event rates for major bleeding were estimated for patients with high (≥25) or non‐high PRECISE‐DAPT score (&lt;25) and compared with the log‐rank test as well as with univariable Cox regression. The performance of the PRECISE‐DAPT score to predict major bleeding was tested in receiver operating characteristic analyses with 95% CI for the c‐statistic. As a sensitivity analysis, patients with missing values for creatinine clearance and hemoglobin were included in the study population and multiple imputation was performed for missing values using 10 imputations and 10 iterations for every imputation. The score was further analyzed among several traditional high bleeding risk subgroups: elderly (≥75 years), underweight (&lt;60 kg), women, patients with anemia (hemoglobin &lt;120 g/L for women, &lt;130 g/L for men), patients with kidney dysfunction (creatinine clearance &lt;60 mL/min per 1.73 m2), and patients with cancer (within 3 years). Furthermore, univariable and multivariable Cox regression was used to identify baseline patient characteristics that were associated with major bleeding or stent thrombosis. The risk of stent thrombosis was assessed during the first year after DAPT discontinuation using DAPT discontinuation as time point zero. Variables with a P&lt;0.2 in the univariable analyses were included in the multivariable models. Analyses were done using IBM SPSS (version 25) or Stata (version 15.1). A 2‐tailed P&lt;0.05 was considered to indicate statistical significance.</t>
+  </si>
+  <si>
+    <t>For descriptive statistics, continuous variables were presented as means ± standard deviations or medians with interquartile ranges, while categorical variables were presented as frequencies and percentages. Chi-square test and McNemar's-test was used for between-definition comparisons of incidence rates. Further, we established receiver operating characteristic curves to identify the best definition for outcome prediction. Moreover, we calculated the sensitivity, specificity, and the positive and negative predictive values of the BPD definitions for predicting long-term outcomes. All statistical analyses were performed using IBM SPSS Statistics for Windows, version 26.0 (IBM Corp., Armonk, NY, USA). All statistical tests were two-sided with statistical significance set at P &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>Data were analyzed using SPSS 16.0. Data were presented as mean ± standard deviation. Categorical variables were compared with the χ2 or Fisher exact tests, each when appropriate, and the effect of differences was established by calculating the odds ratio with the 95% confidence interval (95%CI). According to variable distribution, 1-way ANOVA or nonparametric Kruskal–Wallis test was used for multi-group comparisons. The nonparametric Mann–Whitney U test was used to compare median values between two groups for quantitative data. A difference between groups was considered to be significant if P &lt; 0.05. ROC analysis was carried out using SPSS 16.0 statistical software. ROC curves were plotted by comparing CRS scores among groups. AUC in the ROC plot, with the 95% confidence interval (CI) was calculated to discriminate early fibrotic versus late fibrotic ones, HCC from no HCC patients (Hanley and McNeil 1982). The sample size was calculated according to the website http://www.raosoft.com/samplesize.html [32].</t>
+  </si>
+  <si>
+    <t>We used the training dataset to fit the predictive models. The low percentage of revision (3%) constituted an imbalanced class within our dataset. To generate a more balanced dataset suitable for machine learning, we over-sampled revised observations and under-sampled unrevised observations using the R-package “ROSE” (default settings, except p = 0.1) [31]. In short, ROSE draws a synthetic sample by a smoothed bootstrap approach to create a modified training dataset with a more-even distribution of revised and unrevised observations. The modified training dataset is created from a conditional kernel density estimate, meaning that the modified dataset is drawn from the neighborhood of the revised/unrevised observations in the original dataset. By default, ROSE creates a 50-50 distribution, but in the present study we over-sampled revised observations to 10% and under-sampled the unrevised observations to 90% to keep the proportion of revisions within clinical reason. All machine-learning models were trained using 10-fold cross-validation to optimize the models’ hyperparameters. In short, we randomly split the modified training dataset in 80/20 fractions and fitted the models’ hyperparameters to 80% of the data, followed by testing the models on the remaining 20%. The tested hyperparameters were picked through random search and the parameters resulting in the best performing model was chosen. This procedure, including the random split of the training dataset, was repeated 10 times (that is, in a 10-fold cross-validation) to mitigate the risk of fitting the models’ hyperparameters to random noise within the training dataset (overfitting). Finally, the best performing hyperparameters over the 10-fold cross-validation were chosen for training of the final model on the entire training dataset. We created four different predictive models using the following four machine learning methods: the logistic regression with absolute shrinkage and selection operator, the random forest classifier, the gradient boosting model, and the neural network. Logistic regression with absolute shrinkage and selection operator (LASSO regression) was created through the R-package “glm-net” with default settings except shrinkage, which was optimized through the cross-validation [14]. Briefly, LASSO regression is based on a simple logistic regression including all available covariates. Subsequently, this regression is modified through L1-penalization, which adds a penalty to each covariate, thus reducing or eliminating covariates with less importance. This procedure guards against inclusion of noninformative covariates in the final model, resulting in a simplified model with optimized performance [44]. Second, we built a random forest classifier through the R-package “Caret” [27, 30]. The random forest classifier builds a “forest” of decision trees, each randomly selecting a subset of covariates used to split the training dataset in revised and unrevised observations. The final model is then averaged across all these trees to optimize the final predictions. In this study, the random forest classifier was predetermined to consist of 250 trees while the number of features (covariates) included in each tree and the minimum number of observations in each prediction-class were optimized through cross-validation. Third, we fitted a gradient boosting model building a group of decision trees like those in the random forest classifier. However, in contrast to random forest, the gradient boosting model collects the trees longitudinally and thus, each new tree builds on information from the previous tree. This method is sensitive to fitting the final model to random noise within the training dataset as the method boosts weak associations (overfitting the model). To counter this, the gradient boosting model was preceded by feature selection through the R-package “Boruta” (default settings). Boruta uses a random forest classifier to eliminate unimportant features (covariates) by comparing their importance with randomly constructed features. Boruta thus reduces the number of variables before fitting the gradient boosting model [28]. The gradient boosting model was fitted consisting of 2000 trees with interaction depth, shrinkage, minimal observations in terminal nodes, and fraction of the training dataset used in the next tree expansion (bag fraction) determined through cross-validation [17]. Finally, we built a supervised neural network through the R-package “Caret” [27]. A neural network is a “black-box” classifier consisting of layers and nodes imitating the human brain. The input layer is mathematically transformed into nodes interconnected through multiple “deep” layers, resulting in a final output layer [11]. After cross-validation, the input layer consisted of 76 variables processed through five hidden layers to construct the final prediction (or, output layer). To depict how the four models calculated their prediction, we used the varImp-function within the R-Package “Caret” which ranked the features by their importance in the final models [27]. For model comparison, we created a fifth model that a priori estimated a random probability for revision between 0 and 0.1 for all observations. The probability range was determined from the percentage of revision in the modified training dataset. This model is noninformative because it is not based on any of the included preoperative factors and predicts that all observations were unrevised within the follow-up. The four machine learning models and the noninformative model were validated and compared on the holdout year (2016). The validation dataset was left unadjusted and thus remained imbalanced with a lower percentage of TKA revision. The models’ predictions were evaluated by density plot, calibration plot, accuracy, and Brier score while their discriminative capacity (that is, how well they predict the outcome) was depicted by a receiver operator characteristic (ROC) curve and area under the curve (AUC). The density plot depicts the distribution of predicted probabilities divided by the actual outcome (revised/unrevised). The calibration plot graphically depicts the predicted probability against the observed probability and a well-calibrated model will approximate a diagonal line indicating agreement between the predicted and observed probabilities. The accuracy depicts the percentage of correct predictions and the Brier score is the mean distance from the predicted probability to the observed outcomes across the observations. Thus, a high accuracy and low Brier score indicate a precise model. The ROC curve depicts sensitivity against 1-specificity and collects these measurements from a range of probability thresholds. From the ROC curve, the AUC can be calculated and used to rank the models’ discriminative capacity as excellent (0.9 to 1), good (0.8 to 0.89), fair (0.7 to 0.79), poor (0.6 to 0.69), and failed (0.5 to 0.59) [12]. We defined an AUC of 0.7 as cutoff for a clinically meaningful model, indicating that the model correctly predicted the outcome in 70% of the cases. Categorical variables are presented by their distribution and continuous variables by their mean, SD, and range. Statistical significance in the comparison of the training and validation dataset is depicted with Bayes factor calculated in the R-package “BayesFactor” [33]. The Bayes factor enables an assessment of how well the datasets fit either the null hypothesis (H0) or the alternative hypothesis (H1). In contrast, the traditional p value only depicts the likelihood of observing a similar (or more extreme) result given that H0 is true [2]. The Bayes factor requires an a priori assumption of whether the H0 or H1 is expected, and in the current study, we expected the H0 for all comparisons (that is, we expected no substantial difference between variables in the training and validation datasets). The Bayes factor is the ratio between the marginal likelihood of the H1 and marginal likelihood of H0 given the observed data and thus, a high Bayes factor indicates evidence for H1 and against the null hypothesis, H0, in which meaningful differences between training and validation datasets were observed. Conversely, a low Bayes factor indicates evidence for H0, and against H1 [2]. As guidance, the Bayes factor can be scored as &lt; 0.01 (extreme evidence of the H0), &lt; 0.1 (strong evidence of the H0), &lt; 0.33 (moderate evidence of the H0), &lt; 1 (anecdotal evidence of the H0), &gt; 1 (anecdotal evidence of the H1), &gt; 3 (moderate evidence of the H1), &gt; 10 (strong evidence of the H1), and &gt; 100 (extreme evidence of the H1) [37]. The models’ accuracy, Brier score, ROC curve, and AUC are presented with a 95% confidence intervals calculated by stratified bootstrapping. All analyses were conducted in R© Version 3.5.1 (R Foundation for Statistical Computing, Vienna, Austria).</t>
+  </si>
+  <si>
+    <t>No statistical methods section</t>
+  </si>
+  <si>
+    <t>Values of continuous variables are presented as medians and interquartile ranges, and categorical data are presented as proportions. The distributions of severity, necrosis, organ failure, and death by BISAP point score were assessed with the Cochran-Armitage trend test. Sensitivity, specificity, positive predictive value (PPV), and negative predictive value (NPV) were calculated for individual scoring systems. Receiver- operating characteristic (ROC) curves were examined for optimal BISAP, Ranson, APACHE-II, and CTSI scores for predicting severity, necrosis, organ failure, and death using cutoffs values. The predictive accuracy of each scoring system was measured by area under the receiver-operating curve (AUC). AUC comparisons were also performed among other scoring systems at a time using the nonparametric approach developed by DeLong et al.[7] A P value of &lt;0.05 was chosen to be significant for all tests given the Bonferroni correction conducted among the study cohort. Associations of BISAP with hospital day was analyzed by univariate linear regression. All statistical calculations were performed with SAS 8.1 (Cary, NC, USA).</t>
+  </si>
+  <si>
+    <t>To evaluate the performance of the original SMART risk score from 2013 for the prediction of recurrent MACE [16], temporal validation was performed in the larger UCC-SMART dataset (Supplemental Table S2 for details on number of patients and events) with all patients and in strata of cardiovascular disease at baseline (coronary heart disease (CHD), cerebrovascular disease (CeVD), and peripheral artery disease (PAD)). External validation of the SMART risk score in the REACH datasets has previously been performed [18]. For the new prediction model, i.e. the extended SMART risk score, to estimate the risk of MACE+ (recurrent MACE and cardiovascular interventions combined), the predictors were selected from the original SMART risk score. A subsequent literature search did not provide additional predictors of incident cardiovascular interventions, resulting in the following 14 predictors: age, sex, current smoking (yes/no), history of diabetes mellitus (yes/no), systolic blood pressure (mmHg), total cholesterol (mmol/L), high density lipoprotein (HDL) cholesterol (mmol/L), high sensitive C-reactive protein (CRP) (mg/L), estimated glomerular filtration rate (eGFR) (mL/1.73 m2) (estimated by CKD-EPI formula [33]), time since first cardiovascular event (years), history of CHD (yes/no), history of CeVD (yes/no), history of PAD (yes/no), and history of aneurysm of the abdominal aorta (yes/no). Missing data (≤1% per variable in UCC-SMART, and in REACH 18% for kidney function, 17% for total cholesterol, 2% for current smoking, and &lt;1% for other variables) was singly imputed by predictive mean matching based on multivariable regression using both baseline and outcome data (aregImpute function in R, Hmisc package). Continuous predictors were truncated to the 1st and 99th percentile to limit influence of outliers (continuous predictors in the REACH datasets were truncated to the limits of these variables in UCC-SMART). A Fine and Gray competing risk-adjusted subdistribution hazard function [34,35] was developed in the UCC-SMART cohort for 10-year predictions. Non-cardiovascular death was considered the competing endpoint. Because of the longer follow-up period, the UCC-SMART dataset was preferred as derivation cohort. To improve the model fit, log and quadratic associations between continuous predictors and the outcome variable were assessed by comparing Akaike's Information Criterion (AIC) [36], and transformations were applied when appropriate. The proportional hazards assumption was assessed visually by plotting scaled Schoenfeld residuals and no violations were observed. The linear predictor was adjusted by a shrinkage factor, acquired by bootstrapping with a 1000 bootstrap samples, to account for optimism. External validation of the extended SMART risk score was performed in REACH Western Europe and REACH North America. As the predictors CRP, HDL cholesterol, and time since first cardiovascular event were not available in the REACH dataset, population averages of UCC-SMART were imputed for these variables. This method is preferred over excluding the predictor and performs similar compared to subgroup mean imputation and multiple imputation if the predictor is less important [37]. Model performance was assessed by the c-statistic (and ROC curves) for discrimination and calibration plots of predicted versus observed risks. The validation was performed for outcome data from 2 years of follow-up (approximation of median follow-up time), by implementing the 2-year baseline hazard from the derivation dataset (UCC-SMART) and using the same coefficients that were determined in the derivation set during model development. To adjust for variation in the underlying event rates, the expected observed ratio in the REACH Western Europe and the REACH North America study populations was used to recalibrate the model. Additionally, the risk score was validated in patients from REACH Western Europe and REACH North America in strata of cardiovascular disease at baseline (CHD, CeVD, and PAD) with the previously determined expected observed ratios. For the current study, abdominal aortic aneurysm (AAA) was not included in the definition of PAD. All analyses were performed with R statistical software (version 3.5.1). To enable the use of this newly developed risk model in daily clinical practice, an online calculator will be developed that allows estimation of 10-year risk of MACE+ for an individual patient.</t>
+  </si>
+  <si>
+    <t>We compare and contrast descriptive statistics of the study cohort to those used by each of the prognostic indicator development study, with the exception of NCI for which we used data from a validation cohort in a study focused on elderly incident RRT patients [28]. Data for all variables used in the prognostic indices are presented as means and standard deviations for continuous variables, and counts and frequencies for categorical variables. A score for each patient for each of the six prognostic instruments was calculated based on original model parameters specified in their respective development papers. Categorization into high and low risk groups also followed the classifications the original papers. A separate logistic regression model was run for each of the indices to predict death at 3 and/or 6 months post RRT initiation using the prognostic score as the independent variable. Indices were compared using the concordance (“c”)-statistic, corresponding to the ROC; higher c-statistic indicates a better preforming model. Sensitivity, specificity, positive and negative predictive values, and positive and negative likelihood ratios were also calculated. We created calibration plots to evaluate predicted probability of death vs. true observed mortality rate (true probability) in R using the “Presence-Absence” package. A Hosmer-Lemeshow goodness of fit test was performed for each index to assess whether differences between the observed and expected proportions of the outcome were significant, indicating poor model fit. The investigators and analysts were not blinded to the, tools, predictors or outcome.</t>
+  </si>
+  <si>
+    <t>Student’s t-test was used to determine statistical significance between two groups, with Bonferroni’s correction for multiplicity. Responses of ‘sometimes’ or ‘always’ were marked as indicative of presence of symptoms in this study. Symptom presence frequencies among subjects with FDT-VFAs and glaucomatous VFAs were compared with frequencies among normal subjects using the FDT test with odds ratios (ORs) and 95% confidence intervals (CIs) calculated using the Mantel–Haenzel method by stratification in 10-year increments to adjust for age. Using a logistic regression model, ORs and 95% CIs were calculated for the items significantly associated with FDT-VFAs and glaucomatous VFAs. The screening property of the summed score was used to determine the receiver operating characteristic (ROC) curve, and the area under the curve was subsequently calculated. All statistical analyses were performed using spss version 14.0 (SPSS Inc, Tokyo, Japan). Values were considered statistically significant at p &lt; 0.05.</t>
+  </si>
+  <si>
+    <t>Nominal data were compared using χ2 tests, and continuous variables were compared using Student’s t-test. Overall survival (OS) was calculated from the date of surgery to the date of death or the last follow-up using the Kaplan–Meier method, and data were compared using the log-rank test. For obtaining the MNRLN, the average rate of change in LN positivity was calculated in each interval of three LNs, and a P-value was calculated with linear regression analysis to determine whether the average rate of change was statistically different from 0. The 5-year OS rates between patients who were node-negative and -positive, stratified with the 7th T stage, were calculated with the Kaplan–Meier method. Patients who had at least one retrieved LN, a pathological R0 resection status, and T2M0 (n = 146) or T3M0 (n = 451) stage were included in the analysis. Patients who were T1 (n = 51) and T4 (n = 4) were excluded from this analysis because their population was too small to calculate survival statistics, the incidence of LN metastasis for patients who were T1 was too low, and curative-intent surgery was not performed for patients who were T4. To validate the 8th AJCC N stage, the total dataset was randomly divided: two-thirds for a training set and the remaining one-third for a testing set. To determine the optimal cut-off values of the number of metastatic LNs, a recursive partitioning technique was performed with the training set 13. The optimal cut-off value was obtained at the maximal log-rank statistics, and the training set was split into two groups using this value. Once a split was made, the recursive partitioning was performed again to obtain a further cut-off value and split the previous dataset. The result was visualized by a conditional interference tree (c-tree). For reducing the selection bias, this process was performed repeatedly 100 times, and the most frequent model was chosen. The testing set was then used to validate the proposed stage. A concordance index (C-index) was measured to evaluate the prognostic predictability of the three-tier system (8th AJCC) and that of the two-tier system (7th AJCC) 14. All statistical analyses were performed using SPSS version 22.0 for Windows (IBM Corp., Somers, NY, USA) and R version 3.2.5 (R Foundation, Vienna, Austria), including the ctree and survC1 packages. A two-sided P &lt; 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Variables with normal and non-normal distribution are presented as mean±standard deviation and median [25th,75th percentiles]. The sample was then divided according to the presence or not of carotid plaques or LVH, and differences between studied groups were evaluated by unpaired t-test for normally distributed variables, Mann−Whitney for non-normally distributed variables, and χ2 test for categorical variables. Univariate correlation analysis was performed using the Pearson’s method for variables with normal distribution or the Spearman’s method when including variables with non-normal distribution. Multivariable linear and logistic regression analysis evaluated the relationship between peak CWT and carotid wall variables adjusting for age, sex, and clinical variables that showed significant correlation with peak CWT. Multivariable logistic regression models between carotid wall layers and carotid plaques or LVH were built adjusting for age, sex, and clinical variables that were statistically different between the studied groups and were further evaluated by Akaike information criterion and log-likelihood test. The area under the receiver-operating characteristic curve for cIT, cMT, and cIMT to predict the presence of carotid plaques or LVH was calculated. From the receiver-operating characteristic curves, the optimal cutoff values for cIT, cMT, and cIMT with the highest sensitivity and specificity in predicting carotid plaques were identified. P-values&lt;0.05 were considered statistically significant. Statistical analysis was performed using Stata 14.1 (StataCorp, Texas, USA).</t>
+  </si>
+  <si>
+    <t>The predictive accuracy of grade 2 or greater pneumonitis (CTCAE version 4.0) following radiotherapy was assessed by AUC value of ROC analysis. AUC value is a quantitative value which can assess predictive accuracy of particular indices. AUC value has been used in many studies [19], [25], [26] because the different prediction from different dose-volume parameters can be easily understood. ROC analysis was performed by in-house MATLAB (The MathWorks Inc., Massachusetts, USA) software. This analysis enabled us to quantify how well different kinds of dose-volume parameters can predict the incidence of radiation pneumonitis. Additionally, the correlation between dose-volume parameters and pneumonitis was also evaluated by univariate analysis. Equality of variance and normality had been confirmed by F-test and Shapiro-Wilk test. Student’s t test was then applied to assess statistical significance with a significance level of 0.05. Statistical analysis was performed by JMP® Pro ver. 12.2.0 (SAS Institute Inc., North Carolina, USA).</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were used to describe the patient and practice characteristics. A missing data analysis was performed since length and weight (to calculate BMI) were not recorded structurally each year. We performed multiple imputation to complete missing values on BMI data, using 5 imputation sets. A larger number of imputation sets has been recommended. However, since our dataset consisted of a large number of patients, the difficulties of applying a large number of imputation sets (&gt;10) in a reasonable amount of time outweighed the benefits. Practices, main outcomes and predictors were included in de imputation models. We also included practice in the imputation models to account for clustering effects. To assess which patient factors were associated with clinical processes and outcomes of diabetes care, logistic mixed models were performed on the imputation models in order to obtain pooled results, taking into account the clustering of patients within practices. We ran six separate hierarchical logistic regression models, one for each of the outcome measures (HbA1c, BP and LDL-C measured, HbA1c, BP and LDL-C within target level). Target levels were set at 53 mmol/mol, 140 mm Hg and 2.5 mmol/l respectively. In each model, we included patient age, gender, number of diabetes related consults (above or below median), whether the patient lives in deprived area, BMI and presence of ICPC code related to CVD, COPD and / or depression and anxiety (dichotomous measures). We assessed the discriminative power of the model by calculating the area under the curve in the imputation sets (pooled AUC) and we also calculated pooled fixed effects (OR). In order to assess whether specific factors can be left out from the model without decreasing the effect size, we then reduced each of the 6 models in accordance with the maximum log-likelihood test (p&lt;0.10) and again calculated pooled fixed effects and pooled AUC's. The multiple imputation and logistic multilevel models were performed in R version 3.03. Descriptive statistics were performed in SPSS version 20.</t>
+  </si>
+  <si>
+    <t>Continuous data are presented as mean with standard deviation or median with interquartile range, depending on normality of distribution. Categorical data are presented as absolute number and percentage. Linear regression analysis was performed to compare means of VOP parameters between control limbs and those with post-thrombotic and non-thrombotic obstruction. To account for correlation between observations, a clustered sandwich estimator was used to calculate the variance.29 Receiver operated characteristic (ROC) curves were constructed for VOP parameters and areas under the curve (AUC), with 95% confidence intervals (CI) were calculated to assess their abilities to discriminate between obstructed and non-obstructed limbs. AUCs were also calculated to evaluate the ability of these VOP parameters to discriminate between patients who show clinically relevant improvement in QoL after stenting and those who do not. Clinically relevant improvement was defined as 0.5 times the standard deviation of change in VEINES-QOL/Sym one year after stenting.30 Sub-analyses were performed for post-thrombotic obstruction and those with patent stents. We decided not to perform a sub-analysis for non-thrombotic iliac vein obstruction because of the low sample size of patients with QoL data and treatment for such an obstruction (n = 8). QoL before and after stenting were compared using a paired-samples t-test. AUC analysis and graphs were obtained using GraphPad Prism version 5.04 (GraphPad Software, San Diego, CA, USA). Other statistical analyses were performed using SPSS version 21.0 (IBM Corporation, Armonk, NY, USA) or Stata/IC version 13.1 (StataCorp, College Station, TX, USA).</t>
+  </si>
+  <si>
+    <t>Data were analyzed using analysis of variance (ANOVA), nonparametric test, Chi-squared test, paired t test, and pooled t test. The overall diagnostic performance for each fibrosis index was evaluated by area under receiver operating characteristics (AUROC) curve analysis. Index with the highest AUROC was validated by calculation of its sensitivity, specificity, positive predictive value (PPV), negative predictive value (NPV) and accuracy for ruling in (confirmation) or ruling out (exclusion) each fibrosis stage. Kappa value (κ) was calculated to measure the significance of agreement between the 2 pathologists. A P-value &lt;.05 was considered statistically significant. All statistical analyses were performed using JMP version 13, SAS Institute, Inc., Cary, NC.</t>
+  </si>
+  <si>
+    <t>A retrospective study was performed in adults aged 18 years or more in the United Network for Organ Sharing (UNOS) registry who received LTx from May 2005 until December 2015, with follow-up through March 2017. The study was deemed exempt from review by the Nationwide Children’s Hospital Institutional Review Board. First-time LTx were distinguished from rLTx of one or both lungs. Among patients requiring more than one rLTx, the first rLTx was included in the analysis. Transplants involving another organ or missing data on LAS, patient survival, or graft survival were excluded. The initial transplant type (single versus double) was not controlled in the rLTx group, as previous data suggested that did not impact graft outcomes [7] . For multivariable modeling, cases with missing covariate data were excluded. The primary outcomes were 1-year mortality and 1-year graft failure [9] . Data analysis included bivariate logistic regression of 1-year LTx outcomes on LAS at transplant for first-time LTx and rLTx separately. Receiver-operating characteristics curve analysis was used to define the predictive utility of LAS in each type of transplant. The area under the receiver-operating characteristics curve (AUC) was compared between first-time LTx and rLTx to test whether LAS predicted LTx outcomes more reliably for primary LTx as compared with rLTx [10] . Subsequent multivariable logistic regression analysis was performed to describe the adjusted association of LAS and its components with outcomes of primary LTx and rLTx. The first model included the LAS and adjusted for donor variables (age, sex, race, diabetes status, cigarette use, pulmonary infection, cause of death); recipient variables (sex, race, albumin, forced expiratory volume in 1 second, pretransplant extracorporeal membrane oxygenation, smoking history, number of human leukocyte antigen mismatches); and surgical variables (single versus double transplant, ischemic time, annual center lung transplant volume). The second multivariable model added the LAS component variables at the time of transplant (age, body mass index, creatinine, total bilirubin, partial pressure of carbon dioxide, forced vital capacity, 6-minute walk distance, supplemental oxygen requirement, continuous mechanical ventilation before transplant, mean pulmonary artery pressure, pulmonary artery systolic pressure, pulmonary capillary wedge pressure, cardiac output, functional status, and diabetes status). We also described the indication for primary LTx, time on waiting list until primary LTx, and time from primary LTx to rLTx, if applicable. Multivariable models were fitted separately to the primary LTx and rLTx groups, and the magnitude of odds ratio associated with each covariate was compared by fitting a fully interacted model where each covariate was allowed to vary according to the type of transplant [11] .</t>
+  </si>
+  <si>
+    <t>Overall survival was calculated from the date of diagnosis. Patients alive at last follow-up were censored at that date. Locoregional recurrence-free survival (LRFS) and distant recurrence-free survival (DRFS) were similarly calculated from the date of diagnosis, with patients alive without evidence of locoregional or distant recurrence, respectively, being censored at the date of last follow-up. Kaplan-Meier was used to compare estimated rates of OS, LRFS, and DRFS. The log-rank test was used to evaluate the significance of outcome distribution. Concordance statistics (C-indices) were calculated to compare the discriminating ability of each staging system. Multivariate Cox regression, accounting for the AJCC eighth edition clinical group stage, was used to correlate age and smoking status with OS, LRFS, and DRFS. Age was considered as a continuous variable and smoking history was analyzed using multiple cutoffs, as detailed below.</t>
+  </si>
+  <si>
+    <t>The overall strategy of this analysis was to determine hospitals' risk-adjusted complex SSI rates and rankings, using 3 different methodologies: the HACRP method (HACRP model); the Society for Healthcare Epidemiology of America method, published in “Improving Risk-Adjusted Measures of Surgical Site Infection for the National Healthcare Safety Network” (NHSN model)5; and the MSQC method (MSQC model).12 The HACRP is designed to financially penalize hospitals with higher “HACRP scores.” A hospital's HACRP score is determined by combining the SSI measure with other measures. For each measure, a performance decile has been assigned with a different score for each decile (in 2018 this decile method will change to a z-score method, as discussed below).1 For the SSI measure, hospitals have been receiving a score from 1 to 10, with 10 representing worst performance. In our simulation, we replicated this “decile” methodology for the SSI measure. In the HACRP, financial penalties are assigned for the hospitals with the highest 25% of scores. For the HACRP and NHSN risk-adjustment models, covariates were used in accordance with published methodologies.1, 5 For HACRP, age and ASA were in the model, mirroring the method of the HACRP. For the NHSN model, covariates included (for both hysterectomy and colectomy) age (in deciles for hysterectomy; &gt;75 years for colectomy), ASA status ≥ 3, duration of procedure (per 10 minutes), and hospital bed size (&gt;500 beds vs ≤500) for both colectomy and hysterectomy.5 For colectomy, Mu and colleagues5 also included wound classification, laparoscopic, and teaching hospital status, so these were also included. Covariates for the MSQC models were empirically chosen by first performing bivariate analyses to determine which clinically relevant covariates were associated with the outcome, complex SSI. Analysis was performed separately for the hysterectomy cohort and the colectomy cohort. Significance for categorical variables was assessed using chi-square tests or with Fisher's exact test in the case of small cell sizes. For continuous variables, either parametric t-tests or Wilcoxon-Mann-Whitney tests were performed, as appropriate. A multivariable logistic regression was then performed of candidate variables using stepwise selection, but forcing in clinically important variables (eg urgent/emergent). To adjust for site clustering, a hierarchical model was used. The covariates in the MSQC model for hysterectomy were age, surgical duration, laparoscopic, gynecologic cancer, and blood transfusion. For colectomy, covariates were age, ASA status ≥ 3, surgical duration, laparoscopic, wound classification, immunosuppression, BMI, tobacco use, and urgent/emergent case priority. For each cohort, hospital-specific observed or predicted counts of complex SSI events were determined, as well as expected counts. For the HACRP model, we applied risk adjustment via multivariable logistic regression and calculated hospital-specific expected counts of events given an average case mix. For the NHSN analysis, we applied their risk adjustment methodology by creating identical coding for covariates used in their logistic regression models for hysterectomies and colectomies, for complex SSIs. For the MSQC model, we developed a risk and reliability adjusted multivariable logistic regression (hierarchical model) with hospital random effects that calculates the predicted count given the hospital's specific case mix. For the HACRP and NHSN models, observed-to-expected ratios were calculated by summing counts of the observed number of complex SSIs for that procedure group, and calculating the total expected based on risk adjustment. For the MSQC model we calculated the predicted-to-expected ratio. We prefer predicted-to-expected ratios in provider comparisons derived from hierarchical models, because they account for inaccuracy in the “observed” rate when sample sizes are small.13 We calculated all hospital-specific 95% CIs on the predicted-to-expected or observed-to-expected ratios, respectively. For each risk adjustment methodology, we ranked all hospitals from lowest to highest observed-to-expected or predicted-to-expected ratio to identify “performance deciles,” using a caterpillar plot, with statistically significant outliers also identified, where confidence interval bands do not cross the reference line of 1. To demonstrate changes between models in hospital decile scores, all hospitals were categorized into deciles based on their model-derived rank, and ladder plots were constructed to show those that changed decile between models. For example, to compare risk adjustment using HACRP vs MSQC models, ladder plots indicating changes in deciles between models are shown. This methodology allows visual inspection of the sensitivity of hospital performance assessment to risk adjustment method used. We assessed model fit by reviewing C-statistic as a measure of concordance, and we also considered all candidate models by minimizing the Akaike Inflation Criterion (AIC), where a lower value indicates a better fit. Statistical differences between model C-statistics were tested with the Hanley-McNeil test. All analyses were conducted using SAS Version 9.4. This study met the criteria for “not regulated” status by the University of Michigan Institutional Review Board-Medical.</t>
+  </si>
+  <si>
+    <t>The outcome was the proportion of fetuses with the RA PSV, RA SDR, and RA PI &gt; 95th percentile compared with the proportion of fetuses with CPR &lt; 5th or UA PI &gt; 95th percentile associated with the composite neonatal outcome. McNemar’s test and the Kappa value were calculated to determine the agreement between the CPR and the other measured parameters. We used AUROC to detect the composite neonatal outcome using the various Doppler indices. We then compared the areas under the curves between the CPR and the UA PI to the RA SDR, RA PI, and RA PSV. A post-hoc power analysis using data from previous work has determined that abnormal CPR is present in 35% of fetuses that have abnormal fetal heart rate tracings, ultimately require cesarean section for delivery due to fetal distress, develop neonatal comorbidities or require neonatal intensive care unit admission [Citation12,Citation23,Citation24]. To demonstrate the superiority of the RA PI in detecting fetuses at risk for morbidity, we would need to demonstrate increased detection from the current 35% with CPR to as high as 50% with the RA PI. Power analysis assuming an improvement in detection from 35% to 50%, a type I error of 0.05 and a power of 0.8, would require 90 women to undergo Doppler surveillance to detect a difference between the CPR and the RA PI.</t>
+  </si>
+  <si>
+    <t>All analyses were conducted using Epidat 3.1 software. Subjects participating in the study were described using measures of central tendency and dispersion for quantitative variables and percentages for qualitative ones. For TI validation, a sample size of 186 subjects with MTB and 372 without it, was estimated using Epidat 3.1 diagnostic testing module. The following values were taken: sensitivity and specificity values - which, based on Thwaites's study - were 86% and 79% respectively [8], a disease free/with disease ratio of 2, a 95% confidence level and 5% precision. The analyses conducted to validate the TI were divided in two groups: ability to distinguish MTB from BM and ability to distinguish MTB from non-tuberculous meningitis. The area under the curve of the receiver-operator characteristics (AUC-ROC) was estimated for each analysis. Similarly, sensitivity, specificity as well as positive and negative likelihood ratios (LR + and LR −) were calculated for each possible cut-off score along with their respective confidence intervals of 95% (95% CI). Separate analyses were performed for children (aged between 7 and 14 years) and adults with and without HIV. Furthermore, since having partially treated meningitis may modify the diagnostic features of the TI for distinguishing MTB from BM, a sensitivity analysis was conducted for patients with and without a history of this.</t>
+  </si>
+  <si>
+    <t>Continuous variables were expressed as median and interquartile range (IQR). The statistical performance of the RNN for malignancy and high grading was assessed according to discrimination, calibration, and clinical usefulness. The discriminatory ability of the RNN was evaluated by comparing the distribution of the estimated probability of malignancy in the groups of benign and malignant tumors and comparing the distribution of the estimated probability of aggressiveness in low- and high-grade renal cell carcinomas (RCCs). The Mann-Whitney U test was used to test the null hypothesis that the 2 populations had the same distribution. In addition, the discrimination power of RNN was also investigated by estimating the area under the receiver operating characteristic (ROC) curve (AUC) in the validation set. The AUC 95% confidence intervals (CIs) and the P value of the test on the null hypothesis that AUC = 0.5 (no predictivity) were estimated using the bootstrap method with 1000 replications. The agreement between observed frequencies and predicted probabilities was evaluated using the (scaled and unscaled) Brier score, the Spiegelhalter z-statistics, and calibration plots. Clinical usefulness was assessed using decision curve analysis.13 This technique estimates a net benefit for RNN by summing the benefits (positive findings) and subtracting the harms (false-positive findings). Net reduction in unnecessary interventions per 100 patients was also estimated. The strength of the association existing between each component of the RNN and the histological outcome was assessed using odds ratios (ORs) from uni- and multivariable logistic regression, in which the exophytic/endophytic, nearness, location (L), and hilar scores were considered as categorical variables. The statistical significance of each association was evaluated using the likelihood ratio test. The null hypothesis of absence of association between 2 categorical variables was tested using the Fisher exact test. Differences were considered significant at P &lt; .05. Statistical analyses were performed using Stata11 (StataCorp, College Station, TX) and R (version 3.0.2; R Foundation for Statistical Computing, Vienna, Austria) statistical software.</t>
+  </si>
+  <si>
+    <t>The sensitivity, specificity, positive predictive value (PPV), and negative predictive value (NPV) were calculated as measures of the diagnostic accuracy of the OSA-18, compared to the gold standard, PSG-AHI. The Spearman rank correlation coefficient was used for correlations between TSS and AHI and for correlations between the score from the subscale of sleep disturbance and the AHI. The area under the curve (AUC) was obtained from receiver operating characteristic (ROC) curves to assess the predictive capacity of the TSS from OSA-18. Statistical analyses were performed using Statistica 5.0 and SPSS version 18 (SPSS Inc., Chicago, IL, USA).</t>
+  </si>
+  <si>
+    <t>Statistical analysis was performed using SPSS v. 19.0 (IBM Corp., Armonk, NY, USA). Data are shown as mean ± SD or median with interquartile range (IQR) for continuous variables, and as n (%) for categorical variables. Univariate comparisons of dichotomous variables were performed using the chi-square test with continuity correction. Comparisons of continuous variables were performed using Student's t-test to assess the difference between means. The association between the study outcomes and relevant risk factors was investigated using multivariate logistic regression analysis and presented as odds ratio (OR) with 95% CI. The predictive accuracy of weight discordance for mortality was assessed using the area under the receiver-operating-characteristics curve (AUC). Sensitivity, specificity, positive and negative likelihood ratios, and diagnostic ORs were calculated for BW-discordance cut-offs of ≥ 10%, ≥ 15%, ≥ 20%, ≥ 25% and ≥ 30%. Two-sided P-values were calculated. A P-value ≤ 0.05 was considered to indicate statistical significance. This study was reported following the STROBE guidelines.</t>
+  </si>
+  <si>
+    <t>For 118 participants of the initial sample of 1002, we did not collect data on one or more performance measures at baseline. In the remaining sample of 884 participants, we performed separate Cox proportional hazard regression analyses to evaluate the association of each performance measure and SPS on time to onset of incident progressive and catastrophic disability versus no disability. We excluded from the analyses any participants who reported a specific disability at baseline or at the first 6-month follow-up. We considered the first report of disability at follow-up as the event of new disability, regardless of disability status reported in subsequent follow-up interviews. Those surviving with no evidence of new disability were censored at 3 years, those dying with no evidence of new disability were censored at the time of their deaths, and those lost to follow-up were censored at their last interview. To permit direct comparison among performance measures and scores, relative risks (RRs) for the onset of events were presented per standard deviation (SD) increase. We adjusted the analyses for age and race. In additional analyses, we constructed receiver-operator characteristic (ROC) curves to compare the relative predictive ability of performance measures and scores. We calculated areas under the curves (AUC) and compared these areas with the method of Hanley and McNeil (31). We performed analyses using SPSS, version 10.1 (SPSS, Chicago, IL).</t>
+  </si>
+  <si>
+    <t>Descriptive statistics were used for demographic variables, expressed as mean and standard deviation in the case of continuous variables with a normal distribution. In case of an asymmetrical distribution, the median and interquartile range (IQR) values were used. Noncontiguous variables were presented as frequencies. The Shapiro-Wilk test was used to determine a normal distribution. The Student t-Test was used to compare continuous variables with a normal distribution, the Mann-Whitney test for ordinate and continuous variables with a non-normal distribution, and the Chi-squared test for the differences in frequency. The diagnostic yield for the four tests were analyzed using standard parameters. For this purpose, patients were classified as having or not having prostate cancer. Statistical significance was defined as a value less than 0.05; all tests were two-sided. Area under the curve analysis was performed using the online program Vassarcalc. The sample size was calculated using the on-line MedCalc, assuming 40% of biopsies would be positive for cancer of which 25% would be clinically insignificant in a Chilean population with a PSA of 4-10 ng/ml and using an alpha value of 0.05, a power to detect of 80% with a confidence interval of 95% then a minimum of 843 patients would need to be included in the study</t>
+  </si>
+  <si>
+    <t>Continuous variables were reported as medians with interquartile range (IQR); categorical variables were reported as whole numbers and percentages. Univariable comparisons for continuous variables were performed using the Kruskal-Wallis test, and for categorical variables using the Pearson chi-square test. Multiple imputations were performed using the MICE package for R version 3.0.3 (www.r-project.net) to account for missing data for preoperative hemoglobin (14.8%), ECOG score (16.9%), CCI (1.3%), and ASA (3.8%). The primary outcome of the study was 1-year mortality, calculated from the date of surgery to the date of death or last available follow-up, as appropriate. One-year mortality was estimated using the Kaplan-Meier method, and differences in survival between patient groups were compared using the log-rank test. To identify preoperative risk factors for 1-year mortality, multivariable Cox-proportional hazards regression analysis was performed using a backward stepwise selection based on Akaike Information Criterion (AIC). Model performance was assessed using Harrell's concordance index (C-index), and bootstrap resampling was performed to quantify model overfit. Regression coefficients from multivariable regression analysis were reported as hazard ratios (HR) with 95% confidence intervals (95% CI); beta coefficients from the multivariable model were subsequently used to develop a nomogram to predict the probability of 1-year mortality after surgery. All statistical analyses were performed using STATA version 14.0 (StataCorp) or R version 3.0.3 (http://www.r-project.org). Statistical significance was defined as p &lt; 0.05. The study was approved by the Johns Hopkins University Institutional Review Board.</t>
+  </si>
+  <si>
+    <t>Associations between the GRS and obesity-related traits (BMI, weight, waist circumference, obesity) were tested with linear and logistic regression models. These and subsequent models were adjusted for demographic and geographic control variables: age was specified as a linear and a quadratic term; a product term was included for the interaction between age and sex to account for sex differences in BMI and obesity distributions at different ages; and the four ARIC Study Centers where participants were enrolled in the study were entered as a series of dummy variables (this collection of variables is referred to hereafter as “demographics and geography”). Predictiveness of the GRS was evaluated using three metrics that are established tools for evaluating risk markers in general (CitationMcGeechan et al. 2008), as well as for evaluating the specific case of genetic risk scores (CitationMihaescu et al. 2010). The first metric was R 2, the proportion of variation explained in BMI. The second metric used was AUC, the area under the receiver-operating characteristic (ROC) curve for obesity, also known as the discrimination index. R 2 was estimated using demographics and geography-adjusted linear regression models. The AUC corresponds to the probability that a randomly selected obese case will have a higher GRS than a randomly selected nonobese control. A marker that discriminates no better than chance has an AUC of 0.50. A marker that discriminates perfectly has an AUC of 1. A related metric is the partial AUC (PAUC), which sets a specificity threshold and calculates an AUC-like statistic for that specificity. Analyses of PAUC for the GRS set specificity at 80 percent (the bottom fifth of the ROC curve). AUC and PAUC analyses were stratified by the ARIC Study Center using Pepe's method (CitationJanes and Pepe 2009). To determine whether the GRS improved discrimination over and above demographic and geographic information, we calculated a second set of statistics, delta AUC and delta PAUC. Probit regression models were used to generate predicted probabilities of obesity for each ARIC participant using a baseline model that included demographic and geographic information and a test model that also included the GRS. AUCs were calculated using these predicted probabilities as “risk scores” (CitationPepe, Cai, and Longton 2006), and estimates of the differences between the baseline and test models were bootstrapped to obtain confidence intervals. AUC analyses were conducted using the Stata package “comproc” (CitationPepe, Longton, and Janes 2009). 3) The third and final metric used was the integrated discrimination index (IDI) for obesity. The IDI evaluates the added predictiveness of a marker by comparing predictions made using a baseline set of risk markers to predictions that also include information about the new risk marker: where “Prob” is the average predicted probability for a particular group from a particular model. The IDI measures change in model sensitivity net of change in model specificity and is a more sensitive measure than delta AUC (CitationPencina, D'Agostino, and Vasan 2008). An IDI of zero indicates that the test model performs comparably to the baseline model. Positive IDI values index net improvement in model sensitivity. Baseline and test models for IDI analyses were identical to those used in delta AUC analyses. We tested differences between the predictiveness metrics for different risk scores by bootstrapping confidence intervals around the R 2 and AUC metrics (comparing the difference in estimated metric values across 1,000 random samples drawn with replacement from the ARIC database; see CitationPepe, Longton, and Janes 2009) and by applying Pencina's method (CitationPencina, D'Agostino, and Vasan 2008) to test change in the IDI metric. Comparisons were as follows: unweighted GRS versus weighted GRS; weighted GRS versus simple genetic risk assessment (the sum of risk alleles at the two best-replicated obesity loci: rs9939606, found in the gene FTO, and rs12970134, found downstream of the gene MC4R); weighted GRS versus socioeconomic index (educational attainment measured in six categories: grade school or less, some high school, high school graduate, vocational school, college, and graduate/professional school; information can be found in Supplementary Table 8).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1107,13 +2684,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1132,6 +2716,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
+    <sortCondition ref="B1:B101"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="link"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="correct"/>
@@ -1144,6 +2731,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
+    <sortCondition ref="B1:B101"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="link"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="correct"/>
@@ -1154,12 +2744,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C98CBA8F-A602-4616-99B1-C240BA219DA5}" name="Table32" displayName="Table32" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{C98CBA8F-A602-4616-99B1-C240BA219DA5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
+    <sortCondition ref="B1:B101"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CA96FF51-1C4C-411F-9F7D-25D7E9E11187}" name="link"/>
+    <tableColumn id="2" xr3:uid="{1AE89DB7-7082-4D51-A234-82CB996DC94A}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{CD2A89EF-B50E-46A9-BEBD-083058AC5880}" name="comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C101">
+    <sortCondition ref="B1:B101"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="link"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="correct"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AE869C36-E140-4AE4-94DC-61F6438873F3}" name="Table37" displayName="Table37" ref="A1:D101" totalsRowShown="0">
+  <autoFilter ref="A1:D101" xr:uid="{AE869C36-E140-4AE4-94DC-61F6438873F3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D71AC268-CDFD-44CE-8ECB-32A27F2506C4}" name="link"/>
+    <tableColumn id="2" xr3:uid="{27BBE55B-4AE2-42DC-AD21-733E78F76540}" name="correct"/>
+    <tableColumn id="3" xr3:uid="{670E6398-6D79-43E0-9CEC-4E11F35C2870}" name="comments"/>
+    <tableColumn id="4" xr3:uid="{315CD2BD-6784-496E-919F-6B4AEBE566D2}" name="methods"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1446,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,31 +3091,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1502,7 +3132,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1510,7 +3140,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1518,7 +3148,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1526,7 +3156,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1534,7 +3164,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1542,7 +3172,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1550,7 +3180,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1558,18 +3188,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -1577,7 +3204,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -1585,40 +3212,34 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -1629,7 +3250,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -1640,7 +3261,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -1651,7 +3272,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -1662,18 +3283,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1684,29 +3305,29 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -1717,29 +3338,29 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -1750,7 +3371,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -1761,7 +3382,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -1772,7 +3393,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -1783,7 +3404,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -1794,7 +3415,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -1805,7 +3426,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1816,7 +3437,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -1827,7 +3448,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -1838,7 +3459,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -1849,7 +3470,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -1860,7 +3481,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -1871,7 +3492,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -1882,7 +3503,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -1893,7 +3514,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1904,7 +3525,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1915,18 +3536,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -1937,7 +3558,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -1948,7 +3569,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -1959,7 +3580,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -1970,7 +3591,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -1981,7 +3602,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -1992,7 +3613,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -2003,7 +3624,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -2014,7 +3635,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -2025,7 +3646,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -2036,7 +3657,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -2047,7 +3668,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -2058,7 +3679,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -2069,7 +3690,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -2080,7 +3701,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -2091,7 +3712,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -2102,7 +3723,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -2113,7 +3734,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -2124,7 +3745,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -2135,7 +3756,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -2146,7 +3767,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -2157,7 +3778,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -2168,7 +3789,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -2179,7 +3800,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -2190,13 +3811,13 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>335</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,11 +4160,1320 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C48895-6D90-4BF3-8345-374F37AA1686}">
+  <dimension ref="A1:D92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D15" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>471</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D18" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D20" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>480</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D25" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D26" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D27" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>485</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D31" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>488</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D34" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>490</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>492</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D37" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>494</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>495</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D40" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>497</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>499</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>500</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>501</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>503</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>504</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>505</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D51" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>506</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>507</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>508</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>509</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>510</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>511</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D57" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>512</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>513</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>514</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D60" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>516</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D62" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>517</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>519</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D65" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>520</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>521</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>522</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>523</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D69" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>524</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>525</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>526</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>527</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>528</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>529</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>530</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>531</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>532</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>534</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>535</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>536</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>537</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>538</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>539</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>540</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>541</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>542</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>543</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>544</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>545</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D91" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>546</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>856</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{5358BF68-9879-4E05-8713-2F17FA81C561}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{6FB4E4AD-9253-4A96-9720-A9C801E4539E}"/>
+    <hyperlink ref="A36" r:id="rId3" xr:uid="{2D5898A2-589F-4103-9A63-E36E4536727D}"/>
+    <hyperlink ref="A61" r:id="rId4" xr:uid="{A819D679-A3B1-4269-B3B8-5F07F24A7A6B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,139 +5495,139 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>340</v>
+        <v>178</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2708,7 +5638,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2719,7 +5649,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2730,7 +5660,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2741,7 +5671,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2752,7 +5682,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2763,7 +5693,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2774,7 +5704,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2785,7 +5715,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2796,7 +5726,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2807,7 +5737,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -2818,29 +5748,29 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>342</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -2851,7 +5781,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2862,7 +5792,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -2873,7 +5803,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -2884,7 +5814,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -2895,7 +5825,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -2906,7 +5836,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -2917,18 +5847,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -2939,7 +5869,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -2950,7 +5880,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -2961,7 +5891,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -2972,7 +5902,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -2983,7 +5913,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -2994,7 +5924,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -3005,18 +5935,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>344</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -3027,7 +5957,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -3038,7 +5968,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -3049,7 +5979,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -3060,7 +5990,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -3071,7 +6001,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -3082,7 +6012,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -3093,7 +6023,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -3104,7 +6034,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -3115,7 +6045,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -3126,7 +6056,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -3137,7 +6067,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -3148,18 +6078,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>346</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -3170,7 +6100,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -3181,18 +6111,18 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>345</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -3203,7 +6133,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -3214,7 +6144,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -3225,18 +6155,18 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -3247,7 +6177,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -3258,18 +6188,18 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -3280,7 +6210,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -3291,7 +6221,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -3302,7 +6232,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -3313,7 +6243,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -3324,7 +6254,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -3335,7 +6265,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -3346,7 +6276,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -3357,7 +6287,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -3368,18 +6298,18 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>347</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -3390,18 +6320,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>348</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -3412,7 +6342,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -3423,18 +6353,18 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -3445,7 +6375,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -3456,18 +6386,18 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>345</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -3478,7 +6408,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -3489,7 +6419,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -3500,18 +6430,18 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -3522,7 +6452,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
@@ -3533,7 +6463,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
@@ -3544,7 +6474,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -3555,7 +6485,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -3566,7 +6496,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -3577,18 +6507,18 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>348</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -3599,7 +6529,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -3610,7 +6540,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
@@ -3621,24 +6551,24 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>350</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>349</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,12 +6602,1145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03985DC-70B5-4322-BD2C-52433D8D8375}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>394</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>396</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>398</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>399</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>403</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>404</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>405</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>407</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>410</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>413</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>414</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>415</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>417</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>419</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>420</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>421</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>422</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>428</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>429</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>430</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>431</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>433</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>434</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>435</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>436</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>437</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>438</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>439</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>440</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>441</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>443</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>444</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>445</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>446</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>447</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>448</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>449</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,414 +7774,414 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>315</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>316</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -4129,7 +8192,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -4140,18 +8203,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -4162,7 +8225,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -4173,29 +8236,29 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -4206,18 +8269,18 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -4228,18 +8291,18 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>320</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -4250,7 +8313,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -4261,18 +8324,18 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -4283,7 +8346,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -4294,29 +8357,29 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>321</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>322</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -4327,7 +8390,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -4338,18 +8401,18 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>322</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -4360,40 +8423,40 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>323</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>324</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -4404,18 +8467,18 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -4426,18 +8489,18 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -4448,7 +8511,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -4459,18 +8522,18 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -4481,7 +8544,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -4492,7 +8555,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -4503,7 +8566,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -4514,7 +8577,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -4525,7 +8588,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
@@ -4536,7 +8599,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -4547,7 +8610,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -4558,7 +8621,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -4569,7 +8632,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -4580,29 +8643,29 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>327</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -4613,7 +8676,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -4624,7 +8687,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -4635,7 +8698,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
@@ -4646,7 +8709,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -4657,29 +8720,29 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>328</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -4690,7 +8753,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -4701,7 +8764,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -4712,29 +8775,29 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>329</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -4745,7 +8808,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
@@ -4756,7 +8819,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B98" t="b">
         <v>1</v>
@@ -4767,13 +8830,13 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>329</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4805,4 +8868,1422 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB15A99A-42A0-40DC-B777-4AAF7BB69FC0}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>589</v>
+      </c>
+      <c r="D14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>597</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>599</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>601</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>603</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>605</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>607</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>610</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>612</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>614</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>617</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>623</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>627</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>629</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>631</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>633</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>635</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>637</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>639</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>641</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>643</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>645</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>647</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>649</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>651</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>653</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>655</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>657</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>659</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>661</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>663</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>665</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>667</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>668</v>
+      </c>
+      <c r="D53" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>670</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>672</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>674</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>676</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>678</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>680</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>682</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>683</v>
+      </c>
+      <c r="D60" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>685</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>687</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>689</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>691</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>693</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>695</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>697</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>699</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>701</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>703</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>705</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>707</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>709</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>711</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>713</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>715</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>717</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>719</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>721</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>723</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>725</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>727</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>729</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>731</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>732</v>
+      </c>
+      <c r="D84" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>734</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>736</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>738</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>740</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>742</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>683</v>
+      </c>
+      <c r="D89" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>744</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>746</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>748</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>750</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>752</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>754</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>756</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>758</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>760</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>761</v>
+      </c>
+      <c r="D98" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>763</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>765</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>767</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>768</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" xr:uid="{8049B76B-A845-4CFD-90E7-4420ED1FCED5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>